--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E65666-3E37-44A3-B1B5-4A2952C320EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8FB3F-9862-436A-ADF4-E457DDDA99BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/merge-k-sorted-lists/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-in-rotated-sorted-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-in-rotated-sorted-array/solution/python-3bao-li-jie-fa-yi-xing-jie-fa-yu-er-fen-cha/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,6 +637,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -626,8 +669,10 @@
     <hyperlink ref="G3" r:id="rId4" xr:uid="{0F667682-15A7-4C31-B699-C839F04147E3}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{98ED7486-AC2E-490B-BEF6-DC885C526814}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{BF5ABBC9-5923-40EF-A468-3E8A08DE882C}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{6C6C1F69-A2C2-42A5-90B6-3B7C9698371B}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{4D4CB031-8EF2-4795-8CD6-CD2236256DE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8FB3F-9862-436A-ADF4-E457DDDA99BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E86EFB-B979-47DA-9AA9-1C2A0D6647FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum/solution/python-3bao-li-jie-fa-he-zi-dian-jie-fa-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,6 +684,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -671,8 +718,10 @@
     <hyperlink ref="D4" r:id="rId6" xr:uid="{BF5ABBC9-5923-40EF-A468-3E8A08DE882C}"/>
     <hyperlink ref="D5" r:id="rId7" xr:uid="{6C6C1F69-A2C2-42A5-90B6-3B7C9698371B}"/>
     <hyperlink ref="G5" r:id="rId8" xr:uid="{4D4CB031-8EF2-4795-8CD6-CD2236256DE0}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{8BF358F6-FF80-46CE-8043-601244A7BC7F}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{7318BE24-95C3-4787-9C87-26D50ACBCD75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E86EFB-B979-47DA-9AA9-1C2A0D6647FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DBF91E-0765-4307-B14E-91AEF1C59865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5392. 分割字符串的最大得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5393. 可获得的最大点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/maximum-points-you-can-obtain-from-cards/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,11 +175,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/two-sum/solution/python-3bao-li-jie-fa-he-zi-dian-jie-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1422. 分割字符串的最大得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1423. 可获得的最大点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、动态规划、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、链表、分治算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签顺序建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10E5M5H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0E0M0H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number/solution/python-3shu-xue-yi-xing-jie-yi-huo-yi-xing-jie-by-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E0M0H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题56 - I. 数组中数字出现的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof/solution/python-3xian-pai-xu-zai-cha-zhao-counter-yi-xing-j/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,24 +629,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,13 +662,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -574,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -582,19 +688,22 @@
         <v>43947</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -603,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -611,19 +720,22 @@
         <v>43947</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -632,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -640,19 +752,22 @@
         <v>43947</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -661,50 +776,168 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>43948</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>43948</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -720,8 +953,12 @@
     <hyperlink ref="G5" r:id="rId8" xr:uid="{4D4CB031-8EF2-4795-8CD6-CD2236256DE0}"/>
     <hyperlink ref="D6" r:id="rId9" xr:uid="{8BF358F6-FF80-46CE-8043-601244A7BC7F}"/>
     <hyperlink ref="G6" r:id="rId10" xr:uid="{7318BE24-95C3-4787-9C87-26D50ACBCD75}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{801818D9-D116-41B4-A80F-2CE9DE6C97CB}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{B335A868-D290-4954-B44D-5A7EEF65E1D4}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{0D5ED265-AD63-48C8-9BC4-952102D19046}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{B0A5DF39-1843-4030-A453-1864896DCBE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DBF91E-0765-4307-B14E-91AEF1C59865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E1C6E-2DC2-4BD7-8B44-DCF0524A5722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,14 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10E5M5H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0E0M0H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百题斩001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E0M0H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +280,197 @@
   </si>
   <si>
     <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010. 总持续时间可被 60 整除的歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/partition-array-into-three-parts-with-equal-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/pairs-of-songs-with-total-durations-divisible-by-60/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013. 将数组分成和相等的三个部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩004</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/partition-array-into-three-parts-with-equal-sum/solution/python-3xian-qiu-ping-jun-zai-fen-duan-qiu-he-by-j/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/pairs-of-songs-with-total-durations-divisible-by-60/solution/python-3gou-zao-yi-60-de-yu-shu-wei-suo-yin-de-shu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>532. 数组中的K-diff数对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/k-diff-pairs-in-an-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/k-diff-pairs-in-an-array/solution/python-3wu-xing-jie-ba-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10M5H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1095. 山脉数组中查找目标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 4 月每日一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>852. 山脉数组的峰顶索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/peak-index-in-a-mountain-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-in-mountain-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/peak-index-in-a-mountain-array/solution/python-3liang-chong-yi-xing-jie-er-fen-cha-zhao-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-in-mountain-array/solution/python-3er-fen-cha-zhao-shi-yong-flag-he-bing-shen/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/solution/python-3er-fen-cha-zhao-target-he-target-1-xian-zh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1064. 不动点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/fixed-point/solution/python-3enumerate-die-dai-er-fen-cha-zhao-by-jpch8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/fixed-point/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,15 +518,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -629,16 +897,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
@@ -673,10 +941,10 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -705,10 +973,10 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -737,14 +1005,14 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -769,14 +1037,14 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -825,119 +1093,295 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>43949</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
+      <c r="K7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>43949</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
+      <c r="K8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>53</v>
+      <c r="K9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
+      <c r="K10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
+      <c r="K11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -957,8 +1401,22 @@
     <hyperlink ref="G7" r:id="rId12" xr:uid="{B335A868-D290-4954-B44D-5A7EEF65E1D4}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{0D5ED265-AD63-48C8-9BC4-952102D19046}"/>
     <hyperlink ref="G8" r:id="rId14" xr:uid="{B0A5DF39-1843-4030-A453-1864896DCBE9}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{5E779170-64C9-4D04-83EE-224A41358D55}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{4B34F85B-F229-4454-9620-F5B156F9FDF2}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{71C3B4C7-79A5-4A61-8B60-D263620F7B2C}"/>
+    <hyperlink ref="G9" r:id="rId18" xr:uid="{F334E06D-9078-43C9-B8F0-8CEA56EDFDF0}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{57C0B76C-1474-40A7-A547-526944ECE7BE}"/>
+    <hyperlink ref="G11" r:id="rId20" xr:uid="{60AE5DFA-B96C-4DD4-BE49-E7244551611C}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{9EC5D31E-B01C-4BC2-BD3B-E07416802BDA}"/>
+    <hyperlink ref="G13" r:id="rId22" xr:uid="{2D6B2E65-F6A2-4293-BE32-6672D6CEA51F}"/>
+    <hyperlink ref="G12" r:id="rId23" xr:uid="{97664155-61E7-49B5-85DF-0D9E69CA661B}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{BAB7298A-73FD-4DD8-B734-AA6582094875}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{57E3EF05-7FC5-49BF-9E3F-240F11E77A10}"/>
+    <hyperlink ref="G14" r:id="rId26" xr:uid="{10DE1309-194F-4DD8-9035-65D1E9B80D10}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{25FE67F1-30FF-4021-B9F4-8881181AEBD4}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{0630F09B-AD39-4A81-823D-D9ECF3A75CC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E1C6E-2DC2-4BD7-8B44-DCF0524A5722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FDF101-F065-4BB3-AAD8-74BC952F0F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,11 +466,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E6M0H0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/happy-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202. 快乐数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/happy-number/solution/python-3ji-he-reduce-kuai-man-zhi-zhen-shu-xue-fa-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086. 前五科的均分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/high-five/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/high-five/solution/python-3rong-chang-jie-fa-san-xing-jie-fa-by-jpch8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、数组、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-word-distance/solution/python-3wu-chong-jie-fa-bao-gua-chai-yi-ge-yong-li/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩010</t>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>243. 最短单词距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-word-distance/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩011</t>
+  </si>
+  <si>
+    <t>1085. 最小元素各数位之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-of-digits-in-the-minimum-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9M0H0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,13 +583,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -599,11 +694,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -616,10 +714,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1186,7 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1137,7 +1237,7 @@
         <v>83</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1191,7 +1291,7 @@
       <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1226,7 +1326,7 @@
       <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1261,7 +1361,7 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1348,7 +1448,7 @@
       <c r="E14" t="s">
         <v>101</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1360,7 +1460,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1">
         <v>43950</v>
@@ -1374,7 +1474,7 @@
       <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1382,6 +1482,110 @@
       </c>
       <c r="H15" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1415,8 +1619,16 @@
     <hyperlink ref="G14" r:id="rId26" xr:uid="{10DE1309-194F-4DD8-9035-65D1E9B80D10}"/>
     <hyperlink ref="G15" r:id="rId27" xr:uid="{25FE67F1-30FF-4021-B9F4-8881181AEBD4}"/>
     <hyperlink ref="D15" r:id="rId28" xr:uid="{0630F09B-AD39-4A81-823D-D9ECF3A75CC9}"/>
+    <hyperlink ref="D16" r:id="rId29" xr:uid="{8B6C1C51-E3F4-40E6-BD03-149162B3CFD6}"/>
+    <hyperlink ref="G16" r:id="rId30" xr:uid="{8A9C54E0-100E-4B3E-8944-B7EE0E2FE2C3}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{3218B00A-2A65-4216-976F-EC5C5C1A4652}"/>
+    <hyperlink ref="G17" r:id="rId32" xr:uid="{72F2BD05-5D09-4240-838B-85CB6E82D55C}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{E6AFFEE9-42BA-4D8F-B130-4DE945D6E2C5}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{5BCC2A70-71D3-405C-AD97-202A576FD3E7}"/>
+    <hyperlink ref="D19" r:id="rId35" xr:uid="{2DAFA31D-E05A-4B7C-926E-2A5A2EBBCE27}"/>
+    <hyperlink ref="G19" r:id="rId36" xr:uid="{58A84379-354D-4912-B845-61E83DD8405A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FDF101-F065-4BB3-AAD8-74BC952F0F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7764BD-7ADE-4920-8981-4076C10013D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="169">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做题日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020 年 4 月每日一题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23. 合并K个排序链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标签顺序建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020 年 4 月每日一题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>852. 山脉数组的峰顶索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,7 +536,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E9M0H0</t>
+    <t>https://leetcode-cn.com/problems/merge-two-sorted-lists/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-two-sorted-lists/solution/python-3xian-he-bing-zai-pai-xu-shuang-zhi-zhen-di/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1099. 小于 K 的两数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1065. 字符串的索引对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-strstr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 实现 strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum-less-than-k/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/index-pairs-of-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum-less-than-k/solution/python-3shuang-zhong-xun-huan-yi-xing-jie-xian-pai/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀树/字典树、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础轮刷题计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/index-pairs-of-a-string/solution/python-3bao-li-jie-fa-key-listsort-sorted-by-jpch8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-05月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-04月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-04月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-strstr/solution/python-3yao-ai-da-de-yi-xing-jie-shuang-zhi-zhen-b/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP、Rabin Karp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、双指针、字符串、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/solution/python-3set-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +760,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +790,33 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -701,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -712,9 +939,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -997,598 +1233,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>43947</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>43947</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>43947</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>43948</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>43948</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>43949</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>43949</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>63</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
       </c>
       <c r="B9" s="1">
         <v>43949</v>
       </c>
       <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
         <v>43949</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="K10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
       </c>
       <c r="B11" s="1">
         <v>43949</v>
       </c>
       <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="M11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>43950</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>96</v>
       </c>
       <c r="B13" s="1">
         <v>43950</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
         <v>91</v>
       </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1">
         <v>43950</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" t="s">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1">
         <v>43950</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>111</v>
       </c>
       <c r="B16" s="1">
         <v>43951</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1">
         <v>43951</v>
       </c>
       <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1">
         <v>43951</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1">
         <v>43951</v>
       </c>
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" t="s">
-        <v>127</v>
+      <c r="G20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K7:M7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{75FE49E7-1B3B-4A72-9694-6DB7C6BA6CAE}"/>
@@ -1627,8 +2076,18 @@
     <hyperlink ref="D18" r:id="rId34" xr:uid="{5BCC2A70-71D3-405C-AD97-202A576FD3E7}"/>
     <hyperlink ref="D19" r:id="rId35" xr:uid="{2DAFA31D-E05A-4B7C-926E-2A5A2EBBCE27}"/>
     <hyperlink ref="G19" r:id="rId36" xr:uid="{58A84379-354D-4912-B845-61E83DD8405A}"/>
+    <hyperlink ref="D20" r:id="rId37" xr:uid="{3F3842EF-D37F-4FF6-99F3-E574CE9963CE}"/>
+    <hyperlink ref="G20" r:id="rId38" xr:uid="{0DC21FF8-FC9A-44BE-9114-219B9EB6E6E3}"/>
+    <hyperlink ref="D23" r:id="rId39" xr:uid="{73ABE3C0-1372-499A-8B85-F8A7CAF5A3ED}"/>
+    <hyperlink ref="D21" r:id="rId40" xr:uid="{E50775D3-AB32-416B-9BAF-749F97DD8EB9}"/>
+    <hyperlink ref="D22" r:id="rId41" xr:uid="{83D6A48F-CCEA-4C6E-86FF-336A85FA38A1}"/>
+    <hyperlink ref="G21" r:id="rId42" xr:uid="{82C7E87F-47B3-4E16-9476-9021D9591F1A}"/>
+    <hyperlink ref="G22" r:id="rId43" xr:uid="{E57B922D-205F-49DC-A6DB-DE7D22293DA1}"/>
+    <hyperlink ref="G23" r:id="rId44" xr:uid="{074A4203-E3CF-4BF2-B3FB-6DF1A6FF9B80}"/>
+    <hyperlink ref="D24" r:id="rId45" xr:uid="{C6245AE1-7301-4494-802A-C428BCE7E80E}"/>
+    <hyperlink ref="G24" r:id="rId46" xr:uid="{25AAD943-D746-4484-AE6B-B328CA28EFA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId47"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7764BD-7ADE-4920-8981-4076C10013D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F241DCE-E152-4E4E-BEFB-45838C6B46CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,10 +629,6 @@
   </si>
   <si>
     <t>字典树、字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1M0H0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -755,12 +751,252 @@
     <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/solution/python-3set-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>53. 最大子序和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-subarray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 25 场双周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 187 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP 01. 猜数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/guess-numbers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/guess-numbers/solution/python-3yi-xing-jie-ji-jian-yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、分治算法、动态规划、线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治算法、线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-subarray/solution/python-3shi-bai-de-bao-li-fa-tan-xin-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58. 最后一个单词的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-common-prefix/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>387. 字符串中的第一个唯一字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383. 赎金信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344. 反转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345. 反转字符串中的元音字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-vowels-from-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119. 删去字符串中的元音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-row-keyboard/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1165. 单行键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-ways-to-wear-different-hats-to-each-other/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5387. 每个人戴不同帽子的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game/solution/tiao-yue-you-xi-cong-dpdao-dpdao-tan-xin-cong-bfsd/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-vowels-of-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ransom-note/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-unique-character-in-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/length-of-last-word/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game-ii/solution/python-3tan-xin-suan-fa-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431. 拥有最多糖果的孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/solution/python-3yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1432. 改变一个整数能得到的最大差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/solution/python-3xian-qiu-zui-da-zhi-zai-qiu-zui-xiao-zhi-b/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +1054,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +1073,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -921,14 +1170,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -942,6 +1194,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,10 +1207,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1233,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1636,7 @@
         <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>9</v>
@@ -1415,7 +1671,7 @@
         <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>11</v>
@@ -1481,11 +1737,11 @@
       <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="K7" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1513,7 +1769,7 @@
         <v>149</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>3</v>
@@ -1598,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1665,7 +1921,7 @@
         <v>149</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>45</v>
@@ -1799,7 +2055,7 @@
         <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1915,7 +2171,7 @@
         <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1967,7 +2223,7 @@
         <v>151</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
         <v>148</v>
@@ -1978,7 +2234,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1">
         <v>43952</v>
@@ -1993,13 +2249,13 @@
         <v>133</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" t="s">
         <v>158</v>
-      </c>
-      <c r="H23" t="s">
-        <v>159</v>
       </c>
       <c r="I23" t="s">
         <v>141</v>
@@ -2007,31 +2263,354 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1">
         <v>43953</v>
       </c>
       <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43953</v>
+      </c>
+      <c r="I27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43954</v>
+      </c>
+      <c r="C29" t="s">
         <v>168</v>
       </c>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43954</v>
+      </c>
+      <c r="I30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43954</v>
+      </c>
+      <c r="I31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43954</v>
+      </c>
+      <c r="I32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43954</v>
+      </c>
+      <c r="I33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43954</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2040,54 +2619,75 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{75FE49E7-1B3B-4A72-9694-6DB7C6BA6CAE}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{46298EF7-D196-4BD8-933A-1EE50F7436D6}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{29E245DF-8A61-4FA5-86A0-03E69972A498}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{0F667682-15A7-4C31-B699-C839F04147E3}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{98ED7486-AC2E-490B-BEF6-DC885C526814}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{BF5ABBC9-5923-40EF-A468-3E8A08DE882C}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{6C6C1F69-A2C2-42A5-90B6-3B7C9698371B}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{4D4CB031-8EF2-4795-8CD6-CD2236256DE0}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{8BF358F6-FF80-46CE-8043-601244A7BC7F}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{7318BE24-95C3-4787-9C87-26D50ACBCD75}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{801818D9-D116-41B4-A80F-2CE9DE6C97CB}"/>
-    <hyperlink ref="G7" r:id="rId12" xr:uid="{B335A868-D290-4954-B44D-5A7EEF65E1D4}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{0D5ED265-AD63-48C8-9BC4-952102D19046}"/>
-    <hyperlink ref="G8" r:id="rId14" xr:uid="{B0A5DF39-1843-4030-A453-1864896DCBE9}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{5E779170-64C9-4D04-83EE-224A41358D55}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{4B34F85B-F229-4454-9620-F5B156F9FDF2}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{71C3B4C7-79A5-4A61-8B60-D263620F7B2C}"/>
-    <hyperlink ref="G9" r:id="rId18" xr:uid="{F334E06D-9078-43C9-B8F0-8CEA56EDFDF0}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{57C0B76C-1474-40A7-A547-526944ECE7BE}"/>
-    <hyperlink ref="G11" r:id="rId20" xr:uid="{60AE5DFA-B96C-4DD4-BE49-E7244551611C}"/>
-    <hyperlink ref="D12" r:id="rId21" xr:uid="{9EC5D31E-B01C-4BC2-BD3B-E07416802BDA}"/>
-    <hyperlink ref="G13" r:id="rId22" xr:uid="{2D6B2E65-F6A2-4293-BE32-6672D6CEA51F}"/>
-    <hyperlink ref="G12" r:id="rId23" xr:uid="{97664155-61E7-49B5-85DF-0D9E69CA661B}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{BAB7298A-73FD-4DD8-B734-AA6582094875}"/>
+    <hyperlink ref="G34" r:id="rId1" xr:uid="{25DB362C-0552-44BE-B2AC-B871D71FA304}"/>
+    <hyperlink ref="D34" r:id="rId2" xr:uid="{BDC40A28-D5B1-4479-9A22-FA241DF3B4B3}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{8C955D09-B736-487B-8B02-DB3973C907BD}"/>
+    <hyperlink ref="G24" r:id="rId4" xr:uid="{25AAD943-D746-4484-AE6B-B328CA28EFA9}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{C6245AE1-7301-4494-802A-C428BCE7E80E}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{074A4203-E3CF-4BF2-B3FB-6DF1A6FF9B80}"/>
+    <hyperlink ref="G22" r:id="rId7" xr:uid="{E57B922D-205F-49DC-A6DB-DE7D22293DA1}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{82C7E87F-47B3-4E16-9476-9021D9591F1A}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{83D6A48F-CCEA-4C6E-86FF-336A85FA38A1}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{E50775D3-AB32-416B-9BAF-749F97DD8EB9}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{73ABE3C0-1372-499A-8B85-F8A7CAF5A3ED}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{0DC21FF8-FC9A-44BE-9114-219B9EB6E6E3}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{3F3842EF-D37F-4FF6-99F3-E574CE9963CE}"/>
+    <hyperlink ref="G19" r:id="rId14" xr:uid="{58A84379-354D-4912-B845-61E83DD8405A}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{2DAFA31D-E05A-4B7C-926E-2A5A2EBBCE27}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{5BCC2A70-71D3-405C-AD97-202A576FD3E7}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{E6AFFEE9-42BA-4D8F-B130-4DE945D6E2C5}"/>
+    <hyperlink ref="G17" r:id="rId18" xr:uid="{72F2BD05-5D09-4240-838B-85CB6E82D55C}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{3218B00A-2A65-4216-976F-EC5C5C1A4652}"/>
+    <hyperlink ref="G16" r:id="rId20" xr:uid="{8A9C54E0-100E-4B3E-8944-B7EE0E2FE2C3}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{8B6C1C51-E3F4-40E6-BD03-149162B3CFD6}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{0630F09B-AD39-4A81-823D-D9ECF3A75CC9}"/>
+    <hyperlink ref="G15" r:id="rId23" xr:uid="{25FE67F1-30FF-4021-B9F4-8881181AEBD4}"/>
+    <hyperlink ref="G14" r:id="rId24" xr:uid="{10DE1309-194F-4DD8-9035-65D1E9B80D10}"/>
     <hyperlink ref="D14" r:id="rId25" xr:uid="{57E3EF05-7FC5-49BF-9E3F-240F11E77A10}"/>
-    <hyperlink ref="G14" r:id="rId26" xr:uid="{10DE1309-194F-4DD8-9035-65D1E9B80D10}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{25FE67F1-30FF-4021-B9F4-8881181AEBD4}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{0630F09B-AD39-4A81-823D-D9ECF3A75CC9}"/>
-    <hyperlink ref="D16" r:id="rId29" xr:uid="{8B6C1C51-E3F4-40E6-BD03-149162B3CFD6}"/>
-    <hyperlink ref="G16" r:id="rId30" xr:uid="{8A9C54E0-100E-4B3E-8944-B7EE0E2FE2C3}"/>
-    <hyperlink ref="D17" r:id="rId31" xr:uid="{3218B00A-2A65-4216-976F-EC5C5C1A4652}"/>
-    <hyperlink ref="G17" r:id="rId32" xr:uid="{72F2BD05-5D09-4240-838B-85CB6E82D55C}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{E6AFFEE9-42BA-4D8F-B130-4DE945D6E2C5}"/>
-    <hyperlink ref="D18" r:id="rId34" xr:uid="{5BCC2A70-71D3-405C-AD97-202A576FD3E7}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{2DAFA31D-E05A-4B7C-926E-2A5A2EBBCE27}"/>
-    <hyperlink ref="G19" r:id="rId36" xr:uid="{58A84379-354D-4912-B845-61E83DD8405A}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{3F3842EF-D37F-4FF6-99F3-E574CE9963CE}"/>
-    <hyperlink ref="G20" r:id="rId38" xr:uid="{0DC21FF8-FC9A-44BE-9114-219B9EB6E6E3}"/>
-    <hyperlink ref="D23" r:id="rId39" xr:uid="{73ABE3C0-1372-499A-8B85-F8A7CAF5A3ED}"/>
-    <hyperlink ref="D21" r:id="rId40" xr:uid="{E50775D3-AB32-416B-9BAF-749F97DD8EB9}"/>
-    <hyperlink ref="D22" r:id="rId41" xr:uid="{83D6A48F-CCEA-4C6E-86FF-336A85FA38A1}"/>
-    <hyperlink ref="G21" r:id="rId42" xr:uid="{82C7E87F-47B3-4E16-9476-9021D9591F1A}"/>
-    <hyperlink ref="G22" r:id="rId43" xr:uid="{E57B922D-205F-49DC-A6DB-DE7D22293DA1}"/>
-    <hyperlink ref="G23" r:id="rId44" xr:uid="{074A4203-E3CF-4BF2-B3FB-6DF1A6FF9B80}"/>
-    <hyperlink ref="D24" r:id="rId45" xr:uid="{C6245AE1-7301-4494-802A-C428BCE7E80E}"/>
-    <hyperlink ref="G24" r:id="rId46" xr:uid="{25AAD943-D746-4484-AE6B-B328CA28EFA9}"/>
+    <hyperlink ref="D13" r:id="rId26" xr:uid="{BAB7298A-73FD-4DD8-B734-AA6582094875}"/>
+    <hyperlink ref="G12" r:id="rId27" xr:uid="{97664155-61E7-49B5-85DF-0D9E69CA661B}"/>
+    <hyperlink ref="G13" r:id="rId28" xr:uid="{2D6B2E65-F6A2-4293-BE32-6672D6CEA51F}"/>
+    <hyperlink ref="D12" r:id="rId29" xr:uid="{9EC5D31E-B01C-4BC2-BD3B-E07416802BDA}"/>
+    <hyperlink ref="G11" r:id="rId30" xr:uid="{60AE5DFA-B96C-4DD4-BE49-E7244551611C}"/>
+    <hyperlink ref="D11" r:id="rId31" xr:uid="{57C0B76C-1474-40A7-A547-526944ECE7BE}"/>
+    <hyperlink ref="G9" r:id="rId32" xr:uid="{F334E06D-9078-43C9-B8F0-8CEA56EDFDF0}"/>
+    <hyperlink ref="G10" r:id="rId33" xr:uid="{71C3B4C7-79A5-4A61-8B60-D263620F7B2C}"/>
+    <hyperlink ref="D9" r:id="rId34" xr:uid="{4B34F85B-F229-4454-9620-F5B156F9FDF2}"/>
+    <hyperlink ref="D10" r:id="rId35" xr:uid="{5E779170-64C9-4D04-83EE-224A41358D55}"/>
+    <hyperlink ref="G8" r:id="rId36" xr:uid="{B0A5DF39-1843-4030-A453-1864896DCBE9}"/>
+    <hyperlink ref="D8" r:id="rId37" xr:uid="{0D5ED265-AD63-48C8-9BC4-952102D19046}"/>
+    <hyperlink ref="G7" r:id="rId38" xr:uid="{B335A868-D290-4954-B44D-5A7EEF65E1D4}"/>
+    <hyperlink ref="D7" r:id="rId39" xr:uid="{801818D9-D116-41B4-A80F-2CE9DE6C97CB}"/>
+    <hyperlink ref="G6" r:id="rId40" xr:uid="{7318BE24-95C3-4787-9C87-26D50ACBCD75}"/>
+    <hyperlink ref="D6" r:id="rId41" xr:uid="{8BF358F6-FF80-46CE-8043-601244A7BC7F}"/>
+    <hyperlink ref="G5" r:id="rId42" xr:uid="{4D4CB031-8EF2-4795-8CD6-CD2236256DE0}"/>
+    <hyperlink ref="D5" r:id="rId43" xr:uid="{6C6C1F69-A2C2-42A5-90B6-3B7C9698371B}"/>
+    <hyperlink ref="D4" r:id="rId44" xr:uid="{BF5ABBC9-5923-40EF-A468-3E8A08DE882C}"/>
+    <hyperlink ref="G4" r:id="rId45" xr:uid="{98ED7486-AC2E-490B-BEF6-DC885C526814}"/>
+    <hyperlink ref="G3" r:id="rId46" xr:uid="{0F667682-15A7-4C31-B699-C839F04147E3}"/>
+    <hyperlink ref="D3" r:id="rId47" xr:uid="{29E245DF-8A61-4FA5-86A0-03E69972A498}"/>
+    <hyperlink ref="G2" r:id="rId48" xr:uid="{46298EF7-D196-4BD8-933A-1EE50F7436D6}"/>
+    <hyperlink ref="D2" r:id="rId49" xr:uid="{75FE49E7-1B3B-4A72-9694-6DB7C6BA6CAE}"/>
+    <hyperlink ref="G29" r:id="rId50" xr:uid="{B97EC6A5-2C61-4D23-9AA4-E015DF3D307B}"/>
+    <hyperlink ref="D35" r:id="rId51" xr:uid="{8D9D2C0A-42C3-4563-ACB7-ACE768ECC73F}"/>
+    <hyperlink ref="D41" r:id="rId52" xr:uid="{3AC9F95D-F9F4-4D2C-84E4-67D9FACA7D95}"/>
+    <hyperlink ref="D42" r:id="rId53" xr:uid="{ED8C0E01-3874-4896-99CC-64F40BA575F6}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{66B9F3AB-348C-4560-8444-BBDAC78FE433}"/>
+    <hyperlink ref="D43" r:id="rId55" xr:uid="{F82F96ED-D094-482D-89F2-D22E0C557CEB}"/>
+    <hyperlink ref="G43" r:id="rId56" xr:uid="{DD08A04A-41B5-486F-A602-86F39132B52F}"/>
+    <hyperlink ref="D44" r:id="rId57" xr:uid="{5D63CED3-6E8D-466F-A19B-69C53A177D6D}"/>
+    <hyperlink ref="D40" r:id="rId58" xr:uid="{A9113F55-1171-4046-BC1E-B9A7A39EF7A9}"/>
+    <hyperlink ref="D39" r:id="rId59" xr:uid="{E8A64F60-4755-4D23-B0A4-9117AA4048EC}"/>
+    <hyperlink ref="D38" r:id="rId60" xr:uid="{438B1E31-0127-4FD7-90CE-FA7413A6792E}"/>
+    <hyperlink ref="D37" r:id="rId61" xr:uid="{63B89997-0D0E-4E2C-816A-34176800080E}"/>
+    <hyperlink ref="D36" r:id="rId62" xr:uid="{7C5BEE8C-4A67-4324-B524-E9AFDAF35D38}"/>
+    <hyperlink ref="G44" r:id="rId63" xr:uid="{EF219C79-DD12-4B1D-8D3C-40AFBF3040DF}"/>
+    <hyperlink ref="D25" r:id="rId64" xr:uid="{D4BECB77-A94C-4746-9D34-0B6D14041D1B}"/>
+    <hyperlink ref="D26" r:id="rId65" xr:uid="{795D3EF8-F5EA-49B3-A4DB-DF2D34C46E3E}"/>
+    <hyperlink ref="G25" r:id="rId66" xr:uid="{3A641327-1827-4B09-9BFF-DF5BBCF34856}"/>
+    <hyperlink ref="G26" r:id="rId67" xr:uid="{FC76BB4B-6058-40E6-B5D2-8EBD78F6F98D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId68"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F241DCE-E152-4E4E-BEFB-45838C6B46CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BAD2C-12B4-45A7-9ACB-A0985914E4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面试题56 - I. 数组中数字出现的次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1013. 将数组分成和相等的三个部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百题斩005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,10 +529,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/merge-two-sorted-lists/solution/python-3xian-he-bing-zai-pai-xu-shuang-zhi-zhen-di/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -728,15 +700,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>哈希表、双指针、字符串、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/solution/python-3set-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子序和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-subarray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 25 场双周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 187 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP 01. 猜数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/guess-numbers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/guess-numbers/solution/python-3yi-xing-jie-ji-jian-yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、分治算法、动态规划、线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治算法、线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-subarray/solution/python-3shi-bai-de-bao-li-fa-tan-xin-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58. 最后一个单词的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-common-prefix/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>387. 字符串中的第一个唯一字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383. 赎金信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344. 反转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345. 反转字符串中的元音字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-vowels-from-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119. 删去字符串中的元音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-row-keyboard/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1165. 单行键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-ways-to-wear-different-hats-to-each-other/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5387. 每个人戴不同帽子的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈希表、双指针、字符串、滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针、滑动窗口</t>
+    <t>贪心算法、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game/solution/tiao-yue-you-xi-cong-dpdao-dpdao-tan-xin-cong-bfsd/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-vowels-of-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ransom-note/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-unique-character-in-a-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/length-of-last-word/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game-ii/solution/python-3tan-xin-suan-fa-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431. 拥有最多糖果的孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/solution/python-3yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1432. 改变一个整数能得到的最大差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/solution/python-3xian-qiu-zui-da-zhi-zai-qiu-zui-xiao-zhi-b/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/validate-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/validate-binary-search-tree/solution/python-3zhong-xu-bian-li-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-cost-for-tickets/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-cost-for-tickets/solution/python-3dong-tai-gui-hua-can-kao-guan-jie-by-jpch8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>983. 最低票价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-if-a-string-can-break-another-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1433. 检查一个字符串是否可以打破另一个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-if-a-string-can-break-another-string/solution/python-3xian-pai-xu-zai-bi-jiao-ji-ji-chong-jian-h/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subtree-of-another-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subtree-of-another-tree/solution/xiong-mao-shua-ti-python3-di-gui-pan-duan-liang-ke/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>572. 另一个树的子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP、Rabin Karp、埃氏筛、欧拉筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次 3 题全对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 次 3 题全对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次题解获赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximal-square/solution/python-3bao-li-fa-dong-tai-gui-hua-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximal-square/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态压缩动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次想出状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221. 最大正方形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,15 +1084,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/solution/python-3set-by-jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53. 最大子序和</t>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-ways-to-wear-different-hats-to-each-other/solution/python-3xie-gei-zi-ji-de-chao-xiang-xi-zhuang-ya-d/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次接触状压DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/destination-city/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1436. 旅行终点站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sqrtx/solution/python-3er-fen-cha-zhao-ji-qi-ta-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sqrtx/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -760,43 +1128,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/maximum-subarray/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 25 场双周赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 187 场周赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCP 01. 猜数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/guess-numbers/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百题斩015</t>
+    <t>69. x 的平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顿迭代法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/destination-city/solution/python-3bao-li-fa-chai-ji-chou-lou-yi-xing-jie-you/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -804,163 +1144,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/guess-numbers/solution/python-3yi-xing-jie-ji-jian-yi-xing-jie-by-jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组、分治算法、动态规划、线段树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分治算法、线段树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/maximum-subarray/solution/python-3shi-bai-de-bao-li-fa-tan-xin-by-jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14. 最长公共前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2M0H0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58. 最后一个单词的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/longest-common-prefix/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>387. 字符串中的第一个唯一字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>383. 赎金信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>344. 反转字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>345. 反转字符串中的元音字母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/remove-vowels-from-a-string/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119. 删去字符串中的元音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/single-row-keyboard/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1165. 单行键盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/number-of-ways-to-wear-different-hats-to-each-other/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5387. 每个人戴不同帽子的方案数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位运算、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55. 跳跃游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/jump-game/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心算法、数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/jump-game/solution/tiao-yue-you-xi-cong-dpdao-dpdao-tan-xin-cong-bfsd/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45. 跳跃游戏 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/jump-game-ii/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/reverse-vowels-of-a-string/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/reverse-string/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/ransom-note/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/first-unique-character-in-a-string/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/length-of-last-word/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/jump-game-ii/solution/python-3tan-xin-suan-fa-by-jpch89-2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431. 拥有最多糖果的孩子</t>
+    <t>LCP 12. 小张刷题计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 春季赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-if-all-1s-are-at-least-length-k-places-away/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -968,27 +1160,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/solution/python-3yi-xing-jie-by-jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1432. 改变一个整数能得到的最大差值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/solution/python-3xian-qiu-zui-da-zhi-zai-qiu-zui-xiao-zhi-b/</t>
+    <t>1437. 是否所有 1 都至少相隔 k 个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1438. 绝对差不超过限制的最长连续子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1439. 有序矩阵中的第 k 个最小数组和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-kth-smallest-sum-of-a-matrix-with-sorted-rows/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,14 +1252,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1077,11 +1290,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1169,8 +1392,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,8 +1417,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1196,7 +1440,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,11 +1453,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="计算" xfId="5" builtinId="22"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1489,26 +1737,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="30.25" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1516,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1534,10 +1783,13 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1553,7 +1805,7 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
@@ -1563,7 +1815,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -1588,7 +1840,7 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
@@ -1598,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -1623,7 +1875,7 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -1633,10 +1885,10 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>9</v>
@@ -1658,7 +1910,7 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
@@ -1668,10 +1920,10 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>11</v>
@@ -1693,7 +1945,7 @@
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
@@ -1703,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
@@ -1722,7 +1974,7 @@
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
@@ -1732,16 +1984,16 @@
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1751,25 +2003,25 @@
         <v>43949</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
-        <v>57</v>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>3</v>
@@ -1783,834 +2035,1078 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
         <v>43949</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>43949</v>
       </c>
       <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>43949</v>
       </c>
       <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>43950</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
         <v>84</v>
       </c>
+      <c r="E12" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <v>43950</v>
       </c>
       <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1">
         <v>43950</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1">
         <v>43950</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1">
         <v>43951</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1">
         <v>43951</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>115</v>
-      </c>
-      <c r="H17" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>121</v>
       </c>
       <c r="B18" s="1">
         <v>43951</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>119</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>125</v>
       </c>
       <c r="B19" s="1">
         <v>43951</v>
       </c>
       <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>130</v>
       </c>
       <c r="B20" s="1">
         <v>43952</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1">
         <v>43952</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1">
         <v>43952</v>
       </c>
       <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1">
         <v>43952</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>160</v>
+        <v>130</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>157</v>
-      </c>
-      <c r="H23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>165</v>
       </c>
       <c r="B24" s="1">
         <v>43953</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B25" s="1">
         <v>43953</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" t="s">
-        <v>219</v>
+        <v>208</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1">
         <v>43953</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" t="s">
-        <v>225</v>
+        <v>211</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>165</v>
       </c>
       <c r="B27" s="1">
         <v>43953</v>
       </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
       <c r="I27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>43953</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" t="s">
-        <v>200</v>
+        <v>189</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" t="s">
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1">
         <v>43954</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1">
         <v>43954</v>
       </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" t="s">
+        <v>265</v>
+      </c>
       <c r="I30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B31" s="1">
         <v>43954</v>
       </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>269</v>
+      </c>
       <c r="I31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1">
         <v>43954</v>
       </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
       <c r="I32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1">
         <v>43954</v>
       </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
       <c r="I33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>182</v>
       </c>
       <c r="B34" s="1">
         <v>43954</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>177</v>
       </c>
-      <c r="E34" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="2" t="s">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>181</v>
       </c>
-      <c r="H34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="D37" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="D41" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>197</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B43" s="1">
         <v>43955</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" t="s">
-        <v>204</v>
+        <v>193</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B44" s="1">
         <v>43955</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43956</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H44" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E45" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" t="s">
+        <v>220</v>
+      </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43957</v>
+      </c>
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43958</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" t="s">
+        <v>245</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43960</v>
+      </c>
+      <c r="C49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2686,8 +3182,26 @@
     <hyperlink ref="D26" r:id="rId65" xr:uid="{795D3EF8-F5EA-49B3-A4DB-DF2D34C46E3E}"/>
     <hyperlink ref="G25" r:id="rId66" xr:uid="{3A641327-1827-4B09-9BFF-DF5BBCF34856}"/>
     <hyperlink ref="G26" r:id="rId67" xr:uid="{FC76BB4B-6058-40E6-B5D2-8EBD78F6F98D}"/>
+    <hyperlink ref="D45" r:id="rId68" xr:uid="{8BE88006-EA1E-4B75-AE9D-2D5B162C52FE}"/>
+    <hyperlink ref="G45" r:id="rId69" xr:uid="{FFF6A1FE-6F16-452D-8B04-33FE73C84CC9}"/>
+    <hyperlink ref="D46" r:id="rId70" xr:uid="{CEDE37A6-CF5C-42DC-B9E6-C51A58B88A7D}"/>
+    <hyperlink ref="G46" r:id="rId71" xr:uid="{F6B1CC83-7C03-48E0-83B4-E5C038B30FC6}"/>
+    <hyperlink ref="D27" r:id="rId72" xr:uid="{3B2AAD69-B5D3-468B-86DD-EA54A5ABEDA4}"/>
+    <hyperlink ref="G27" r:id="rId73" xr:uid="{5858A24B-953A-434E-8E44-3F632FB55243}"/>
+    <hyperlink ref="D47" r:id="rId74" xr:uid="{F8F846D7-D9DD-419A-85A5-573A243A2D83}"/>
+    <hyperlink ref="G47" r:id="rId75" xr:uid="{DF4C7A9F-51A2-499B-87B4-B4A72D258B90}"/>
+    <hyperlink ref="D48" r:id="rId76" xr:uid="{9DBB8F30-9C96-40E6-A536-8C7C3AE859EC}"/>
+    <hyperlink ref="G48" r:id="rId77" xr:uid="{DD09EE90-4111-4B5F-B204-27BDA66F68D0}"/>
+    <hyperlink ref="G28" r:id="rId78" xr:uid="{A847640E-2757-4AA0-8E34-36B9488D5C20}"/>
+    <hyperlink ref="D30" r:id="rId79" xr:uid="{F7D623DF-97B0-4111-AD54-A1B0AC67D6AA}"/>
+    <hyperlink ref="G49" r:id="rId80" xr:uid="{27CA8C07-808D-41BE-85E7-2AAA2CC4F097}"/>
+    <hyperlink ref="D49" r:id="rId81" xr:uid="{A0E90A5E-5F5F-4810-9852-975235D0773B}"/>
+    <hyperlink ref="G30" r:id="rId82" xr:uid="{45D1BC92-6FD3-4B79-809D-7FB4DE85E574}"/>
+    <hyperlink ref="D31" r:id="rId83" xr:uid="{06361273-CB0B-48A8-B2F9-A3864CA6FCAE}"/>
+    <hyperlink ref="D32" r:id="rId84" xr:uid="{DD441F70-76F9-4E15-85EB-E6657CA83788}"/>
+    <hyperlink ref="D33" r:id="rId85" xr:uid="{FD1B3CB3-3ED5-48ED-931E-A7CCC8097132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId86"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BAD2C-12B4-45A7-9ACB-A0985914E4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F532E0-05A6-4370-ACEA-FB88B38BFF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="410">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E2M0H0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>58. 最后一个单词的长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首次接触状压DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/destination-city/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1185,6 +1177,528 @@
   </si>
   <si>
     <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次压哨 3 题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/build-an-array-with-stack-operations/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-triplets-that-can-form-two-arrays-of-equal-xor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-ways-of-cutting-a-pizza/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、数组、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/solution/python-3lrd-jie-jue-lca-wen-ti-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 188 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1441. 用栈操作构建数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1442. 形成两个异或相等数组的三元组数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1443. 收集树上所有苹果的最少时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1444. 切披萨的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua/solution/lcp-12-xiao-zhang-shua-ti-ji-hua-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/min-stack/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/min-stack/solution/python-3fu-zhu-zhan-ji-lu-zui-xiao-zhi-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/build-an-array-with-stack-operations/solution/python-3bian-li-target-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-common-prefix/solution/python-3reduce-hua-jian-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/length-of-last-word/solution/python-3yi-xing-jie-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩017</t>
+  </si>
+  <si>
+    <t>百题斩018</t>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145. 二叉树的后序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-unique-character-in-a-string/solution/python-3counter-zi-dian-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-triplets-that-can-form-two-arrays-of-equal-xor/solution/python-3san-zhong-xun-huan-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree/solution/python-3gou-zao-fan-xiang-lu-jing-zi-dian-ji-he-qu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ransom-note/solution/python-3liang-xing-jie-da-lao-men-de-yi-xing-jie-z/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩019</t>
+  </si>
+  <si>
+    <t>百题斩020</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string/solution/python-3san-xing-jie-liang-xing-jie-yi-xing-jie-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-vowels-of-a-string/solution/python-3fu-zhu-lie-biao-shuang-zhi-zhen-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩021</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-vowels-from-a-string/solution/python-3yi-xing-jie-sheng-cheng-qi-biao-da-shi-by-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩022</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-row-keyboard/solution/python-3bao-li-mo-ni-zi-dian-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩023</t>
+  </si>
+  <si>
+    <t>270. 最接近的二叉搜索树值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/closest-binary-search-tree-value/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 04.04. 检查平衡性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-balance-lcci/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530. 二叉搜索树的最小绝对差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-absolute-difference-in-bst/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-bst-to-greater-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>538. 把二叉搜索树转换为累加树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-of-root-to-leaf-binary-numbers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022. 从根到叶的二进制数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/diameter-of-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-tilt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>563. 二叉树的坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-string-from-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>606. 根据二叉树创建字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-two-binary-trees/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>617. 合并二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/same-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100. 相同的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-if-all-1s-are-at-least-length-k-places-away/solution/python-3yi-ci-bian-li-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/solution/python-3er-yuan-zu-wei-hu-ceng-shu-xin-xi-bian-lia/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩025</t>
+  </si>
+  <si>
+    <t>百题斩026</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、树、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-postorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-postorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0M3H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/closest-binary-search-tree-value/solution/python-3sheng-cheng-zhong-xu-xu-lie-hou-bian-li-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-balance-lcci/solution/python-3shuang-zhong-di-gui-dan-di-gui-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩028</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/solution/python-3di-gui-zi-ding-xiang-xia-zi-di-xiang-shang/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩029</t>
+  </si>
+  <si>
+    <t>百题斩030</t>
+  </si>
+  <si>
+    <t>百题斩031</t>
+  </si>
+  <si>
+    <t>百题斩032</t>
+  </si>
+  <si>
+    <t>百题斩033</t>
+  </si>
+  <si>
+    <t>百题斩034</t>
+  </si>
+  <si>
+    <t>百题斩035</t>
+  </si>
+  <si>
+    <t>百题斩036</t>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索-树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subarray-sum-equals-k/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560. 和为K的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习得状压DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√二分答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√两种递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√类型标记法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subarray-sum-equals-k/solution/python-3ge-chong-shi-bai-de-bao-li-fa-qian-zhui-he/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√前缀和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1424,7 +1938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1438,8 +1952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="5" applyAlignment="1"/>
@@ -1737,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1754,7 +2266,7 @@
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="30.25" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="12" width="15.625" customWidth="1"/>
     <col min="13" max="13" width="9.375" customWidth="1"/>
@@ -1789,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1840,7 +2352,7 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
@@ -1875,7 +2387,7 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -1910,7 +2422,7 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
@@ -1989,11 +2501,11 @@
       <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2008,7 +2520,7 @@
       <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
@@ -2106,7 +2618,7 @@
         <v>77</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2144,7 +2656,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>78</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2160,7 +2672,7 @@
       <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
@@ -2236,7 +2748,7 @@
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
@@ -2471,7 +2983,7 @@
       <c r="E22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" t="s">
         <v>144</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2500,7 +3012,7 @@
       <c r="E23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" t="s">
         <v>153</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2526,7 +3038,7 @@
       <c r="D24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
@@ -2550,19 +3062,19 @@
         <v>43953</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" t="s">
         <v>142</v>
@@ -2579,19 +3091,19 @@
         <v>43953</v>
       </c>
       <c r="C26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="H26" t="s">
         <v>142</v>
@@ -2608,19 +3120,19 @@
         <v>43953</v>
       </c>
       <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="H27" t="s">
         <v>142</v>
@@ -2628,8 +3140,8 @@
       <c r="I27" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>239</v>
+      <c r="J27" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2640,28 +3152,28 @@
         <v>43953</v>
       </c>
       <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>191</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="17" t="s">
-        <v>253</v>
+      <c r="J28" s="15" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -2701,22 +3213,22 @@
         <v>43954</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I30" t="s">
         <v>164</v>
@@ -2730,65 +3242,71 @@
         <v>43954</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H31" t="s">
+        <v>142</v>
       </c>
       <c r="I31" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B32" s="1">
         <v>43954</v>
       </c>
       <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>271</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>273</v>
       </c>
       <c r="I32" t="s">
         <v>164</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>240</v>
+      <c r="J32" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B33" s="1">
         <v>43954</v>
       </c>
       <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
         <v>274</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>276</v>
       </c>
       <c r="I33" t="s">
         <v>164</v>
@@ -2824,95 +3342,261 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43963</v>
+      </c>
       <c r="C35" t="s">
         <v>177</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C37" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+      <c r="D37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C38" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>321</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C39" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+      <c r="D39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C40" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+      <c r="D40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>187</v>
+      <c r="E42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="1">
         <v>43955</v>
       </c>
       <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="F43" t="s">
         <v>194</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" t="s">
         <v>196</v>
-      </c>
-      <c r="H43" t="s">
-        <v>197</v>
       </c>
       <c r="I43" t="s">
         <v>148</v>
@@ -2920,25 +3604,25 @@
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="1">
         <v>43955</v>
       </c>
       <c r="C44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>199</v>
+      <c r="E44" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H44" t="s">
         <v>142</v>
@@ -2955,22 +3639,22 @@
         <v>43956</v>
       </c>
       <c r="C45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="F45" t="s">
         <v>218</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" t="s">
         <v>219</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" t="s">
-        <v>220</v>
       </c>
       <c r="I45" t="s">
         <v>147</v>
@@ -2978,25 +3662,25 @@
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" s="1">
         <v>43957</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="F46" t="s">
         <v>223</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="H46" t="s">
         <v>142</v>
@@ -3007,106 +3691,670 @@
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" s="1">
         <v>43958</v>
       </c>
       <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" t="s">
         <v>237</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H47" t="s">
-        <v>238</v>
       </c>
       <c r="I47" t="s">
         <v>147</v>
       </c>
-      <c r="J47" s="17" t="s">
-        <v>241</v>
+      <c r="J47" s="15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="1">
         <v>43959</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" t="s">
         <v>246</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48" t="s">
-        <v>245</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" t="s">
-        <v>247</v>
       </c>
       <c r="I48" t="s">
         <v>147</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J48" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B49" s="1">
         <v>43960</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F49" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" t="s">
         <v>261</v>
-      </c>
-      <c r="F49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" t="s">
-        <v>263</v>
       </c>
       <c r="I49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43962</v>
+      </c>
       <c r="C50" t="s">
-        <v>266</v>
-      </c>
-      <c r="E50" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="F50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" t="s">
+        <v>299</v>
+      </c>
       <c r="I50" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C51" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H51" t="s">
+        <v>289</v>
+      </c>
+      <c r="I51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H53" t="s">
+        <v>317</v>
+      </c>
+      <c r="I53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H54" t="s">
+        <v>320</v>
+      </c>
+      <c r="I54" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>283</v>
+      </c>
+      <c r="I55" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C56" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C57" t="s">
+        <v>313</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C58" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H58" t="s">
+        <v>375</v>
+      </c>
+      <c r="I58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C59" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H59" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43964</v>
+      </c>
+      <c r="C60" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H60" t="s">
+        <v>361</v>
+      </c>
+      <c r="I60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C61" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H61" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>379</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C62" t="s">
+        <v>338</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C63" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="I63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="C64" t="s">
+        <v>343</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="I64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="C65" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="I65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="C66" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="I66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="C67" t="s">
+        <v>349</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="I67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="C68" t="s">
+        <v>351</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="I68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="C69" t="s">
+        <v>353</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="I69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="C70" t="s">
+        <v>355</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="I70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>387</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43966</v>
+      </c>
+      <c r="C71" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H71" t="s">
+        <v>142</v>
+      </c>
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>400</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43966</v>
+      </c>
+      <c r="C72" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>402</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H72" t="s">
+        <v>408</v>
+      </c>
+      <c r="I72" t="s">
+        <v>147</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3200,8 +4448,54 @@
     <hyperlink ref="D31" r:id="rId83" xr:uid="{06361273-CB0B-48A8-B2F9-A3864CA6FCAE}"/>
     <hyperlink ref="D32" r:id="rId84" xr:uid="{DD441F70-76F9-4E15-85EB-E6657CA83788}"/>
     <hyperlink ref="D33" r:id="rId85" xr:uid="{FD1B3CB3-3ED5-48ED-931E-A7CCC8097132}"/>
+    <hyperlink ref="D51" r:id="rId86" xr:uid="{FFAB8C46-BC6A-4F8A-8A57-6E944491BDD8}"/>
+    <hyperlink ref="D52" r:id="rId87" xr:uid="{6EA91CEC-7441-4E7E-9651-DA38615566AC}"/>
+    <hyperlink ref="D53" r:id="rId88" xr:uid="{D27F3A2F-92E1-400D-9164-FEDA5CAD023E}"/>
+    <hyperlink ref="D54" r:id="rId89" xr:uid="{782598FF-6886-4BA7-B329-28F778A91CDE}"/>
+    <hyperlink ref="D55" r:id="rId90" xr:uid="{6643EA23-5107-4970-9A1C-C2648219C4D5}"/>
+    <hyperlink ref="G51" r:id="rId91" xr:uid="{57811557-037A-4552-9967-44504404C601}"/>
+    <hyperlink ref="D50" r:id="rId92" xr:uid="{66E3BA47-1F3C-4159-8074-A8C59B99D8D1}"/>
+    <hyperlink ref="G50" r:id="rId93" xr:uid="{79134B19-290D-44EB-933E-15ECD5144032}"/>
+    <hyperlink ref="D56" r:id="rId94" xr:uid="{8A2352C6-5A12-4B9B-B7FC-A720FF7B97DF}"/>
+    <hyperlink ref="G56" r:id="rId95" xr:uid="{DE357ACC-9D60-4D16-9D93-416D77166EE1}"/>
+    <hyperlink ref="G52" r:id="rId96" xr:uid="{E1C9D441-BCE7-4E98-863C-246D8EFBC902}"/>
+    <hyperlink ref="G35" r:id="rId97" xr:uid="{A117B962-C1E4-417F-98D6-34455B2E710B}"/>
+    <hyperlink ref="G36" r:id="rId98" xr:uid="{1EC8984C-A59C-412B-9AEF-C60DBD2D4473}"/>
+    <hyperlink ref="G37" r:id="rId99" xr:uid="{B58938D7-83FA-4F06-A028-C958693EBCF7}"/>
+    <hyperlink ref="G53" r:id="rId100" xr:uid="{EC20F835-732E-435E-85EB-9BDAC231CB77}"/>
+    <hyperlink ref="G54" r:id="rId101" xr:uid="{A6DC14CE-2BA2-4934-9335-FEFD8EC37130}"/>
+    <hyperlink ref="G38" r:id="rId102" xr:uid="{7505E810-CF46-4DFB-99D0-787397C6F59E}"/>
+    <hyperlink ref="G39" r:id="rId103" xr:uid="{7F6C8C7A-55A6-4552-97DC-BCB69762C274}"/>
+    <hyperlink ref="G40" r:id="rId104" xr:uid="{F949E2C3-58FA-4EFD-A678-7B38287F2C7A}"/>
+    <hyperlink ref="G41" r:id="rId105" xr:uid="{FAEC4B0A-7F85-4CF1-96E0-3E3E61B95AA9}"/>
+    <hyperlink ref="G42" r:id="rId106" xr:uid="{6C110BD2-4554-413E-82A9-06419D9E0D21}"/>
+    <hyperlink ref="D61" r:id="rId107" xr:uid="{76AC2FB4-FA6D-4FE1-A3EE-A4D38373BA57}"/>
+    <hyperlink ref="D62" r:id="rId108" xr:uid="{11CEB370-13B3-4233-A092-266468993261}"/>
+    <hyperlink ref="D63" r:id="rId109" xr:uid="{2248D354-52EA-4741-A7A7-4262FDE61BDC}"/>
+    <hyperlink ref="D64" r:id="rId110" xr:uid="{47203729-4C78-4F6E-AF66-3FC0F529EE91}"/>
+    <hyperlink ref="D65" r:id="rId111" xr:uid="{7B4450BB-B316-4EAC-8BA9-E27465E167A3}"/>
+    <hyperlink ref="D66" r:id="rId112" xr:uid="{1625FE6C-E2A0-4B6E-B966-ADB86E88C956}"/>
+    <hyperlink ref="D67" r:id="rId113" xr:uid="{2ED228E2-829C-4760-84A7-2622F56582DE}"/>
+    <hyperlink ref="D68" r:id="rId114" xr:uid="{BD13A3EB-86AA-4E26-807B-30F7FDD33547}"/>
+    <hyperlink ref="D69" r:id="rId115" xr:uid="{80981E2F-CB16-4449-AF4C-18C5597E3738}"/>
+    <hyperlink ref="D70" r:id="rId116" xr:uid="{C480F40D-6978-4E84-ACD9-5215A11C2A44}"/>
+    <hyperlink ref="G31" r:id="rId117" xr:uid="{BDA328FC-A114-42B5-84A2-68B757F3054E}"/>
+    <hyperlink ref="D60" r:id="rId118" xr:uid="{B20B1618-7922-4692-86A3-E62FC102A47E}"/>
+    <hyperlink ref="G60" r:id="rId119" xr:uid="{933F5021-2910-4325-A66F-DBB7CA1027F8}"/>
+    <hyperlink ref="D57" r:id="rId120" xr:uid="{AAC0B8F9-7093-4074-97F4-46BF95FF3D32}"/>
+    <hyperlink ref="D58" r:id="rId121" xr:uid="{669BD886-BBD4-4B14-8BAF-9D7E07815B4E}"/>
+    <hyperlink ref="D59" r:id="rId122" xr:uid="{83BE320F-633F-4328-823F-9AAB85E2D735}"/>
+    <hyperlink ref="G57" r:id="rId123" xr:uid="{2D057AE9-DEBB-4377-96FD-0471C8B99371}"/>
+    <hyperlink ref="G58" r:id="rId124" xr:uid="{A9F416B0-4327-47B3-A9E5-FB9E6FB13973}"/>
+    <hyperlink ref="G59" r:id="rId125" xr:uid="{F86366D4-50A7-42AE-A303-4C39A939ED84}"/>
+    <hyperlink ref="G61" r:id="rId126" xr:uid="{90B2DCC7-A5A3-4D37-A8E5-ED945A84D03C}"/>
+    <hyperlink ref="G62" r:id="rId127" xr:uid="{72FBE8F7-D3BF-4847-AB24-350FCCC56774}"/>
+    <hyperlink ref="D71" r:id="rId128" xr:uid="{86A20F89-3896-4182-9425-03FF8A977FAA}"/>
+    <hyperlink ref="G71" r:id="rId129" xr:uid="{8D0CD520-27A6-482A-A479-D8C29EC6C72C}"/>
+    <hyperlink ref="D72" r:id="rId130" xr:uid="{F7831666-887E-4477-B500-F9EC3A468211}"/>
+    <hyperlink ref="G72" r:id="rId131" xr:uid="{9F8B0884-594B-461B-A0F5-70FEF10DD8CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId132"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F532E0-05A6-4370-ACEA-FB88B38BFF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83D632-F709-4133-8AB4-41A9D76BF306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="420">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1699,6 +1699,46 @@
   </si>
   <si>
     <t>√前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-product-subarray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-product-subarray/solution/python-3dong-tai-gui-hua-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152. 乘积最大子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>680. 验证回文字符串 Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-palindrome-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发不出去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2249,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4164,9 +4204,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
-      <c r="B63" s="1">
-        <v>43965</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>340</v>
       </c>
@@ -4183,6 +4221,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
+      <c r="B64" s="1"/>
       <c r="C64" t="s">
         <v>343</v>
       </c>
@@ -4199,6 +4238,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
+      <c r="B65" s="1"/>
       <c r="C65" t="s">
         <v>345</v>
       </c>
@@ -4355,6 +4395,64 @@
       </c>
       <c r="J72" s="15" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>414</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C73" t="s">
+        <v>413</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>411</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H73" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>418</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C74" t="s">
+        <v>415</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>417</v>
+      </c>
+      <c r="G74" t="s">
+        <v>419</v>
+      </c>
+      <c r="H74" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4494,8 +4592,11 @@
     <hyperlink ref="G71" r:id="rId129" xr:uid="{8D0CD520-27A6-482A-A479-D8C29EC6C72C}"/>
     <hyperlink ref="D72" r:id="rId130" xr:uid="{F7831666-887E-4477-B500-F9EC3A468211}"/>
     <hyperlink ref="G72" r:id="rId131" xr:uid="{9F8B0884-594B-461B-A0F5-70FEF10DD8CE}"/>
+    <hyperlink ref="D73" r:id="rId132" xr:uid="{74A647C9-BE9C-4617-9023-1F87230D5382}"/>
+    <hyperlink ref="G73" r:id="rId133" xr:uid="{9F4CAE3B-B60B-4736-A112-8A9B9DF69591}"/>
+    <hyperlink ref="D74" r:id="rId134" xr:uid="{ABBF11F3-EA62-42DF-8C3D-65F8E30EDED1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId132"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId135"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83D632-F709-4133-8AB4-41A9D76BF306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1598C0C-92F0-45E9-BE60-69A12B0AC493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="430">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1738,7 +1738,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发不出去</t>
+    <t>https://leetcode-cn.com/problems/valid-palindrome-ii/solution/python-3shuang-zhi-zhen-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/symmetric-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索-树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/symmetric-tree/solution/python-3die-dai-fa-di-gui-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum/solution/python-3di-gui-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112. 路径总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2289,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4445,7 +4485,7 @@
       <c r="F74" t="s">
         <v>417</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>419</v>
       </c>
       <c r="H74" t="s">
@@ -4453,6 +4493,64 @@
       </c>
       <c r="I74" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C75" t="s">
+        <v>424</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>421</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>427</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C76" t="s">
+        <v>428</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>429</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H76" t="s">
+        <v>142</v>
+      </c>
+      <c r="I76" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4595,8 +4693,13 @@
     <hyperlink ref="D73" r:id="rId132" xr:uid="{74A647C9-BE9C-4617-9023-1F87230D5382}"/>
     <hyperlink ref="G73" r:id="rId133" xr:uid="{9F4CAE3B-B60B-4736-A112-8A9B9DF69591}"/>
     <hyperlink ref="D74" r:id="rId134" xr:uid="{ABBF11F3-EA62-42DF-8C3D-65F8E30EDED1}"/>
+    <hyperlink ref="G74" r:id="rId135" xr:uid="{10B895BF-8E04-456F-B8E2-DC5B72223D67}"/>
+    <hyperlink ref="D75" r:id="rId136" xr:uid="{2590EAA2-7214-4AE8-AE22-F97C9FBA59EA}"/>
+    <hyperlink ref="G75" r:id="rId137" xr:uid="{A4E03159-7C58-4A33-974C-CB8C16E28E59}"/>
+    <hyperlink ref="D76" r:id="rId138" xr:uid="{AADC2B5C-98BF-47E9-8DB9-FE363D527AAA}"/>
+    <hyperlink ref="G76" r:id="rId139" xr:uid="{4C2B2B29-905D-4A97-8387-3B70AA18D2C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId135"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId140"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1598C0C-92F0-45E9-BE60-69A12B0AC493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B5321-7CB0-4597-A16E-551D3420B630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="441">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,6 +1779,50 @@
   </si>
   <si>
     <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1371. 每个元音包含偶数次的最长子字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/solution/python-3zhuang-tai-ya-suo-qian-zhui-he-lie-biao-zi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、前缀和、状态压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-palindromic-substring/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-palindromic-substring/solution/python-3bao-li-fa-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2329,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4551,6 +4595,64 @@
       </c>
       <c r="I76" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43971</v>
+      </c>
+      <c r="C77" t="s">
+        <v>431</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>434</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>438</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C78" t="s">
+        <v>437</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H78" t="s">
+        <v>439</v>
+      </c>
+      <c r="I78" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4698,8 +4800,12 @@
     <hyperlink ref="G75" r:id="rId137" xr:uid="{A4E03159-7C58-4A33-974C-CB8C16E28E59}"/>
     <hyperlink ref="D76" r:id="rId138" xr:uid="{AADC2B5C-98BF-47E9-8DB9-FE363D527AAA}"/>
     <hyperlink ref="G76" r:id="rId139" xr:uid="{4C2B2B29-905D-4A97-8387-3B70AA18D2C2}"/>
+    <hyperlink ref="D77" r:id="rId140" xr:uid="{90438414-EBA7-4F90-84FA-DC18A66ED537}"/>
+    <hyperlink ref="G77" r:id="rId141" xr:uid="{F1F89922-F9AC-4910-9512-FF57CFD0D09C}"/>
+    <hyperlink ref="D78" r:id="rId142" xr:uid="{F64CB9A8-9E8D-4229-9C26-6A322F8E9B14}"/>
+    <hyperlink ref="G78" r:id="rId143" xr:uid="{C4C964FD-57DA-443F-9224-26E54C480089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId140"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId144"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B5321-7CB0-4597-A16E-551D3420B630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F06C70-6013-4B22-8917-22E636F96545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="455">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1823,6 +1823,62 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/longest-palindromic-substring/solution/python-3bao-li-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/solution/python-3di-gui-by-jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/solution/python-3di-gui-zi-dian-jia-su-cha-zhao-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106. 从中序与后序遍历序列构造二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116. 填充每个节点的下一个右侧节点指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√完美二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉链法、利用上层 next 指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/solution/python-3bfson-kong-jian-fu-za-du-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2373,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4653,6 +4709,96 @@
       </c>
       <c r="I78" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>442</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C79" t="s">
+        <v>441</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>443</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H79" t="s">
+        <v>142</v>
+      </c>
+      <c r="I79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>442</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C80" t="s">
+        <v>447</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>443</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H80" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>442</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C81" t="s">
+        <v>449</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>451</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H81" t="s">
+        <v>453</v>
+      </c>
+      <c r="I81" t="s">
+        <v>398</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4804,8 +4950,14 @@
     <hyperlink ref="G77" r:id="rId141" xr:uid="{F1F89922-F9AC-4910-9512-FF57CFD0D09C}"/>
     <hyperlink ref="D78" r:id="rId142" xr:uid="{F64CB9A8-9E8D-4229-9C26-6A322F8E9B14}"/>
     <hyperlink ref="G78" r:id="rId143" xr:uid="{C4C964FD-57DA-443F-9224-26E54C480089}"/>
+    <hyperlink ref="D79" r:id="rId144" xr:uid="{8CFC8F44-0C07-4C91-A253-D1318F39CDF2}"/>
+    <hyperlink ref="G79" r:id="rId145" xr:uid="{8CDBFE41-16DA-48DA-9D45-B258AD5C0569}"/>
+    <hyperlink ref="G80" r:id="rId146" xr:uid="{79EF7002-D9B7-4867-B2FD-F79D7E1BE779}"/>
+    <hyperlink ref="D80" r:id="rId147" xr:uid="{B4B6CD48-C4C6-4C9C-9F29-73725D993DC1}"/>
+    <hyperlink ref="D81" r:id="rId148" xr:uid="{9A85C8E1-C167-4DDD-8BA4-6AA6E170F247}"/>
+    <hyperlink ref="G81" r:id="rId149" xr:uid="{E9BF6E92-A647-4E3D-9F04-65A2903B2E0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId144"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId150"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F06C70-6013-4B22-8917-22E636F96545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10390C-BCAB-40E5-81E2-E8BF47761FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="497">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,10 +1674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>习得状压DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√二分答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1879,6 +1875,178 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/solution/python-3bfson-kong-jian-fu-za-du-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117. 填充每个节点的下一个右侧节点指针 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1) 空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node-ii/solution/python-3ceng-ci-bian-li-on-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/solution/python-3bfs-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297. 二叉树的序列化与反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索-树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704. 二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-search/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索-二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-search/solution/python-3liang-chong-xie-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/guess-number-higher-or-lower/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>374. 猜数字大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索-二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/median-of-two-sorted-arrays/solution/python-3bao-li-jie-yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/guess-number-higher-or-lower/solution/python-3er-fen-you-qu-xia-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/median-of-two-sorted-arrays/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、二分查找、分治算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找、分治算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√状压DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-duplicate-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、双指针、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-the-duplicate-number/solution/python-3kuai-man-zhi-zhen-ji-qi-ta-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>974. 和可被 K 整除的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subarray-sums-divisible-by-k/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subarray-sums-divisible-by-k/solution/python-3liang-xing-jie-qian-zhui-he-yu-shu-xing-zh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同余定理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2429,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3353,7 +3521,7 @@
         <v>163</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3991,7 +4159,7 @@
         <v>265</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4223,7 +4391,7 @@
         <v>367</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -4502,7 +4670,7 @@
         <v>398</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4525,39 +4693,39 @@
         <v>402</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H72" t="s">
         <v>407</v>
-      </c>
-      <c r="H72" t="s">
-        <v>408</v>
       </c>
       <c r="I72" t="s">
         <v>147</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B73" s="1">
         <v>43969</v>
       </c>
       <c r="C73" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="H73" t="s">
         <v>142</v>
@@ -4568,25 +4736,25 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B74" s="1">
         <v>43970</v>
       </c>
       <c r="C74" t="s">
+        <v>414</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H74" t="s">
         <v>142</v>
@@ -4597,54 +4765,54 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B75" s="1">
         <v>43970</v>
       </c>
       <c r="C75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H75" t="s">
         <v>142</v>
       </c>
       <c r="I75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
       </c>
       <c r="C76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H76" t="s">
         <v>142</v>
@@ -4655,25 +4823,25 @@
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B77" s="1">
         <v>43971</v>
       </c>
       <c r="C77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H77" t="s">
         <v>142</v>
@@ -4684,28 +4852,28 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78" s="1">
         <v>43972</v>
       </c>
       <c r="C78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H78" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I78" t="s">
         <v>147</v>
@@ -4713,25 +4881,25 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B79" s="1">
         <v>43973</v>
       </c>
       <c r="C79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H79" t="s">
         <v>142</v>
@@ -4742,25 +4910,25 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="1">
         <v>43973</v>
       </c>
       <c r="C80" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H80" t="s">
         <v>142</v>
@@ -4771,34 +4939,240 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B81" s="1">
         <v>43973</v>
       </c>
       <c r="C81" t="s">
+        <v>448</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I81" t="s">
         <v>398</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>458</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C82" t="s">
+        <v>455</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>218</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H82" t="s">
+        <v>456</v>
+      </c>
+      <c r="I82" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>463</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C83" t="s">
+        <v>462</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H83" t="s">
+        <v>464</v>
+      </c>
+      <c r="I83" t="s">
+        <v>398</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C84" t="s">
+        <v>466</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>468</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H84" t="s">
+        <v>470</v>
+      </c>
+      <c r="I84" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>475</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C85" t="s">
+        <v>474</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H85" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C86" t="s">
+        <v>481</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>482</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H86" t="s">
+        <v>483</v>
+      </c>
+      <c r="I86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>485</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43977</v>
+      </c>
+      <c r="C87" t="s">
+        <v>486</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>488</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H87" t="s">
+        <v>489</v>
+      </c>
+      <c r="I87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>494</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43978</v>
+      </c>
+      <c r="C88" t="s">
+        <v>491</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>493</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H88" t="s">
+        <v>496</v>
+      </c>
+      <c r="I88" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4956,8 +5330,22 @@
     <hyperlink ref="D80" r:id="rId147" xr:uid="{B4B6CD48-C4C6-4C9C-9F29-73725D993DC1}"/>
     <hyperlink ref="D81" r:id="rId148" xr:uid="{9A85C8E1-C167-4DDD-8BA4-6AA6E170F247}"/>
     <hyperlink ref="G81" r:id="rId149" xr:uid="{E9BF6E92-A647-4E3D-9F04-65A2903B2E0E}"/>
+    <hyperlink ref="D82" r:id="rId150" xr:uid="{628DCADA-512E-426F-ADA3-30BC4814F00E}"/>
+    <hyperlink ref="G82" r:id="rId151" xr:uid="{D5E42900-B8BD-44E6-8F86-F21CECC22667}"/>
+    <hyperlink ref="G83" r:id="rId152" xr:uid="{E030F476-9778-4729-8427-096AA2510451}"/>
+    <hyperlink ref="D83" r:id="rId153" xr:uid="{55BBA92A-7666-40A3-AF87-2E68C94B4EFE}"/>
+    <hyperlink ref="D84" r:id="rId154" xr:uid="{4535ACAD-7CE1-43B4-B3E2-B47DDC566149}"/>
+    <hyperlink ref="G84" r:id="rId155" xr:uid="{C22F29C7-B2C3-43AF-88FD-577A1491D756}"/>
+    <hyperlink ref="D85" r:id="rId156" xr:uid="{52606A9F-1988-4B4D-B24C-072036F2DF0D}"/>
+    <hyperlink ref="G86" r:id="rId157" xr:uid="{F8231AD2-2517-433D-84CF-2392186A33EC}"/>
+    <hyperlink ref="G85" r:id="rId158" xr:uid="{79A04471-B1DE-4C1D-B959-C59D9739092C}"/>
+    <hyperlink ref="D86" r:id="rId159" xr:uid="{F07827A9-CDCC-4B61-9264-74BC11381446}"/>
+    <hyperlink ref="D87" r:id="rId160" xr:uid="{C96A7F30-822F-4484-BCD0-5C5963AAF1F3}"/>
+    <hyperlink ref="G87" r:id="rId161" xr:uid="{6C7701EF-A74E-4182-A50E-94C50775DF5C}"/>
+    <hyperlink ref="D88" r:id="rId162" xr:uid="{11BE7F45-5D6F-4403-B16E-FD14CE1A1722}"/>
+    <hyperlink ref="G88" r:id="rId163" xr:uid="{A5F2B0E8-665C-42E9-B431-D9EE2E8B533D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId150"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10390C-BCAB-40E5-81E2-E8BF47761FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA8DA28-B06E-438B-8A03-ACE070171E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="509">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2047,6 +2047,54 @@
   </si>
   <si>
     <t>同余定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-string/solution/python-3zhan-yong-yu-gua-hao-pi-pei-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198. 打家劫舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/house-robber/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次攻克简单DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/house-robber/solution/python-3dong-tai-gui-hua-by-jpch89-2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5173,6 +5221,67 @@
       </c>
       <c r="I88" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>502</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43979</v>
+      </c>
+      <c r="C89" t="s">
+        <v>501</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>499</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H89" t="s">
+        <v>498</v>
+      </c>
+      <c r="I89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>506</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43980</v>
+      </c>
+      <c r="C90" t="s">
+        <v>503</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>505</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H90" t="s">
+        <v>142</v>
+      </c>
+      <c r="I90" t="s">
+        <v>147</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5344,8 +5453,12 @@
     <hyperlink ref="G87" r:id="rId161" xr:uid="{6C7701EF-A74E-4182-A50E-94C50775DF5C}"/>
     <hyperlink ref="D88" r:id="rId162" xr:uid="{11BE7F45-5D6F-4403-B16E-FD14CE1A1722}"/>
     <hyperlink ref="G88" r:id="rId163" xr:uid="{A5F2B0E8-665C-42E9-B431-D9EE2E8B533D}"/>
+    <hyperlink ref="G89" r:id="rId164" xr:uid="{5480DEB7-5B2E-432B-869D-770A617CDE81}"/>
+    <hyperlink ref="D89" r:id="rId165" xr:uid="{ACB9FF72-255D-4A35-9864-F457667D566A}"/>
+    <hyperlink ref="D90" r:id="rId166" xr:uid="{081A8C5A-9E8A-4EB2-8BD4-FB175732A7A2}"/>
+    <hyperlink ref="G90" r:id="rId167" xr:uid="{F04B5AEA-02C3-48A2-AF4D-C7360458958C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId168"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA8DA28-B06E-438B-8A03-ACE070171E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076675EB-5B69-40AB-B79D-E18469C5648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="558">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,10 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双指针、滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2095,6 +2091,206 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/house-robber/solution/python-3dong-tai-gui-hua-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/largest-rectangle-in-histogram/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/largest-rectangle-in-histogram/solution/python-3zuo-xiao-deng-dan-diao-zhan-tou-shao-bing-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-product-of-two-elements-in-an-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-product-of-two-elements-in-an-array/solution/python-3bao-li-jie-yi-xing-jie-xian-pai-xu-zai-xia/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 191 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/solution/python-3pai-xu-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/solution/python-3dfs-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/probability-of-a-two-boxes-having-the-same-number-of-distinct-balls/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻接表、BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1465. 切割后面积最大的蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1466. 重新规划路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467. 两个盒子中球的颜色数相同的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/probability-of-a-two-boxes-having-the-same-number-of-distinct-balls/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS、DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待制卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜体文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1464. 数组中两元素的最大乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1460. 通过翻转子数组使两个数组相等  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/course-schedule-iv/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1462. 课程安排 IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-if-a-string-contains-all-binary-codes-of-size-k/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1461. 检查一个字符串是否包含所有长度为 K 的二进制子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/cherry-pickup-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1463. 摘樱桃 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/make-two-arrays-equal-by-reversing-sub-arrays/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 27 场双周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/make-two-arrays-equal-by-reversing-sub-arrays/solution/python-3yi-xing-jie-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/check-if-a-string-contains-all-binary-codes-of-size-k/solution/python-3bao-li-fa-liang-chong-yi-xing-jie-by-acw_j/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-two-numbers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-two-numbers/solution/python-3mo-ni-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻陷力扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2102,7 +2298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2180,6 +2376,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2318,7 +2523,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2333,8 +2538,11 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2351,6 +2559,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2361,12 +2570,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="计算" xfId="5" builtinId="22"/>
+    <cellStyle name="解释性文本" xfId="6" builtinId="53"/>
     <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2645,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2697,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2897,11 +3107,11 @@
       <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3052,7 +3262,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -3188,6 +3398,12 @@
       <c r="I15" t="s">
         <v>99</v>
       </c>
+      <c r="K15" t="s">
+        <v>534</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3423,7 +3639,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1">
         <v>43953</v>
@@ -3432,7 +3648,7 @@
         <v>154</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>20</v>
@@ -3441,10 +3657,10 @@
         <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
         <v>147</v>
@@ -3452,92 +3668,92 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1">
         <v>43953</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H25" t="s">
         <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1">
         <v>43953</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="H26" t="s">
         <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1">
         <v>43953</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H27" t="s">
         <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3548,54 +3764,54 @@
         <v>43953</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1">
         <v>43954</v>
       </c>
       <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
       </c>
       <c r="I29" t="s">
         <v>147</v>
@@ -3603,239 +3819,239 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="1">
         <v>43954</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" t="s">
         <v>262</v>
       </c>
-      <c r="H30" t="s">
-        <v>263</v>
-      </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1">
         <v>43954</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H31" t="s">
         <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1">
         <v>43954</v>
       </c>
       <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1">
         <v>43954</v>
       </c>
       <c r="C33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="1">
         <v>43954</v>
       </c>
       <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H34" t="s">
         <v>142</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" s="1">
         <v>43963</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H35" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" t="s">
         <v>306</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H35" t="s">
-        <v>308</v>
-      </c>
-      <c r="I35" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="1">
         <v>43963</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H36" t="s">
         <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" s="1">
         <v>43963</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H37" t="s">
         <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" s="1">
         <v>43963</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>15</v>
@@ -3844,27 +4060,27 @@
         <v>37</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H38" t="s">
         <v>142</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="1">
         <v>43963</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>15</v>
@@ -3873,27 +4089,27 @@
         <v>153</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H39" t="s">
         <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" s="1">
         <v>43963</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>15</v>
@@ -3902,97 +4118,97 @@
         <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H40" t="s">
         <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="1">
         <v>43963</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H41" t="s">
         <v>142</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" s="1">
         <v>43963</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="H42" t="s">
         <v>142</v>
       </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="1">
         <v>43955</v>
       </c>
       <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="F43" t="s">
         <v>193</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" t="s">
         <v>195</v>
-      </c>
-      <c r="H43" t="s">
-        <v>196</v>
       </c>
       <c r="I43" t="s">
         <v>148</v>
@@ -4000,25 +4216,25 @@
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1">
         <v>43955</v>
       </c>
       <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E44" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H44" t="s">
         <v>142</v>
@@ -4035,22 +4251,22 @@
         <v>43956</v>
       </c>
       <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="F45" t="s">
         <v>217</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" t="s">
         <v>218</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H45" t="s">
-        <v>219</v>
       </c>
       <c r="I45" t="s">
         <v>147</v>
@@ -4058,25 +4274,25 @@
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" s="1">
         <v>43957</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" t="s">
         <v>222</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H46" t="s">
         <v>142</v>
@@ -4087,92 +4303,92 @@
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1">
         <v>43958</v>
       </c>
       <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" t="s">
         <v>236</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" t="s">
-        <v>233</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H47" t="s">
-        <v>237</v>
       </c>
       <c r="I47" t="s">
         <v>147</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="1">
         <v>43959</v>
       </c>
       <c r="C48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" t="s">
         <v>245</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H48" t="s">
-        <v>246</v>
       </c>
       <c r="I48" t="s">
         <v>147</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="1">
         <v>43960</v>
       </c>
       <c r="C49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" t="s">
         <v>260</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F49" t="s">
-        <v>256</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H49" t="s">
-        <v>261</v>
       </c>
       <c r="I49" t="s">
         <v>147</v>
@@ -4186,54 +4402,54 @@
         <v>43962</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" t="s">
         <v>298</v>
       </c>
-      <c r="H50" t="s">
-        <v>299</v>
-      </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51" s="1">
         <v>43961</v>
       </c>
       <c r="C51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H51" t="s">
         <v>288</v>
-      </c>
-      <c r="H51" t="s">
-        <v>289</v>
       </c>
       <c r="I51" t="s">
         <v>147</v>
@@ -4241,138 +4457,138 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="1">
         <v>43961</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H52" t="s">
         <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B53" s="1">
         <v>43961</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B54" s="1">
         <v>43961</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H54" t="s">
         <v>319</v>
       </c>
-      <c r="H54" t="s">
-        <v>320</v>
-      </c>
       <c r="I54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55" s="1">
         <v>43961</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B56" s="1">
         <v>43963</v>
       </c>
       <c r="C56" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H56" t="s">
         <v>142</v>
@@ -4383,118 +4599,118 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B57" s="1">
         <v>43965</v>
       </c>
       <c r="C57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H57" t="s">
         <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="1">
         <v>43965</v>
       </c>
       <c r="C58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H58" t="s">
         <v>374</v>
       </c>
-      <c r="H58" t="s">
-        <v>375</v>
-      </c>
       <c r="I58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B59" s="1">
         <v>43965</v>
       </c>
       <c r="C59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H59" t="s">
         <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B60" s="1">
         <v>43964</v>
       </c>
       <c r="C60" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I60" t="s">
         <v>147</v>
@@ -4502,278 +4718,278 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B61" s="1">
         <v>43965</v>
       </c>
       <c r="C61" t="s">
+        <v>335</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H61" t="s">
         <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B62" s="1">
         <v>43965</v>
       </c>
       <c r="C62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="H62" t="s">
         <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="15"/>
       <c r="I63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="1"/>
       <c r="C64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="15"/>
       <c r="I64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" s="15"/>
       <c r="I65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="15"/>
       <c r="I66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="C67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="15"/>
       <c r="I67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="C68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" s="15"/>
       <c r="I68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="15"/>
       <c r="I69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="C70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="15"/>
       <c r="I70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B71" s="1">
         <v>43966</v>
       </c>
       <c r="C71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H71" t="s">
         <v>142</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B72" s="1">
         <v>43966</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H72" t="s">
         <v>406</v>
-      </c>
-      <c r="H72" t="s">
-        <v>407</v>
       </c>
       <c r="I72" t="s">
         <v>147</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B73" s="1">
         <v>43969</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
+        <v>409</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="H73" t="s">
         <v>142</v>
@@ -4784,25 +5000,25 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B74" s="1">
         <v>43970</v>
       </c>
       <c r="C74" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H74" t="s">
         <v>142</v>
@@ -4813,83 +5029,83 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B75" s="1">
         <v>43970</v>
       </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H75" t="s">
         <v>142</v>
       </c>
       <c r="I75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H76" t="s">
         <v>142</v>
       </c>
       <c r="I76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B77" s="1">
         <v>43971</v>
       </c>
       <c r="C77" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H77" t="s">
         <v>142</v>
@@ -4900,28 +5116,28 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78" s="1">
         <v>43972</v>
       </c>
       <c r="C78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I78" t="s">
         <v>147</v>
@@ -4929,25 +5145,25 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79" s="1">
         <v>43973</v>
       </c>
       <c r="C79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H79" t="s">
         <v>142</v>
@@ -4958,167 +5174,167 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B80" s="1">
         <v>43973</v>
       </c>
       <c r="C80" t="s">
+        <v>445</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H80" t="s">
         <v>142</v>
       </c>
       <c r="I80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B81" s="1">
         <v>43973</v>
       </c>
       <c r="C81" t="s">
+        <v>447</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F81" t="s">
+        <v>449</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H81" t="s">
+        <v>451</v>
+      </c>
+      <c r="I81" t="s">
+        <v>397</v>
+      </c>
+      <c r="J81" s="15" t="s">
         <v>450</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H81" t="s">
-        <v>452</v>
-      </c>
-      <c r="I81" t="s">
-        <v>398</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B82" s="1">
         <v>43974</v>
       </c>
       <c r="C82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
       </c>
       <c r="C83" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H83" t="s">
+        <v>463</v>
+      </c>
+      <c r="I83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J83" s="15" t="s">
         <v>464</v>
-      </c>
-      <c r="I83" t="s">
-        <v>398</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
+        <v>465</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
+        <v>467</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H84" t="s">
+        <v>469</v>
+      </c>
+      <c r="I84" t="s">
         <v>468</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H84" t="s">
-        <v>470</v>
-      </c>
-      <c r="I84" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -5127,39 +5343,39 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
+        <v>481</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H86" t="s">
         <v>482</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H86" t="s">
-        <v>483</v>
       </c>
       <c r="I86" t="s">
         <v>147</v>
@@ -5167,28 +5383,28 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
+        <v>485</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
+        <v>487</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H87" t="s">
         <v>488</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H87" t="s">
-        <v>489</v>
       </c>
       <c r="I87" t="s">
         <v>147</v>
@@ -5196,28 +5412,28 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
+        <v>490</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H88" t="s">
         <v>495</v>
-      </c>
-      <c r="H88" t="s">
-        <v>496</v>
       </c>
       <c r="I88" t="s">
         <v>147</v>
@@ -5225,28 +5441,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H89" t="s">
         <v>497</v>
-      </c>
-      <c r="H89" t="s">
-        <v>498</v>
       </c>
       <c r="I89" t="s">
         <v>147</v>
@@ -5254,25 +5470,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>502</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -5281,7 +5497,293 @@
         <v>147</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>508</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43982</v>
+      </c>
+      <c r="C91" t="s">
+        <v>511</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>509</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H91" t="s">
+        <v>142</v>
+      </c>
+      <c r="I91" t="s">
+        <v>147</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>514</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43982</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>517</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>514</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43982</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>517</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H93" t="s">
+        <v>521</v>
+      </c>
+      <c r="I93" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>515</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43982</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>524</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H94" t="s">
+        <v>528</v>
+      </c>
+      <c r="I94" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>515</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43982</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s">
+        <v>527</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H95" t="s">
+        <v>533</v>
+      </c>
+      <c r="I95" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>537</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>549</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H96" t="s">
+        <v>142</v>
+      </c>
+      <c r="I96" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>537</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>550</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H97" t="s">
+        <v>142</v>
+      </c>
+      <c r="I97" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>537</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>538</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>557</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>554</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H100" t="s">
+        <v>142</v>
+      </c>
+      <c r="I100" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>557</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43983</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5457,8 +5959,26 @@
     <hyperlink ref="D89" r:id="rId165" xr:uid="{ACB9FF72-255D-4A35-9864-F457667D566A}"/>
     <hyperlink ref="D90" r:id="rId166" xr:uid="{081A8C5A-9E8A-4EB2-8BD4-FB175732A7A2}"/>
     <hyperlink ref="G90" r:id="rId167" xr:uid="{F04B5AEA-02C3-48A2-AF4D-C7360458958C}"/>
+    <hyperlink ref="D91" r:id="rId168" xr:uid="{E6DC589D-CECC-4229-8066-DC0AFF2253E9}"/>
+    <hyperlink ref="G91" r:id="rId169" xr:uid="{4675318A-6977-477C-8742-CD84F30A293A}"/>
+    <hyperlink ref="D92" r:id="rId170" xr:uid="{CB1BEBC2-4255-4B75-B587-D7B88D1DEF85}"/>
+    <hyperlink ref="G92" r:id="rId171" xr:uid="{01C74333-A920-41CA-BA7F-B3D2114834D3}"/>
+    <hyperlink ref="D93" r:id="rId172" xr:uid="{39C051E7-01D8-43AC-A884-29AF584A8F92}"/>
+    <hyperlink ref="G93" r:id="rId173" xr:uid="{623CCD78-A17E-408B-88DB-34DF2BAC51FA}"/>
+    <hyperlink ref="D94" r:id="rId174" xr:uid="{5EE7F5EB-D425-4FAD-9BA9-51789E7B323B}"/>
+    <hyperlink ref="G94" r:id="rId175" xr:uid="{E37F0111-24D7-470B-8460-DDE703F6702B}"/>
+    <hyperlink ref="D95" r:id="rId176" xr:uid="{6AF3B679-1803-4517-818B-F92673A0C238}"/>
+    <hyperlink ref="G95" r:id="rId177" xr:uid="{930A4946-044F-4707-B23B-4E0062C51C10}"/>
+    <hyperlink ref="D98" r:id="rId178" xr:uid="{44A1DB0D-603A-4404-B816-048435435A1B}"/>
+    <hyperlink ref="D97" r:id="rId179" xr:uid="{79F44754-47FE-41E9-BB45-D6324B9CBD1B}"/>
+    <hyperlink ref="D99" r:id="rId180" xr:uid="{A26DEA3C-72F9-44B7-B95F-CF7D4CDFC5AB}"/>
+    <hyperlink ref="D96" r:id="rId181" xr:uid="{1B7D3828-2A35-4EEB-BF19-0B8E38C51097}"/>
+    <hyperlink ref="G96" r:id="rId182" xr:uid="{E14DEA94-21B6-4B79-8F2E-8E91DF36F0A2}"/>
+    <hyperlink ref="G97" r:id="rId183" xr:uid="{C001C82A-AA54-4B74-90F6-43FD3662D948}"/>
+    <hyperlink ref="D100" r:id="rId184" xr:uid="{2BC9668C-2987-4974-982A-59BD1A6ACA10}"/>
+    <hyperlink ref="G100" r:id="rId185" xr:uid="{D4D8F912-F7F8-47D1-804B-BDBE9F44822C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId168"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076675EB-5B69-40AB-B79D-E18469C5648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1E8843-C05F-43E0-AF02-E698A6D34D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="577">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2291,6 +2291,101 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题64. 求1+2+…+n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/qiu-12n-lcof/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/qiu-12n-lcof/solution/python-3si-chong-he-gui-jie-yi-chong-bie-ren-de-c-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-06月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Z 字形变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/zigzag-conversion/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/zigzag-conversion/solution/python-3mo-ni-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-integer/solution/python-3lei-xing-zhuan-huan-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-integer/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 整数反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/product-of-array-except-self/solution/python-3san-xing-jie-o1-kong-jian-fu-za-du-by-acw_/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238. 除自身以外数组的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/product-of-array-except-self/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、前缀和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2855,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5539,7 +5634,7 @@
       <c r="B92" s="1">
         <v>43982</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" t="s">
         <v>536</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -5568,7 +5663,7 @@
       <c r="B93" s="1">
         <v>43982</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" t="s">
         <v>529</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -5597,7 +5692,7 @@
       <c r="B94" s="1">
         <v>43982</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" t="s">
         <v>530</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -5626,7 +5721,7 @@
       <c r="B95" s="1">
         <v>43982</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" t="s">
         <v>531</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -5655,7 +5750,7 @@
       <c r="B96" s="1">
         <v>43983</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" t="s">
         <v>539</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -5684,7 +5779,7 @@
       <c r="B97" s="1">
         <v>43983</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" t="s">
         <v>543</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -5707,7 +5802,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="14" t="s">
         <v>537</v>
       </c>
       <c r="B98" s="1">
@@ -5727,7 +5822,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="14" t="s">
         <v>538</v>
       </c>
       <c r="B99" s="1">
@@ -5753,7 +5848,7 @@
       <c r="B100" s="1">
         <v>43983</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" t="s">
         <v>553</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -5775,15 +5870,117 @@
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>557</v>
       </c>
       <c r="B101" s="1">
-        <v>43983</v>
+        <v>43984</v>
+      </c>
+      <c r="C101" t="s">
+        <v>558</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43984</v>
+      </c>
+      <c r="C102" t="s">
+        <v>562</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>564</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H102" t="s">
+        <v>566</v>
+      </c>
+      <c r="I102" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>565</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43984</v>
+      </c>
+      <c r="C103" t="s">
+        <v>571</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>569</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H103" t="s">
+        <v>566</v>
+      </c>
+      <c r="I103" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>573</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C104" t="s">
+        <v>574</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
+        <v>576</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H104" t="s">
+        <v>142</v>
+      </c>
+      <c r="I104" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5977,8 +6174,16 @@
     <hyperlink ref="G97" r:id="rId183" xr:uid="{C001C82A-AA54-4B74-90F6-43FD3662D948}"/>
     <hyperlink ref="D100" r:id="rId184" xr:uid="{2BC9668C-2987-4974-982A-59BD1A6ACA10}"/>
     <hyperlink ref="G100" r:id="rId185" xr:uid="{D4D8F912-F7F8-47D1-804B-BDBE9F44822C}"/>
+    <hyperlink ref="D101" r:id="rId186" xr:uid="{1018BC28-1C61-4680-BDAE-1ED294C1E70F}"/>
+    <hyperlink ref="G101" r:id="rId187" xr:uid="{621D4366-66B4-4472-88A3-E8DB292D3C9A}"/>
+    <hyperlink ref="D102" r:id="rId188" xr:uid="{BFD7E41B-F060-44F0-BE85-27FD167EBC4A}"/>
+    <hyperlink ref="G102" r:id="rId189" xr:uid="{74B27E8C-9344-4DEF-AA6E-380F18180958}"/>
+    <hyperlink ref="G103" r:id="rId190" xr:uid="{6AA7CD7A-F052-470D-890A-C6721D3B69A8}"/>
+    <hyperlink ref="D103" r:id="rId191" xr:uid="{DCC5E4CF-6C0C-4464-9D49-22CC091DA03B}"/>
+    <hyperlink ref="G104" r:id="rId192" xr:uid="{FBC60307-503B-44E6-957E-7E8908B47349}"/>
+    <hyperlink ref="D104" r:id="rId193" xr:uid="{73E48F8C-0AD2-4FC5-9D90-3187C4CB933E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId194"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1E8843-C05F-43E0-AF02-E698A6D34D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18FB2DC-D712-471B-9354-D53FB9727570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="601">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2386,6 +2386,102 @@
   </si>
   <si>
     <t>数组、前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 字符串转换整数 (atoi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/string-to-integer-atoi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/string-to-integer-atoi/solution/python-3mo-ni-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻陷力扣 第 1 周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-number/solution/python-3yi-xing-jie-zhuan-zi-fu-chuan-shu-xue-fang/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题29. 顺时针打印矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 螺旋矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/spiral-matrix/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/solution/python-3mo-ni-by-acw_jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/spiral-matrix/solution/python-3mo-ni-by-acw_jpch89-5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 正则表达式匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、动态规划、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/solution/python-3di-gui-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2950,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5922,7 +6018,7 @@
         <v>566</v>
       </c>
       <c r="I102" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -5951,7 +6047,7 @@
         <v>566</v>
       </c>
       <c r="I103" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -5981,6 +6077,151 @@
       </c>
       <c r="I104" t="s">
         <v>561</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>578</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C105" t="s">
+        <v>577</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>580</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>578</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C106" t="s">
+        <v>583</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>584</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H106" t="s">
+        <v>142</v>
+      </c>
+      <c r="I106" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>589</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C107" t="s">
+        <v>587</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>588</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H107" t="s">
+        <v>142</v>
+      </c>
+      <c r="I107" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>589</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C108" t="s">
+        <v>590</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>588</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H108" t="s">
+        <v>142</v>
+      </c>
+      <c r="I108" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>597</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C109" t="s">
+        <v>596</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s">
+        <v>599</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H109" t="s">
+        <v>598</v>
+      </c>
+      <c r="I109" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6182,8 +6423,18 @@
     <hyperlink ref="D103" r:id="rId191" xr:uid="{DCC5E4CF-6C0C-4464-9D49-22CC091DA03B}"/>
     <hyperlink ref="G104" r:id="rId192" xr:uid="{FBC60307-503B-44E6-957E-7E8908B47349}"/>
     <hyperlink ref="D104" r:id="rId193" xr:uid="{73E48F8C-0AD2-4FC5-9D90-3187C4CB933E}"/>
+    <hyperlink ref="D105" r:id="rId194" xr:uid="{17CACFCB-D0F3-4914-B604-49A68F5EBF0C}"/>
+    <hyperlink ref="G105" r:id="rId195" xr:uid="{90F7FE66-3825-4AD4-AE7C-FFEA5D487642}"/>
+    <hyperlink ref="D106" r:id="rId196" xr:uid="{E28FCB14-B6EA-49E6-BE91-850C5080E065}"/>
+    <hyperlink ref="G106" r:id="rId197" xr:uid="{ED5376B4-86C7-48A6-85EB-53BB99333A3B}"/>
+    <hyperlink ref="D108" r:id="rId198" xr:uid="{17C16F93-EE10-4AE6-A323-D9225B11C4E7}"/>
+    <hyperlink ref="D107" r:id="rId199" xr:uid="{EE1ECABA-B64D-44BE-9B79-94083DE7C6C1}"/>
+    <hyperlink ref="G107" r:id="rId200" xr:uid="{D6476493-64B3-418E-8CBC-9E3BFCF1EC08}"/>
+    <hyperlink ref="G108" r:id="rId201" xr:uid="{93FF1807-D18D-4CCC-B791-A4299AAF02B7}"/>
+    <hyperlink ref="D109" r:id="rId202" xr:uid="{4ED98BB8-CB0F-4937-86BD-D6455BB07259}"/>
+    <hyperlink ref="G109" r:id="rId203" xr:uid="{7533A38F-60AC-46DF-94C5-CBB33D76C36B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId194"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId204"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18FB2DC-D712-471B-9354-D53FB9727570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB513216-6AAE-4546-A471-763238360713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="608">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2482,6 +2482,34 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/regular-expression-matching/solution/python-3di-gui-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/cherry-pickup-ii/solution/python-3dong-tai-gui-hua-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/course-schedule-iv/solution/python-3dfs-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS、弗洛伊德算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3048,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5898,13 +5926,13 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" t="s">
         <v>537</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" t="s">
         <v>541</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -5913,18 +5941,27 @@
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="F98" t="s">
+        <v>605</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H98" t="s">
+        <v>606</v>
+      </c>
       <c r="I98" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
+      <c r="A99" t="s">
         <v>538</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" t="s">
         <v>545</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -5932,6 +5969,15 @@
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>601</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H99" t="s">
+        <v>602</v>
       </c>
       <c r="I99" t="s">
         <v>547</v>
@@ -5981,6 +6027,9 @@
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>607</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>560</v>
@@ -6433,8 +6482,10 @@
     <hyperlink ref="G108" r:id="rId201" xr:uid="{93FF1807-D18D-4CCC-B791-A4299AAF02B7}"/>
     <hyperlink ref="D109" r:id="rId202" xr:uid="{4ED98BB8-CB0F-4937-86BD-D6455BB07259}"/>
     <hyperlink ref="G109" r:id="rId203" xr:uid="{7533A38F-60AC-46DF-94C5-CBB33D76C36B}"/>
+    <hyperlink ref="G99" r:id="rId204" xr:uid="{4AAC3E7E-C391-4F73-8BA0-E7BE37C38302}"/>
+    <hyperlink ref="G98" r:id="rId205" xr:uid="{FD02548C-F41D-479C-ABC9-A4E35EB74D7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId204"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId206"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB513216-6AAE-4546-A471-763238360713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B58FAD-1502-4102-B989-9303AF15E34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="619">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1429,62 +1429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>530. 二叉搜索树的最小绝对差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/minimum-absolute-difference-in-bst/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/convert-bst-to-greater-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>538. 把二叉搜索树转换为累加树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/sum-of-root-to-leaf-binary-numbers/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1022. 从根到叶的二进制数之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/diameter-of-binary-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>543. 二叉树的直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-tilt/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>563. 二叉树的坡度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/construct-string-from-binary-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>606. 根据二叉树创建字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/merge-two-binary-trees/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>617. 合并二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/same-tree/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1572,10 +1516,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/binary-tree-postorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89-3/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E0M3H1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2510,6 +2450,110 @@
   </si>
   <si>
     <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/solution/python-3xian-qu-zhong-zai-pai-xu-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128. 最长连续序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2M3H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107. 二叉树的层次遍历 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108. 将有序数组转换为二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/balanced-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110. 平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111. 二叉树的最小深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235. 二叉搜索树的最近公共祖先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-paths/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257. 二叉树的所有路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/same-tree/solution/python-3dfs-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/solution/python-3bfs-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、广度优先搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3074,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3481,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>376</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -3618,10 +3662,10 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4004,7 +4048,7 @@
         <v>162</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4085,7 +4129,7 @@
         <v>266</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="H31" t="s">
         <v>142</v>
@@ -4642,7 +4686,7 @@
         <v>264</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4818,7 +4862,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B57" s="1">
         <v>43965</v>
@@ -4827,27 +4871,27 @@
         <v>312</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H57" t="s">
         <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B58" s="1">
         <v>43965</v>
@@ -4856,30 +4900,30 @@
         <v>313</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H58" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I58" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B59" s="1">
         <v>43965</v>
@@ -4888,48 +4932,48 @@
         <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="H59" t="s">
         <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B60" s="1">
         <v>43964</v>
       </c>
       <c r="C60" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H60" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="I60" t="s">
         <v>147</v>
@@ -4937,7 +4981,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B61" s="1">
         <v>43965</v>
@@ -4952,21 +4996,21 @@
         <v>15</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H61" t="s">
         <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B62" s="1">
         <v>43965</v>
@@ -4981,234 +5025,258 @@
         <v>15</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="H62" t="s">
         <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="1"/>
+      <c r="A63" t="s">
+        <v>616</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43989</v>
+      </c>
       <c r="C63" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H63" t="s">
+        <v>142</v>
+      </c>
       <c r="I63" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="1"/>
+      <c r="A64" t="s">
+        <v>616</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43989</v>
+      </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>601</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>341</v>
+        <v>600</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H64" t="s">
+        <v>142</v>
+      </c>
       <c r="I64" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>344</v>
+        <v>602</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>343</v>
+        <v>603</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" s="15"/>
       <c r="I65" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="C66" t="s">
-        <v>346</v>
+        <v>605</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>345</v>
+        <v>604</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="15"/>
       <c r="I66" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="C67" t="s">
-        <v>348</v>
+        <v>607</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>347</v>
+        <v>606</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="15"/>
       <c r="I67" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>609</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>349</v>
+        <v>608</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" s="15"/>
       <c r="I68" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="C69" t="s">
-        <v>352</v>
+        <v>611</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>351</v>
+        <v>610</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="15"/>
       <c r="I69" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>353</v>
+        <v>612</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="15"/>
       <c r="I70" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B71" s="1">
         <v>43966</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H71" t="s">
         <v>142</v>
       </c>
       <c r="I71" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B72" s="1">
         <v>43966</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H72" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="I72" t="s">
         <v>147</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B73" s="1">
         <v>43969</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H73" t="s">
         <v>142</v>
@@ -5219,25 +5287,25 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B74" s="1">
         <v>43970</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H74" t="s">
         <v>142</v>
@@ -5248,83 +5316,83 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B75" s="1">
         <v>43970</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="H75" t="s">
         <v>142</v>
       </c>
       <c r="I75" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H76" t="s">
         <v>142</v>
       </c>
       <c r="I76" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B77" s="1">
         <v>43971</v>
       </c>
       <c r="C77" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H77" t="s">
         <v>142</v>
@@ -5335,28 +5403,28 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B78" s="1">
         <v>43972</v>
       </c>
       <c r="C78" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="H78" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="I78" t="s">
         <v>147</v>
@@ -5364,25 +5432,25 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B79" s="1">
         <v>43973</v>
       </c>
       <c r="C79" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="H79" t="s">
         <v>142</v>
@@ -5393,77 +5461,77 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B80" s="1">
         <v>43973</v>
       </c>
       <c r="C80" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="H80" t="s">
         <v>142</v>
       </c>
       <c r="I80" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B81" s="1">
         <v>43973</v>
       </c>
       <c r="C81" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H81" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I81" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B82" s="1">
         <v>43974</v>
       </c>
       <c r="C82" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>20</v>
@@ -5472,88 +5540,88 @@
         <v>217</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H82" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="I82" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
       </c>
       <c r="C83" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="H83" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="I83" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="H84" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="I84" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -5562,39 +5630,39 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="H86" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="I86" t="s">
         <v>147</v>
@@ -5602,28 +5670,28 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="H87" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="I87" t="s">
         <v>147</v>
@@ -5631,28 +5699,28 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H88" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="I88" t="s">
         <v>147</v>
@@ -5660,28 +5728,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="H89" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="I89" t="s">
         <v>147</v>
@@ -5689,25 +5757,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -5716,30 +5784,30 @@
         <v>147</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -5748,529 +5816,558 @@
         <v>147</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H92" t="s">
         <v>142</v>
       </c>
       <c r="I92" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H93" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="I93" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H94" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="I94" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H95" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="I95" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="H98" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="I98" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="H99" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="I99" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="H100" t="s">
         <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H101" t="s">
         <v>142</v>
       </c>
       <c r="I101" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H102" t="s">
+        <v>551</v>
+      </c>
+      <c r="I102" t="s">
         <v>567</v>
-      </c>
-      <c r="H102" t="s">
-        <v>566</v>
-      </c>
-      <c r="I102" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="H103" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="I103" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="H105" t="s">
         <v>142</v>
       </c>
       <c r="I105" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="H109" t="s">
+        <v>583</v>
+      </c>
+      <c r="I109" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>595</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43988</v>
+      </c>
+      <c r="C110" t="s">
+        <v>594</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s">
+        <v>597</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H110" t="s">
         <v>598</v>
       </c>
-      <c r="I109" t="s">
-        <v>582</v>
+      <c r="I110" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6484,8 +6581,12 @@
     <hyperlink ref="G109" r:id="rId203" xr:uid="{7533A38F-60AC-46DF-94C5-CBB33D76C36B}"/>
     <hyperlink ref="G99" r:id="rId204" xr:uid="{4AAC3E7E-C391-4F73-8BA0-E7BE37C38302}"/>
     <hyperlink ref="G98" r:id="rId205" xr:uid="{FD02548C-F41D-479C-ABC9-A4E35EB74D7B}"/>
+    <hyperlink ref="G110" r:id="rId206" xr:uid="{C44DE9E5-F05A-4BB0-9D98-0B0D16918655}"/>
+    <hyperlink ref="D110" r:id="rId207" xr:uid="{2814DB99-4607-4308-BDD5-D14EA50F295A}"/>
+    <hyperlink ref="G63" r:id="rId208" xr:uid="{215309B6-A893-4A9B-8970-B0F6DB094D72}"/>
+    <hyperlink ref="G64" r:id="rId209" xr:uid="{90D9296A-89EB-40BE-91E3-C59EFB304D58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId206"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B58FAD-1502-4102-B989-9303AF15E34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8839F-0963-4EC2-864D-66655B398E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="624">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2554,6 +2554,26 @@
   </si>
   <si>
     <t>树、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/satisfiability-of-equality-equations/solution/python-3bing-cha-ji-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/satisfiability-of-equality-equations/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990. 等式方程的可满足性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3118,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6367,6 +6387,35 @@
         <v>598</v>
       </c>
       <c r="I110" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>623</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43990</v>
+      </c>
+      <c r="C111" t="s">
+        <v>622</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>620</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H111" t="s">
+        <v>142</v>
+      </c>
+      <c r="I111" t="s">
         <v>546</v>
       </c>
     </row>
@@ -6585,8 +6634,10 @@
     <hyperlink ref="D110" r:id="rId207" xr:uid="{2814DB99-4607-4308-BDD5-D14EA50F295A}"/>
     <hyperlink ref="G63" r:id="rId208" xr:uid="{215309B6-A893-4A9B-8970-B0F6DB094D72}"/>
     <hyperlink ref="G64" r:id="rId209" xr:uid="{90D9296A-89EB-40BE-91E3-C59EFB304D58}"/>
+    <hyperlink ref="G111" r:id="rId210" xr:uid="{34878932-4871-428E-89B2-13395E2A5CA5}"/>
+    <hyperlink ref="D111" r:id="rId211" xr:uid="{B37C1DE6-E049-46F5-9976-716B459C5EA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8839F-0963-4EC2-864D-66655B398E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E30DB-17C3-4174-B852-202352807239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="661">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2477,10 +2477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E2M3H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2574,6 +2570,158 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1470. 重新排列数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shuffle-the-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 192 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shuffle-the-array/solution/python-3bian-li-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1471. 数组中的 k 个最强值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/solution/python-3key-han-shu-yu-cmp-han-shu-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1472. 设计浏览器历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-browser-history/solution/python-3mo-ni-by-acw_jpch89-6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-browser-history/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1473. 给房子涂色 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/paint-house-iii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/paint-house-iii/solution/python-3san-wei-dong-tai-gui-hua-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/daily-temperatures/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/daily-temperatures/solution/python-3dan-diao-di-jian-zhan-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自底向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/balanced-binary-tree/solution/python-3dfs-by-acw_jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/solution/python-3dfs-by-acw_jpch89-5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/solution/python-3di-gui-cuo-wu-shi-fan-zheng-que-shi-fan-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-paths/solution/python-3dfs-by-acw_jpch89-6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10M3H1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3138,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3545,7 +3693,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>599</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4896,7 +5044,7 @@
       <c r="E57" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" t="s">
         <v>349</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4925,7 +5073,7 @@
       <c r="E58" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" t="s">
         <v>356</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -4957,7 +5105,7 @@
       <c r="E59" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" t="s">
         <v>349</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -4986,7 +5134,7 @@
       <c r="E60" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" t="s">
         <v>347</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -5015,7 +5163,7 @@
       <c r="E61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" t="s">
         <v>362</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -5044,7 +5192,7 @@
       <c r="E62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" t="s">
         <v>366</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -5059,7 +5207,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -5073,11 +5221,11 @@
       <c r="E63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>615</v>
+      <c r="F63" t="s">
+        <v>614</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -5088,25 +5236,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>618</v>
+      <c r="F64" t="s">
+        <v>617</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -5116,98 +5264,175 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="1"/>
+      <c r="A65" t="s">
+        <v>642</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43993</v>
+      </c>
       <c r="C65" t="s">
+        <v>601</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" t="s">
+        <v>648</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H65" t="s">
+        <v>142</v>
+      </c>
       <c r="I65" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
+      <c r="A66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43993</v>
+      </c>
       <c r="C66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="15"/>
+      <c r="F66" t="s">
+        <v>648</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H66" t="s">
+        <v>650</v>
+      </c>
       <c r="I66" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" t="s">
+        <v>642</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43993</v>
+      </c>
       <c r="C67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="15"/>
+      <c r="F67" t="s">
+        <v>653</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H67" t="s">
+        <v>654</v>
+      </c>
       <c r="I67" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
+      <c r="A68" t="s">
+        <v>642</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43993</v>
+      </c>
       <c r="C68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="F68" t="s">
+        <v>656</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H68" t="s">
+        <v>657</v>
+      </c>
       <c r="I68" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A69" t="s">
+        <v>642</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43993</v>
+      </c>
       <c r="C69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" t="s">
+        <v>656</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H69" t="s">
+        <v>142</v>
+      </c>
       <c r="I69" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
+      <c r="A70" t="s">
+        <v>642</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43993</v>
+      </c>
       <c r="C70" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" t="s">
+        <v>648</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H70" t="s">
+        <v>142</v>
+      </c>
       <c r="I70" t="s">
         <v>380</v>
       </c>
@@ -6392,30 +6617,175 @@
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>628</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43991</v>
+      </c>
+      <c r="C112" t="s">
+        <v>623</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>626</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H112" t="s">
+        <v>142</v>
+      </c>
+      <c r="I112" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>628</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43991</v>
+      </c>
+      <c r="C113" t="s">
+        <v>631</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>632</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="H113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="1">
+        <v>43991</v>
+      </c>
+      <c r="C114" t="s">
+        <v>634</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>636</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H114" t="s">
+        <v>142</v>
+      </c>
+      <c r="I114" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>629</v>
+      </c>
+      <c r="B115" s="1">
+        <v>43991</v>
+      </c>
+      <c r="C115" t="s">
+        <v>638</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" t="s">
+        <v>640</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H115" t="s">
+        <v>142</v>
+      </c>
+      <c r="I115" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>642</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C116" t="s">
+        <v>643</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" t="s">
+        <v>645</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H116" t="s">
+        <v>647</v>
+      </c>
+      <c r="I116" t="s">
         <v>546</v>
       </c>
     </row>
@@ -6636,8 +7006,24 @@
     <hyperlink ref="G64" r:id="rId209" xr:uid="{90D9296A-89EB-40BE-91E3-C59EFB304D58}"/>
     <hyperlink ref="G111" r:id="rId210" xr:uid="{34878932-4871-428E-89B2-13395E2A5CA5}"/>
     <hyperlink ref="D111" r:id="rId211" xr:uid="{B37C1DE6-E049-46F5-9976-716B459C5EA8}"/>
+    <hyperlink ref="D112" r:id="rId212" xr:uid="{11C6DBC7-1434-4338-94A0-EC9F7F77E7CF}"/>
+    <hyperlink ref="G112" r:id="rId213" xr:uid="{BD5B0D9B-543A-41D1-A410-55DA515D8D51}"/>
+    <hyperlink ref="D113" r:id="rId214" xr:uid="{F2928993-8B1E-41E4-9856-C347E96735FD}"/>
+    <hyperlink ref="G113" r:id="rId215" xr:uid="{C27812E5-7331-49A9-9944-F97FC4BF0BF6}"/>
+    <hyperlink ref="G114" r:id="rId216" xr:uid="{D9FF4EA1-E19D-40D2-AD8E-2C2C63893584}"/>
+    <hyperlink ref="D114" r:id="rId217" xr:uid="{E5D28766-579C-40F0-B83C-F6196A6DAA2B}"/>
+    <hyperlink ref="D115" r:id="rId218" xr:uid="{26F111D2-7C84-44DC-9FEC-19BEA55691F8}"/>
+    <hyperlink ref="G115" r:id="rId219" xr:uid="{985AFEE2-128E-48CD-B6B4-6F4075C13189}"/>
+    <hyperlink ref="D116" r:id="rId220" xr:uid="{89D0EEE7-8BAC-42C9-A80E-D7494ED378D8}"/>
+    <hyperlink ref="G116" r:id="rId221" xr:uid="{EE0BFB40-A447-492D-9F0C-A1FFD3712DF0}"/>
+    <hyperlink ref="G65" r:id="rId222" xr:uid="{654518F9-45DB-413D-B0E3-38089165BEBA}"/>
+    <hyperlink ref="G66" r:id="rId223" xr:uid="{173848E2-05C4-4AE0-947A-789BF545FC7B}"/>
+    <hyperlink ref="G67" r:id="rId224" xr:uid="{883ADB4E-E2A0-450F-9C76-050C8F2CA8CD}"/>
+    <hyperlink ref="G68" r:id="rId225" xr:uid="{7C675B94-538F-48E7-8406-B6867C567F29}"/>
+    <hyperlink ref="G69" r:id="rId226" xr:uid="{5D783EE0-759F-4D20-9B3C-A4DBC1D0EB67}"/>
+    <hyperlink ref="G70" r:id="rId227" xr:uid="{633C064C-EE58-488D-A3A0-2927EE5E58E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E30DB-17C3-4174-B852-202352807239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB984670-B0ED-4767-A28B-EA48626F0F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="666">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1850,10 +1850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2722,6 +2718,30 @@
   </si>
   <si>
     <t>E10M3H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/climbing-stairs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/climbing-stairs/solution/python-3dong-tai-gui-hua-by-acw_jpch89-2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3286,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3693,7 +3713,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -3830,10 +3850,10 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
+        <v>518</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>519</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4216,7 +4236,7 @@
         <v>162</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5207,7 +5227,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -5222,10 +5242,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -5236,25 +5256,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -5265,25 +5285,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
+        <v>600</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
+        <v>647</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
@@ -5294,28 +5314,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I66" t="s">
         <v>376</v>
@@ -5323,28 +5343,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
+        <v>652</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H67" t="s">
         <v>653</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="H67" t="s">
-        <v>654</v>
       </c>
       <c r="I67" t="s">
         <v>377</v>
@@ -5352,28 +5372,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
+        <v>655</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="H68" t="s">
         <v>656</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="H68" t="s">
-        <v>657</v>
       </c>
       <c r="I68" t="s">
         <v>378</v>
@@ -5381,25 +5401,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
@@ -5410,25 +5430,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
@@ -5796,7 +5816,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>447</v>
+        <v>662</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
@@ -5817,56 +5837,56 @@
         <v>443</v>
       </c>
       <c r="H83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I83" t="s">
         <v>382</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
+        <v>451</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H84" t="s">
+        <v>453</v>
+      </c>
+      <c r="I84" t="s">
         <v>452</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H84" t="s">
-        <v>454</v>
-      </c>
-      <c r="I84" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -5875,39 +5895,39 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
+        <v>465</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H86" t="s">
         <v>466</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H86" t="s">
-        <v>467</v>
       </c>
       <c r="I86" t="s">
         <v>147</v>
@@ -5915,28 +5935,28 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
+        <v>471</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H87" t="s">
         <v>472</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H87" t="s">
-        <v>473</v>
       </c>
       <c r="I87" t="s">
         <v>147</v>
@@ -5944,28 +5964,28 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H88" t="s">
         <v>479</v>
-      </c>
-      <c r="H88" t="s">
-        <v>480</v>
       </c>
       <c r="I88" t="s">
         <v>147</v>
@@ -5973,28 +5993,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H89" t="s">
         <v>481</v>
-      </c>
-      <c r="H89" t="s">
-        <v>482</v>
       </c>
       <c r="I89" t="s">
         <v>147</v>
@@ -6002,25 +6022,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>486</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -6029,30 +6049,30 @@
         <v>147</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -6061,732 +6081,761 @@
         <v>147</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
+        <v>501</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
         <v>503</v>
-      </c>
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H93" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I93" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
+        <v>508</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="H94" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I94" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H95" t="s">
         <v>517</v>
       </c>
-      <c r="H95" t="s">
-        <v>518</v>
-      </c>
       <c r="I95" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
+        <v>534</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
+        <v>589</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H98" t="s">
         <v>590</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="H98" t="s">
-        <v>591</v>
-      </c>
       <c r="I98" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
+        <v>585</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H99" t="s">
         <v>586</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H99" t="s">
-        <v>587</v>
-      </c>
       <c r="I99" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
+        <v>538</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" t="s">
+        <v>142</v>
+      </c>
+      <c r="I100" t="s">
         <v>540</v>
-      </c>
-      <c r="H100" t="s">
-        <v>142</v>
-      </c>
-      <c r="I100" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
+        <v>542</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
         <v>545</v>
-      </c>
-      <c r="H101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
+        <v>546</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H102" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I102" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H103" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I103" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
+        <v>558</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
+        <v>564</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" t="s">
         <v>566</v>
-      </c>
-      <c r="H105" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
+        <v>574</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
+        <v>583</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="H109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I109" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
+        <v>596</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H110" t="s">
         <v>597</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H110" t="s">
-        <v>598</v>
-      </c>
       <c r="I110" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
+        <v>622</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
+        <v>625</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
+        <v>631</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
+        <v>637</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
+        <v>639</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
+        <v>642</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
+        <v>644</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" t="s">
         <v>646</v>
       </c>
-      <c r="H116" t="s">
-        <v>647</v>
-      </c>
       <c r="I116" t="s">
-        <v>546</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>664</v>
+      </c>
+      <c r="B117" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C117" t="s">
+        <v>660</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>663</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="H117" t="s">
+        <v>142</v>
+      </c>
+      <c r="I117" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7022,8 +7071,10 @@
     <hyperlink ref="G68" r:id="rId225" xr:uid="{7C675B94-538F-48E7-8406-B6867C567F29}"/>
     <hyperlink ref="G69" r:id="rId226" xr:uid="{5D783EE0-759F-4D20-9B3C-A4DBC1D0EB67}"/>
     <hyperlink ref="G70" r:id="rId227" xr:uid="{633C064C-EE58-488D-A3A0-2927EE5E58E5}"/>
+    <hyperlink ref="D117" r:id="rId228" xr:uid="{1DC8B744-B6A4-4514-B328-F5BD5E0C4332}"/>
+    <hyperlink ref="G117" r:id="rId229" xr:uid="{1CE43FCD-A9A0-4050-85B6-F7B991C80E9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId230"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB984670-B0ED-4767-A28B-EA48626F0F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA38A0-449C-4D3A-AFD2-09ABA36C860C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="671">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2742,6 +2742,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/climbing-stairs/solution/python-3dong-tai-gui-hua-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-sightseeing-pair/solution/python-3chao-shi-bao-li-jie-yi-ci-bian-li-lei-si-h/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014. 最佳观光组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-sightseeing-pair/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3306,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6835,6 +6855,35 @@
         <v>142</v>
       </c>
       <c r="I117" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>667</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C118" t="s">
+        <v>668</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>670</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H118" t="s">
+        <v>142</v>
+      </c>
+      <c r="I118" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7073,8 +7122,10 @@
     <hyperlink ref="G70" r:id="rId227" xr:uid="{633C064C-EE58-488D-A3A0-2927EE5E58E5}"/>
     <hyperlink ref="D117" r:id="rId228" xr:uid="{1DC8B744-B6A4-4514-B328-F5BD5E0C4332}"/>
     <hyperlink ref="G117" r:id="rId229" xr:uid="{1CE43FCD-A9A0-4050-85B6-F7B991C80E9F}"/>
+    <hyperlink ref="G118" r:id="rId230" xr:uid="{D34F77FC-01E7-49A3-B9F1-C07602726F4A}"/>
+    <hyperlink ref="D118" r:id="rId231" xr:uid="{C0FE977E-B3A1-4DC8-BE02-957310E8BB3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId230"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId232"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA38A0-449C-4D3A-AFD2-09ABA36C860C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451DF72-EB66-4AA9-940A-5D0901CC73EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="676">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2762,6 +2762,26 @@
   </si>
   <si>
     <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125. 验证回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-palindrome/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-palindrome/solution/python-3liang-xing-jie-lie-biao-jie-xi-shi-fan-zhu/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3326,10 +3346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6884,6 +6904,35 @@
         <v>142</v>
       </c>
       <c r="I118" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>671</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C119" t="s">
+        <v>672</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>674</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H119" t="s">
+        <v>142</v>
+      </c>
+      <c r="I119" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7124,8 +7173,10 @@
     <hyperlink ref="G117" r:id="rId229" xr:uid="{1CE43FCD-A9A0-4050-85B6-F7B991C80E9F}"/>
     <hyperlink ref="G118" r:id="rId230" xr:uid="{D34F77FC-01E7-49A3-B9F1-C07602726F4A}"/>
     <hyperlink ref="D118" r:id="rId231" xr:uid="{C0FE977E-B3A1-4DC8-BE02-957310E8BB3A}"/>
+    <hyperlink ref="D119" r:id="rId232" xr:uid="{8935A4C0-CBCB-4DF8-86D4-9E8598CCB0DE}"/>
+    <hyperlink ref="G119" r:id="rId233" xr:uid="{7C523C8F-56C4-42A8-AC3D-BB8A5A4D174A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId232"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId234"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451DF72-EB66-4AA9-940A-5D0901CC73EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B0017-C6DC-47F2-82F3-D05E8994A1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2405,19 +2405,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、动态规划、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/solution/python-3di-gui-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/cherry-pickup-ii/solution/python-3dong-tai-gui-hua-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/course-schedule-iv/solution/python-3dfs-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS、弗洛伊德算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/solution/python-3xian-qu-zhong-zai-pai-xu-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128. 最长连续序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107. 二叉树的层次遍历 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108. 将有序数组转换为二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/balanced-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110. 平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111. 二叉树的最小深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235. 二叉搜索树的最近公共祖先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-paths/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257. 二叉树的所有路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/same-tree/solution/python-3dfs-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/solution/python-3bfs-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/satisfiability-of-equality-equations/solution/python-3bing-cha-ji-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/satisfiability-of-equality-equations/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990. 等式方程的可满足性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1470. 重新排列数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shuffle-the-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 192 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shuffle-the-array/solution/python-3bian-li-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1471. 数组中的 k 个最强值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/solution/python-3key-han-shu-yu-cmp-han-shu-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1472. 设计浏览器历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-browser-history/solution/python-3mo-ni-by-acw_jpch89-6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-browser-history/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1473. 给房子涂色 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/paint-house-iii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字符串、动态规划、回溯算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/regular-expression-matching/solution/python-3di-gui-by-acw_jpch89/</t>
+    <t>https://leetcode-cn.com/problems/paint-house-iii/solution/python-3san-wei-dong-tai-gui-hua-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/daily-temperatures/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/daily-temperatures/solution/python-3dan-diao-di-jian-zhan-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自底向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/balanced-binary-tree/solution/python-3dfs-by-acw_jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/solution/python-3dfs-by-acw_jpch89-5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/solution/python-3di-gui-cuo-wu-shi-fan-zheng-que-shi-fan-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-paths/solution/python-3dfs-by-acw_jpch89-6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10M3H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/climbing-stairs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2425,115 +2733,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/cherry-pickup-ii/solution/python-3dong-tai-gui-hua-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/course-schedule-iv/solution/python-3dfs-by-acw_jpch89-2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS、弗洛伊德算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/solution/python-3xian-qu-zhong-zai-pai-xu-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128. 最长连续序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并查集、数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并查集、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107. 二叉树的层次遍历 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108. 将有序数组转换为二叉搜索树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/balanced-binary-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110. 平衡二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111. 二叉树的最小深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/invert-binary-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>226. 翻转二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>235. 二叉搜索树的最近公共祖先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-paths/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>257. 二叉树的所有路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/same-tree/solution/python-3dfs-by-acw_jpch89-3/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树、深度优先搜索</t>
+    <t>https://leetcode-cn.com/problems/climbing-stairs/solution/python-3dong-tai-gui-hua-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-sightseeing-pair/solution/python-3chao-shi-bao-li-jie-yi-ci-bian-li-lei-si-h/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014. 最佳观光组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-sightseeing-pair/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2541,234 +2765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/solution/python-3bfs-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树、广度优先搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/satisfiability-of-equality-equations/solution/python-3bing-cha-ji-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并查集、图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/satisfiability-of-equality-equations/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>990. 等式方程的可满足性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1470. 重新排列数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/shuffle-the-array/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 192 场周赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/shuffle-the-array/solution/python-3bian-li-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1471. 数组中的 k 个最强值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序、数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/solution/python-3key-han-shu-yu-cmp-han-shu-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1472. 设计浏览器历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/design-browser-history/solution/python-3mo-ni-by-acw_jpch89-6/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/design-browser-history/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1473. 给房子涂色 III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/paint-house-iii/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/paint-house-iii/solution/python-3san-wei-dong-tai-gui-hua-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>739. 每日温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/daily-temperatures/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈、哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/daily-temperatures/solution/python-3dan-diao-di-jian-zhan-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树、深度优先搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自底向上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/balanced-binary-tree/solution/python-3dfs-by-acw_jpch89-4/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/solution/python-3dfs-by-acw_jpch89-5/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树、深度优先搜索、广度优先搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广度优先搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/invert-binary-tree/solution/python-3di-gui-cuo-wu-shi-fan-zheng-que-shi-fan-by/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层次遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-3/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-paths/solution/python-3dfs-by-acw_jpch89-6/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E10M3H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70. 爬楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/climbing-stairs/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/climbing-stairs/solution/python-3dong-tai-gui-hua-by-acw_jpch89-2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/best-sightseeing-pair/solution/python-3chao-shi-bao-li-jie-yi-ci-bian-li-lei-si-h/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014. 最佳观光组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/best-sightseeing-pair/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>125. 验证回文串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2782,6 +2778,10 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/valid-palindrome/solution/python-3liang-xing-jie-lie-biao-jie-xi-shi-fan-zhu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3349,7 +3349,7 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3753,7 +3753,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -5267,7 +5267,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -5282,10 +5282,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -5296,25 +5296,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -5325,25 +5325,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
+        <v>599</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
+        <v>646</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
@@ -5354,28 +5354,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I66" t="s">
         <v>376</v>
@@ -5383,28 +5383,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
+        <v>651</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H67" t="s">
         <v>652</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="H67" t="s">
-        <v>653</v>
       </c>
       <c r="I67" t="s">
         <v>377</v>
@@ -5412,28 +5412,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
+        <v>654</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H68" t="s">
         <v>655</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="H68" t="s">
-        <v>656</v>
       </c>
       <c r="I68" t="s">
         <v>378</v>
@@ -5441,25 +5441,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
@@ -5470,25 +5470,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
@@ -6315,13 +6315,13 @@
         <v>20</v>
       </c>
       <c r="F98" t="s">
+        <v>588</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H98" t="s">
         <v>589</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H98" t="s">
-        <v>590</v>
       </c>
       <c r="I98" t="s">
         <v>531</v>
@@ -6344,13 +6344,13 @@
         <v>22</v>
       </c>
       <c r="F99" t="s">
+        <v>584</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H99" t="s">
         <v>585</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="H99" t="s">
-        <v>586</v>
       </c>
       <c r="I99" t="s">
         <v>531</v>
@@ -6402,7 +6402,7 @@
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>544</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>581</v>
+        <v>675</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
@@ -6634,13 +6634,13 @@
         <v>22</v>
       </c>
       <c r="F109" t="s">
+        <v>582</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="H109" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I109" t="s">
         <v>566</v>
@@ -6648,28 +6648,28 @@
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
+        <v>595</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H110" t="s">
         <v>596</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H110" t="s">
-        <v>597</v>
       </c>
       <c r="I110" t="s">
         <v>545</v>
@@ -6677,25 +6677,25 @@
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
@@ -6706,144 +6706,144 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
+        <v>624</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
+        <v>630</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
+        <v>636</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
+        <v>638</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
+        <v>641</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
+        <v>643</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" t="s">
         <v>645</v>
-      </c>
-      <c r="H116" t="s">
-        <v>646</v>
       </c>
       <c r="I116" t="s">
         <v>545</v>
@@ -6851,25 +6851,25 @@
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B117" s="1">
         <v>43998</v>
       </c>
       <c r="C117" t="s">
+        <v>659</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H117" t="s">
         <v>142</v>
@@ -6880,25 +6880,25 @@
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B118" s="1">
         <v>43999</v>
       </c>
       <c r="C118" t="s">
+        <v>667</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H118" t="s">
         <v>142</v>
@@ -6909,25 +6909,25 @@
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B119" s="1">
         <v>44001</v>
       </c>
       <c r="C119" t="s">
+        <v>671</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
+        <v>673</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="H119" t="s">
         <v>142</v>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B0017-C6DC-47F2-82F3-D05E8994A1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D5998-C91A-4B82-9365-A9C72C8BB40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="681">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2782,6 +2782,26 @@
   </si>
   <si>
     <t>xo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124. 二叉树中的最大路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/solution/python-3dfs-by-acw_jpch89-7/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3346,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6933,6 +6953,35 @@
         <v>142</v>
       </c>
       <c r="I119" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>676</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C120" t="s">
+        <v>677</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" t="s">
+        <v>679</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H120" t="s">
+        <v>142</v>
+      </c>
+      <c r="I120" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7175,8 +7224,10 @@
     <hyperlink ref="D118" r:id="rId231" xr:uid="{C0FE977E-B3A1-4DC8-BE02-957310E8BB3A}"/>
     <hyperlink ref="D119" r:id="rId232" xr:uid="{8935A4C0-CBCB-4DF8-86D4-9E8598CCB0DE}"/>
     <hyperlink ref="G119" r:id="rId233" xr:uid="{7C523C8F-56C4-42A8-AC3D-BB8A5A4D174A}"/>
+    <hyperlink ref="D120" r:id="rId234" xr:uid="{576D88C1-4DE0-4DCF-83AB-F57A726A20EA}"/>
+    <hyperlink ref="G120" r:id="rId235" xr:uid="{A62C0D1B-E8ED-4BF9-9559-B2D66CFAB77C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId234"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId236"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D5998-C91A-4B82-9365-A9C72C8BB40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D70AF4-E2AF-472A-895B-ECB94FC3E738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="686">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2802,6 +2802,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/solution/python-3dfs-by-acw_jpch89-7/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67. 二进制求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-binary/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-binary/solution/python-3yi-xing-jie-int-he-bin-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3366,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6982,6 +7002,35 @@
         <v>142</v>
       </c>
       <c r="I120" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>681</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44005</v>
+      </c>
+      <c r="C121" t="s">
+        <v>682</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
+        <v>684</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H121" t="s">
+        <v>142</v>
+      </c>
+      <c r="I121" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7226,8 +7275,10 @@
     <hyperlink ref="G119" r:id="rId233" xr:uid="{7C523C8F-56C4-42A8-AC3D-BB8A5A4D174A}"/>
     <hyperlink ref="D120" r:id="rId234" xr:uid="{576D88C1-4DE0-4DCF-83AB-F57A726A20EA}"/>
     <hyperlink ref="G120" r:id="rId235" xr:uid="{A62C0D1B-E8ED-4BF9-9559-B2D66CFAB77C}"/>
+    <hyperlink ref="D121" r:id="rId236" xr:uid="{1CBE9CCF-B303-4A1E-A1AD-62869FEBA235}"/>
+    <hyperlink ref="G121" r:id="rId237" xr:uid="{DE9EFA37-D320-4913-BD65-C50F4C4436A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId236"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId238"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D70AF4-E2AF-472A-895B-ECB94FC3E738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BB6BCE-00A3-4438-BCC0-9BD5D720AD34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="702">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2822,6 +2822,70 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/add-binary/solution/python-3yi-xing-jie-int-he-bin-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-missing-positive/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-missing-positive/solution/python-3onlogn-de-jie-fa-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209. 长度最小的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-size-subarray-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、双指针、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-size-subarray-sum/solution/python-3chao-shi-bao-li-jie-hua-dong-chuang-kou-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 09. 用两个栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/solution/python-3mei-ci-ru-dui-chu-dui-du-dao-teng-zhi-zai-/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3386,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7031,6 +7095,93 @@
         <v>142</v>
       </c>
       <c r="I121" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>686</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C122" t="s">
+        <v>687</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" t="s">
+        <v>689</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H122" t="s">
+        <v>142</v>
+      </c>
+      <c r="I122" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>692</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44010</v>
+      </c>
+      <c r="C123" t="s">
+        <v>691</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="s">
+        <v>694</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H123" t="s">
+        <v>695</v>
+      </c>
+      <c r="I123" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>697</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C124" t="s">
+        <v>698</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>700</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H124" t="s">
+        <v>142</v>
+      </c>
+      <c r="I124" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7277,8 +7428,14 @@
     <hyperlink ref="G120" r:id="rId235" xr:uid="{A62C0D1B-E8ED-4BF9-9559-B2D66CFAB77C}"/>
     <hyperlink ref="D121" r:id="rId236" xr:uid="{1CBE9CCF-B303-4A1E-A1AD-62869FEBA235}"/>
     <hyperlink ref="G121" r:id="rId237" xr:uid="{DE9EFA37-D320-4913-BD65-C50F4C4436A1}"/>
+    <hyperlink ref="D122" r:id="rId238" xr:uid="{406AE727-86FD-4DAA-B161-8C03DAE92D6B}"/>
+    <hyperlink ref="G122" r:id="rId239" xr:uid="{92C6817D-E6C1-4077-B687-FBF766916C95}"/>
+    <hyperlink ref="D123" r:id="rId240" xr:uid="{CD124D3C-428E-43C6-BAFD-D5B5D1B15BF0}"/>
+    <hyperlink ref="G123" r:id="rId241" xr:uid="{4B21C859-97AC-468B-978B-9E141C570B7C}"/>
+    <hyperlink ref="D124" r:id="rId242" xr:uid="{2CF1AA9A-8BCF-43F0-A824-060045BF5308}"/>
+    <hyperlink ref="G124" r:id="rId243" xr:uid="{8973DCCB-E1AC-4A66-B5C6-AD6A891F3C59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId238"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId244"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BB6BCE-00A3-4438-BCC0-9BD5D720AD34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7E562-A90A-4BEF-B463-796BAB1EC10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="708">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2886,6 +2886,49 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/solution/python-3mei-ci-ru-dui-chu-dui-du-dao-teng-zhi-zai-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63. 不同路径 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths-ii/solution/python-3dong-tai-gui-hua-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-07月 每日一题</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3450,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7183,6 +7226,35 @@
       </c>
       <c r="I124" t="s">
         <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>703</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C125" t="s">
+        <v>702</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" t="s">
+        <v>705</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -7434,8 +7506,10 @@
     <hyperlink ref="G123" r:id="rId241" xr:uid="{4B21C859-97AC-468B-978B-9E141C570B7C}"/>
     <hyperlink ref="D124" r:id="rId242" xr:uid="{2CF1AA9A-8BCF-43F0-A824-060045BF5308}"/>
     <hyperlink ref="G124" r:id="rId243" xr:uid="{8973DCCB-E1AC-4A66-B5C6-AD6A891F3C59}"/>
+    <hyperlink ref="D125" r:id="rId244" xr:uid="{1586D6CD-0D48-4033-A880-9A4C575FEE44}"/>
+    <hyperlink ref="G125" r:id="rId245" xr:uid="{81F3BFA5-7FDE-44BB-92CD-EEA7DDB278B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId244"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId246"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7E562-A90A-4BEF-B463-796BAB1EC10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B4B2E-6023-4E80-B231-0971494087C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1702,10 +1702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>112. 路径总和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2929,6 +2925,10 @@
       </rPr>
       <t xml:space="preserve"> 2020-07月 每日一题</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3495,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3900,7 +3900,7 @@
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4037,10 +4037,10 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
+        <v>517</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4423,7 +4423,7 @@
         <v>162</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -5429,10 +5429,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -5443,25 +5443,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -5472,25 +5472,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
+        <v>598</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
+        <v>645</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
@@ -5501,28 +5501,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I66" t="s">
         <v>376</v>
@@ -5530,28 +5530,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
+        <v>650</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H67" t="s">
         <v>651</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="H67" t="s">
-        <v>652</v>
       </c>
       <c r="I67" t="s">
         <v>377</v>
@@ -5559,28 +5559,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
+        <v>653</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H68" t="s">
         <v>654</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H68" t="s">
-        <v>655</v>
       </c>
       <c r="I68" t="s">
         <v>378</v>
@@ -5588,25 +5588,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
@@ -5617,25 +5617,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>410</v>
+        <v>674</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>409</v>
+        <v>707</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>409</v>
@@ -5826,25 +5826,25 @@
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B77" s="1">
         <v>43971</v>
       </c>
       <c r="C77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H77" t="s">
         <v>142</v>
@@ -5855,28 +5855,28 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B78" s="1">
         <v>43972</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H78" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I78" t="s">
         <v>147</v>
@@ -5884,25 +5884,25 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B79" s="1">
         <v>43973</v>
       </c>
       <c r="C79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H79" t="s">
         <v>142</v>
@@ -5913,25 +5913,25 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B80" s="1">
         <v>43973</v>
       </c>
       <c r="C80" t="s">
+        <v>429</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H80" t="s">
         <v>142</v>
@@ -5942,48 +5942,48 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B81" s="1">
         <v>43973</v>
       </c>
       <c r="C81" t="s">
+        <v>431</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I81" t="s">
         <v>382</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B82" s="1">
         <v>43974</v>
       </c>
       <c r="C82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>20</v>
@@ -5992,10 +5992,10 @@
         <v>217</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I82" t="s">
         <v>382</v>
@@ -6003,77 +6003,77 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H83" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I83" t="s">
         <v>382</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
+        <v>448</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
+        <v>450</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H84" t="s">
+        <v>452</v>
+      </c>
+      <c r="I84" t="s">
         <v>451</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H84" t="s">
-        <v>453</v>
-      </c>
-      <c r="I84" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -6082,39 +6082,39 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
+        <v>464</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H86" t="s">
         <v>465</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H86" t="s">
-        <v>466</v>
       </c>
       <c r="I86" t="s">
         <v>147</v>
@@ -6122,28 +6122,28 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
+        <v>470</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H87" t="s">
         <v>471</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H87" t="s">
-        <v>472</v>
       </c>
       <c r="I87" t="s">
         <v>147</v>
@@ -6151,28 +6151,28 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H88" t="s">
         <v>478</v>
-      </c>
-      <c r="H88" t="s">
-        <v>479</v>
       </c>
       <c r="I88" t="s">
         <v>147</v>
@@ -6180,28 +6180,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H89" t="s">
         <v>480</v>
-      </c>
-      <c r="H89" t="s">
-        <v>481</v>
       </c>
       <c r="I89" t="s">
         <v>147</v>
@@ -6209,25 +6209,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>485</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -6236,30 +6236,30 @@
         <v>147</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -6268,993 +6268,993 @@
         <v>147</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
+        <v>500</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
         <v>502</v>
-      </c>
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
+        <v>507</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="H94" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I94" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H95" t="s">
         <v>516</v>
       </c>
-      <c r="H95" t="s">
-        <v>517</v>
-      </c>
       <c r="I95" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
+        <v>533</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
+        <v>587</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H98" t="s">
         <v>588</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="H98" t="s">
-        <v>589</v>
-      </c>
       <c r="I98" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
+        <v>583</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H99" t="s">
         <v>584</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H99" t="s">
-        <v>585</v>
-      </c>
       <c r="I99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
+        <v>537</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" t="s">
+        <v>142</v>
+      </c>
+      <c r="I100" t="s">
         <v>539</v>
-      </c>
-      <c r="H100" t="s">
-        <v>142</v>
-      </c>
-      <c r="I100" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
+        <v>541</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
         <v>544</v>
-      </c>
-      <c r="H101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
+        <v>545</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I103" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
+        <v>563</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" t="s">
         <v>565</v>
-      </c>
-      <c r="H105" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
+        <v>573</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
+        <v>581</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="H109" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I109" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
+        <v>594</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H110" t="s">
         <v>595</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="H110" t="s">
-        <v>596</v>
-      </c>
       <c r="I110" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
+        <v>620</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
+        <v>623</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
+        <v>629</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
+        <v>635</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
+        <v>637</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
+        <v>640</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
+        <v>642</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" t="s">
         <v>644</v>
       </c>
-      <c r="H116" t="s">
-        <v>645</v>
-      </c>
       <c r="I116" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B117" s="1">
         <v>43998</v>
       </c>
       <c r="C117" t="s">
+        <v>658</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H117" t="s">
         <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B118" s="1">
         <v>43999</v>
       </c>
       <c r="C118" t="s">
+        <v>666</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H118" t="s">
         <v>142</v>
       </c>
       <c r="I118" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B119" s="1">
         <v>44001</v>
       </c>
       <c r="C119" t="s">
+        <v>670</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
+        <v>672</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="H119" t="s">
         <v>142</v>
       </c>
       <c r="I119" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B120" s="1">
         <v>44003</v>
       </c>
       <c r="C120" t="s">
+        <v>676</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F120" t="s">
+        <v>678</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="H120" t="s">
         <v>142</v>
       </c>
       <c r="I120" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B121" s="1">
         <v>44005</v>
       </c>
       <c r="C121" t="s">
+        <v>681</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
+        <v>683</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="H121" t="s">
         <v>142</v>
       </c>
       <c r="I121" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B122" s="1">
         <v>44009</v>
       </c>
       <c r="C122" t="s">
+        <v>686</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F122" t="s">
+        <v>688</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="H122" t="s">
         <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B123" s="1">
         <v>44010</v>
       </c>
       <c r="C123" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
+        <v>693</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H123" t="s">
         <v>694</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="H123" t="s">
-        <v>695</v>
-      </c>
       <c r="I123" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B124" s="1">
         <v>44012</v>
       </c>
       <c r="C124" t="s">
+        <v>697</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F124" t="s">
+        <v>699</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>701</v>
-      </c>
       <c r="H124" t="s">
         <v>142</v>
       </c>
       <c r="I124" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B125" s="1">
         <v>44018</v>
       </c>
       <c r="C125" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F125" t="s">
+        <v>704</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
         <v>706</v>
-      </c>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-      <c r="I125" t="s">
-        <v>707</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B4B2E-6023-4E80-B231-0971494087C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534164A5-1A35-4527-91A8-1D9FD789FB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="713">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2929,6 +2929,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/path-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 16.11. 跳水板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/diving-board-lcci/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归、记忆化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/diving-board-lcci/solution/python-3bao-li-mo-ni-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3493,10 +3513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7254,6 +7274,35 @@
         <v>142</v>
       </c>
       <c r="I125" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>708</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C126" t="s">
+        <v>709</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>711</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H126" t="s">
+        <v>711</v>
+      </c>
+      <c r="I126" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7508,8 +7557,10 @@
     <hyperlink ref="G124" r:id="rId243" xr:uid="{8973DCCB-E1AC-4A66-B5C6-AD6A891F3C59}"/>
     <hyperlink ref="D125" r:id="rId244" xr:uid="{1586D6CD-0D48-4033-A880-9A4C575FEE44}"/>
     <hyperlink ref="G125" r:id="rId245" xr:uid="{81F3BFA5-7FDE-44BB-92CD-EEA7DDB278B4}"/>
+    <hyperlink ref="D126" r:id="rId246" xr:uid="{209F9E4B-BBFC-4981-A100-CE3476AED0B2}"/>
+    <hyperlink ref="G126" r:id="rId247" xr:uid="{954EABA2-AC87-4AFC-B7C2-496B931B6C72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId246"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId248"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534164A5-1A35-4527-91A8-1D9FD789FB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681A684-1EDD-4203-AE16-05FC2AAC5E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="719">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2949,6 +2949,30 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/diving-board-lcci/solution/python-3bao-li-mo-ni-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/re-space-lcci/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 17.13. 恢复空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/re-space-lcci/solution/python-3dong-tai-gui-hua-by-acw_jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3513,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7303,6 +7327,35 @@
         <v>711</v>
       </c>
       <c r="I126" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>713</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C127" t="s">
+        <v>715</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" t="s">
+        <v>716</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H127" t="s">
+        <v>718</v>
+      </c>
+      <c r="I127" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7559,8 +7612,10 @@
     <hyperlink ref="G125" r:id="rId245" xr:uid="{81F3BFA5-7FDE-44BB-92CD-EEA7DDB278B4}"/>
     <hyperlink ref="D126" r:id="rId246" xr:uid="{209F9E4B-BBFC-4981-A100-CE3476AED0B2}"/>
     <hyperlink ref="G126" r:id="rId247" xr:uid="{954EABA2-AC87-4AFC-B7C2-496B931B6C72}"/>
+    <hyperlink ref="D127" r:id="rId248" xr:uid="{352BA955-D654-478E-9F6F-6AB51FAF5DD7}"/>
+    <hyperlink ref="G127" r:id="rId249" xr:uid="{DDCA864A-2797-4235-93C3-E25E98CD2F45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId248"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId250"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681A684-1EDD-4203-AE16-05FC2AAC5E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645BD0B-BEEB-45DD-96CC-28A43A99B405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="724">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2973,6 +2973,26 @@
   </si>
   <si>
     <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309. 最佳买卖股票时机含冷冻期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/solution/python-3dong-tai-gui-hua-by-acw_jpch89-5/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3537,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7356,6 +7376,35 @@
         <v>718</v>
       </c>
       <c r="I127" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>719</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C128" t="s">
+        <v>720</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" t="s">
+        <v>722</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H128" t="s">
+        <v>142</v>
+      </c>
+      <c r="I128" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7614,8 +7663,10 @@
     <hyperlink ref="G126" r:id="rId247" xr:uid="{954EABA2-AC87-4AFC-B7C2-496B931B6C72}"/>
     <hyperlink ref="D127" r:id="rId248" xr:uid="{352BA955-D654-478E-9F6F-6AB51FAF5DD7}"/>
     <hyperlink ref="G127" r:id="rId249" xr:uid="{DDCA864A-2797-4235-93C3-E25E98CD2F45}"/>
+    <hyperlink ref="D128" r:id="rId250" xr:uid="{52BAF53A-0A49-44F1-AEA1-39DB6B886A0B}"/>
+    <hyperlink ref="G128" r:id="rId251" xr:uid="{74AF8EAA-76FA-4F39-8DED-5AE4684935DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId250"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId252"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645BD0B-BEEB-45DD-96CC-28A43A99B405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B6B53-AE88-4B81-BB79-24A5190F935C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="730">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2993,6 +2993,30 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/solution/python-3dong-tai-gui-hua-by-acw_jpch89-5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-of-smaller-numbers-after-self/solution/python-3chao-shi-bao-li-jie-wu-xing-jie-by-acw_jpc/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树状数组、线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、树状数组、线段树、二分查找、分治算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-of-smaller-numbers-after-self/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315. 计算右侧小于当前元素的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3557,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7405,6 +7429,35 @@
         <v>142</v>
       </c>
       <c r="I128" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C129" t="s">
+        <v>728</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s">
+        <v>726</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H129" t="s">
+        <v>725</v>
+      </c>
+      <c r="I129" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7665,8 +7718,10 @@
     <hyperlink ref="G127" r:id="rId249" xr:uid="{DDCA864A-2797-4235-93C3-E25E98CD2F45}"/>
     <hyperlink ref="D128" r:id="rId250" xr:uid="{52BAF53A-0A49-44F1-AEA1-39DB6B886A0B}"/>
     <hyperlink ref="G128" r:id="rId251" xr:uid="{74AF8EAA-76FA-4F39-8DED-5AE4684935DF}"/>
+    <hyperlink ref="G129" r:id="rId252" xr:uid="{5187A152-06B2-4C7A-BD06-1EACC76FDA92}"/>
+    <hyperlink ref="D129" r:id="rId253" xr:uid="{3E30DB44-9F5B-443D-AE43-D16DEE04ACDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId252"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId254"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B6B53-AE88-4B81-BB79-24A5190F935C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B5EB6-6FF8-4D16-9C79-518612A92BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="736">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3017,6 +3017,30 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174. 地下城游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/dungeon-game/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/dungeon-game/solution/python-3ba-xing-jie-dong-tai-gui-hua-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找、DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3581,10 +3605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7458,6 +7482,35 @@
         <v>725</v>
       </c>
       <c r="I129" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C130" t="s">
+        <v>731</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" t="s">
+        <v>733</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H130" t="s">
+        <v>735</v>
+      </c>
+      <c r="I130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7720,8 +7773,10 @@
     <hyperlink ref="G128" r:id="rId251" xr:uid="{74AF8EAA-76FA-4F39-8DED-5AE4684935DF}"/>
     <hyperlink ref="G129" r:id="rId252" xr:uid="{5187A152-06B2-4C7A-BD06-1EACC76FDA92}"/>
     <hyperlink ref="D129" r:id="rId253" xr:uid="{3E30DB44-9F5B-443D-AE43-D16DEE04ACDE}"/>
+    <hyperlink ref="D130" r:id="rId254" xr:uid="{01668EC5-708E-45D2-9612-6E8FB686C2B6}"/>
+    <hyperlink ref="G130" r:id="rId255" xr:uid="{3D33DB7D-A791-41FC-93DF-21287FEB5542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId254"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId256"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B5EB6-6FF8-4D16-9C79-518612A92BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0729AD8C-6ADB-4DDE-BDA0-EE21BB0C971C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="742">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3041,6 +3041,30 @@
   </si>
   <si>
     <t>二分查找、DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/solution/python-3yi-xing-jie-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、哈希表、双指针、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、双指针、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350. 两个数组的交集 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3605,9 +3629,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
@@ -7511,6 +7535,35 @@
         <v>735</v>
       </c>
       <c r="I130" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>741</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C131" t="s">
+        <v>740</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>737</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="H131" t="s">
+        <v>738</v>
+      </c>
+      <c r="I131" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7775,8 +7828,10 @@
     <hyperlink ref="D129" r:id="rId253" xr:uid="{3E30DB44-9F5B-443D-AE43-D16DEE04ACDE}"/>
     <hyperlink ref="D130" r:id="rId254" xr:uid="{01668EC5-708E-45D2-9612-6E8FB686C2B6}"/>
     <hyperlink ref="G130" r:id="rId255" xr:uid="{3D33DB7D-A791-41FC-93DF-21287FEB5542}"/>
+    <hyperlink ref="G131" r:id="rId256" xr:uid="{376DE1B6-7B1D-4D0F-8B83-E70F80962F7F}"/>
+    <hyperlink ref="D131" r:id="rId257" xr:uid="{8F22692E-6E01-48DE-A01A-AB59BFE13E37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId256"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId258"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0729AD8C-6ADB-4DDE-BDA0-EE21BB0C971C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039C71A-0200-4000-8051-58499AAFDDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="747">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3065,6 +3065,26 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/triangle/solution/python-3chao-shi-dfs-dong-tai-gui-hua-by-acw_jpch8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120. 三角形最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/triangle/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3629,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7564,6 +7584,35 @@
         <v>738</v>
       </c>
       <c r="I131" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>744</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C132" t="s">
+        <v>745</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>743</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="H132" t="s">
+        <v>142</v>
+      </c>
+      <c r="I132" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7830,8 +7879,10 @@
     <hyperlink ref="G130" r:id="rId255" xr:uid="{3D33DB7D-A791-41FC-93DF-21287FEB5542}"/>
     <hyperlink ref="G131" r:id="rId256" xr:uid="{376DE1B6-7B1D-4D0F-8B83-E70F80962F7F}"/>
     <hyperlink ref="D131" r:id="rId257" xr:uid="{8F22692E-6E01-48DE-A01A-AB59BFE13E37}"/>
+    <hyperlink ref="G132" r:id="rId258" xr:uid="{81934B16-585E-413C-B274-4DB4157A3C57}"/>
+    <hyperlink ref="D132" r:id="rId259" xr:uid="{C924FC94-7A6C-42F3-8C96-BCC3ACD494D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId258"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId260"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039C71A-0200-4000-8051-58499AAFDDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B8160-F650-482B-82E7-8818DF261EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="757">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,10 +601,6 @@
   </si>
   <si>
     <t>字典树、字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础轮刷题计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2210,15 +2206,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链表、数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/add-two-numbers/solution/python-3mo-ni-by-acw_jpch89/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻陷力扣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3085,6 +3073,58 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/triangle/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-binary-search-trees/solution/python-3dp-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96. 不同的二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-binary-search-trees/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9M1H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩之基础轮刷题计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-binary-search-trees-ii/solution/python-3di-gui-by-acw_jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95. 不同的二叉搜索树 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-binary-search-trees-ii/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3336,7 +3376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3363,6 +3403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -3649,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3701,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3800,7 +3841,7 @@
         <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>9</v>
@@ -3809,7 +3850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3835,12 +3876,12 @@
         <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3872,8 +3913,14 @@
       <c r="I6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3901,11 +3948,6 @@
       <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3933,17 +3975,13 @@
         <v>142</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3974,13 +4012,13 @@
         <v>67</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -4012,13 +4050,13 @@
         <v>68</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>77</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>128</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4050,13 +4088,13 @@
         <v>85</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>657</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4085,19 +4123,19 @@
         <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>77</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -4125,17 +4163,17 @@
       <c r="I13" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -4162,6 +4200,15 @@
       </c>
       <c r="I14" t="s">
         <v>94</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -4192,12 +4239,7 @@
       <c r="I15" t="s">
         <v>99</v>
       </c>
-      <c r="K15" t="s">
-        <v>517</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>518</v>
-      </c>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4225,7 +4267,7 @@
         <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4341,7 +4383,7 @@
         <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -4393,7 +4435,7 @@
         <v>144</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
         <v>141</v>
@@ -4404,7 +4446,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1">
         <v>43952</v>
@@ -4419,13 +4461,13 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" t="s">
         <v>150</v>
-      </c>
-      <c r="H23" t="s">
-        <v>151</v>
       </c>
       <c r="I23" t="s">
         <v>134</v>
@@ -4433,121 +4475,121 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1">
         <v>43953</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
         <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1">
         <v>43953</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H25" t="s">
         <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1">
         <v>43953</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="H26" t="s">
         <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1">
         <v>43953</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H27" t="s">
         <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -4558,294 +4600,294 @@
         <v>43953</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="1">
         <v>43954</v>
       </c>
       <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" t="s">
-        <v>174</v>
-      </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1">
         <v>43954</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" t="s">
         <v>261</v>
       </c>
-      <c r="H30" t="s">
-        <v>262</v>
-      </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1">
         <v>43954</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H31" t="s">
         <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1">
         <v>43954</v>
       </c>
       <c r="C32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="1">
         <v>43954</v>
       </c>
       <c r="C33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1">
         <v>43954</v>
       </c>
       <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" t="s">
         <v>168</v>
-      </c>
-      <c r="F34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="1">
         <v>43963</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" t="s">
+        <v>306</v>
+      </c>
+      <c r="I35" t="s">
         <v>305</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H35" t="s">
-        <v>307</v>
-      </c>
-      <c r="I35" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="1">
         <v>43963</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H36" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" t="s">
         <v>309</v>
-      </c>
-      <c r="H36" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="1">
         <v>43963</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H37" t="s">
         <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" s="1">
         <v>43963</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>15</v>
@@ -4854,187 +4896,187 @@
         <v>37</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" t="s">
         <v>322</v>
-      </c>
-      <c r="H38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" s="1">
         <v>43963</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H39" t="s">
         <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="1">
         <v>43963</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" t="s">
         <v>326</v>
-      </c>
-      <c r="H40" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="1">
         <v>43963</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" t="s">
         <v>329</v>
-      </c>
-      <c r="H41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="1">
         <v>43963</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="s">
         <v>333</v>
-      </c>
-      <c r="H42" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="1">
         <v>43955</v>
       </c>
       <c r="C43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="F43" t="s">
         <v>192</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" t="s">
         <v>194</v>
       </c>
-      <c r="H43" t="s">
-        <v>195</v>
-      </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="1">
         <v>43955</v>
       </c>
       <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E44" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H44" t="s">
         <v>142</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5045,147 +5087,147 @@
         <v>43956</v>
       </c>
       <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="F45" t="s">
         <v>216</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" t="s">
-        <v>218</v>
-      </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" s="1">
         <v>43957</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" t="s">
         <v>221</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="H46" t="s">
         <v>142</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1">
         <v>43958</v>
       </c>
       <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" t="s">
         <v>235</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H47" t="s">
-        <v>236</v>
-      </c>
       <c r="I47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" s="1">
         <v>43959</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F48" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="I48" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" s="1">
         <v>43960</v>
       </c>
       <c r="C49" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" t="s">
-        <v>255</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H49" t="s">
-        <v>260</v>
-      </c>
       <c r="I49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -5196,1040 +5238,1040 @@
         <v>43962</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" t="s">
         <v>297</v>
       </c>
-      <c r="H50" t="s">
-        <v>298</v>
-      </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="1">
         <v>43961</v>
       </c>
       <c r="C51" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H51" t="s">
         <v>287</v>
       </c>
-      <c r="H51" t="s">
-        <v>288</v>
-      </c>
       <c r="I51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" s="1">
         <v>43961</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H52" t="s">
         <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="1">
         <v>43961</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="1">
         <v>43961</v>
       </c>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H54" t="s">
         <v>318</v>
       </c>
-      <c r="H54" t="s">
-        <v>319</v>
-      </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B55" s="1">
         <v>43961</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" s="1">
         <v>43963</v>
       </c>
       <c r="C56" t="s">
+        <v>298</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H56" t="s">
         <v>142</v>
       </c>
       <c r="I56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B57" s="1">
         <v>43965</v>
       </c>
       <c r="C57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H57" t="s">
         <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B58" s="1">
         <v>43965</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" t="s">
         <v>359</v>
       </c>
-      <c r="H58" t="s">
-        <v>360</v>
-      </c>
       <c r="I58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B59" s="1">
         <v>43965</v>
       </c>
       <c r="C59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H59" t="s">
         <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B60" s="1">
         <v>43964</v>
       </c>
       <c r="C60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" s="1">
         <v>43965</v>
       </c>
       <c r="C61" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H61" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" t="s">
         <v>364</v>
-      </c>
-      <c r="H61" t="s">
-        <v>142</v>
-      </c>
-      <c r="I61" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1">
         <v>43965</v>
       </c>
       <c r="C62" t="s">
+        <v>336</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F62" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
         <v>367</v>
-      </c>
-      <c r="H62" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
       </c>
       <c r="C63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
       </c>
       <c r="I63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
       </c>
       <c r="I64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
+        <v>642</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="H66" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H67" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H68" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
       </c>
       <c r="I69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
       </c>
       <c r="I70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B71" s="1">
         <v>43966</v>
       </c>
       <c r="C71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
+        <v>380</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" t="s">
+        <v>142</v>
+      </c>
+      <c r="I71" t="s">
         <v>381</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H71" t="s">
-        <v>142</v>
-      </c>
-      <c r="I71" t="s">
-        <v>382</v>
-      </c>
       <c r="J71" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" s="1">
         <v>43966</v>
       </c>
       <c r="C72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H72" t="s">
         <v>390</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="I72" t="s">
-        <v>147</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B73" s="1">
         <v>43969</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="H73" t="s">
         <v>142</v>
       </c>
       <c r="I73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B74" s="1">
         <v>43970</v>
       </c>
       <c r="C74" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H74" t="s">
         <v>142</v>
       </c>
       <c r="I74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B75" s="1">
         <v>43970</v>
       </c>
       <c r="C75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
+        <v>403</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75" t="s">
         <v>404</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H75" t="s">
-        <v>142</v>
-      </c>
-      <c r="I75" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
       </c>
       <c r="C76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H76" t="s">
         <v>142</v>
       </c>
       <c r="I76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B77" s="1">
         <v>43971</v>
       </c>
       <c r="C77" t="s">
+        <v>412</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H77" t="s">
         <v>142</v>
       </c>
       <c r="I77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B78" s="1">
         <v>43972</v>
       </c>
       <c r="C78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B79" s="1">
         <v>43973</v>
       </c>
       <c r="C79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H79" t="s">
         <v>142</v>
       </c>
       <c r="I79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B80" s="1">
         <v>43973</v>
       </c>
       <c r="C80" t="s">
+        <v>428</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H80" t="s">
         <v>142</v>
       </c>
       <c r="I80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B81" s="1">
         <v>43973</v>
       </c>
       <c r="C81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F81" t="s">
+        <v>432</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H81" t="s">
+        <v>434</v>
+      </c>
+      <c r="I81" t="s">
+        <v>381</v>
+      </c>
+      <c r="J81" s="15" t="s">
         <v>433</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H81" t="s">
-        <v>435</v>
-      </c>
-      <c r="I81" t="s">
-        <v>382</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B82" s="1">
         <v>43974</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
       </c>
       <c r="C83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H83" t="s">
+        <v>445</v>
+      </c>
+      <c r="I83" t="s">
+        <v>381</v>
+      </c>
+      <c r="J83" s="15" t="s">
         <v>446</v>
-      </c>
-      <c r="I83" t="s">
-        <v>382</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
+        <v>449</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H84" t="s">
+        <v>451</v>
+      </c>
+      <c r="I84" t="s">
         <v>450</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H84" t="s">
-        <v>452</v>
-      </c>
-      <c r="I84" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -6238,1387 +6280,1445 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
+        <v>463</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H86" t="s">
         <v>464</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H86" t="s">
-        <v>465</v>
-      </c>
       <c r="I86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
+        <v>467</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
+        <v>469</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H87" t="s">
         <v>470</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H87" t="s">
-        <v>471</v>
-      </c>
       <c r="I87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
+        <v>472</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H88" t="s">
         <v>477</v>
       </c>
-      <c r="H88" t="s">
-        <v>478</v>
-      </c>
       <c r="I88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H89" t="s">
         <v>479</v>
       </c>
-      <c r="H89" t="s">
-        <v>480</v>
-      </c>
       <c r="I89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>484</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
       </c>
       <c r="I90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
       </c>
       <c r="I91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
+        <v>499</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
         <v>501</v>
-      </c>
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H93" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
+        <v>506</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="H94" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I94" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H95" t="s">
         <v>515</v>
       </c>
-      <c r="H95" t="s">
-        <v>516</v>
-      </c>
       <c r="I95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
+        <v>532</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H98" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I98" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H99" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>537</v>
+        <v>751</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H100" t="s">
         <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H101" t="s">
         <v>142</v>
       </c>
       <c r="I101" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
+        <v>544</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="H102" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I102" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H103" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I103" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H105" t="s">
         <v>142</v>
       </c>
       <c r="I105" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H109" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I109" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H110" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I110" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
+        <v>628</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H116" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I116" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B117" s="1">
         <v>43998</v>
       </c>
       <c r="C117" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H117" t="s">
         <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B118" s="1">
         <v>43999</v>
       </c>
       <c r="C118" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H118" t="s">
         <v>142</v>
       </c>
       <c r="I118" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B119" s="1">
         <v>44001</v>
       </c>
       <c r="C119" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H119" t="s">
         <v>142</v>
       </c>
       <c r="I119" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B120" s="1">
         <v>44003</v>
       </c>
       <c r="C120" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H120" t="s">
         <v>142</v>
       </c>
       <c r="I120" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B121" s="1">
         <v>44005</v>
       </c>
       <c r="C121" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H121" t="s">
         <v>142</v>
       </c>
       <c r="I121" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B122" s="1">
         <v>44009</v>
       </c>
       <c r="C122" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H122" t="s">
         <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B123" s="1">
         <v>44010</v>
       </c>
       <c r="C123" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H123" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I123" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B124" s="1">
         <v>44012</v>
       </c>
       <c r="C124" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H124" t="s">
         <v>142</v>
       </c>
       <c r="I124" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B125" s="1">
         <v>44018</v>
       </c>
       <c r="C125" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H125" t="s">
         <v>142</v>
       </c>
       <c r="I125" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B126" s="1">
         <v>44020</v>
       </c>
       <c r="C126" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H126" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I126" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B127" s="1">
         <v>44021</v>
       </c>
       <c r="C127" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H127" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I127" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B128" s="1">
         <v>44022</v>
       </c>
       <c r="C128" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H128" t="s">
         <v>142</v>
       </c>
       <c r="I128" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B129" s="1">
         <v>44023</v>
       </c>
       <c r="C129" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H129" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I129" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B130" s="1">
         <v>44024</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H130" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I130" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B131" s="1">
         <v>44025</v>
       </c>
       <c r="C131" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H131" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I131" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B132" s="1">
         <v>44026</v>
       </c>
       <c r="C132" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H132" t="s">
         <v>142</v>
       </c>
       <c r="I132" t="s">
-        <v>706</v>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>744</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C133" t="s">
+        <v>746</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>748</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="H133" t="s">
+        <v>142</v>
+      </c>
+      <c r="I133" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>744</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C134" t="s">
+        <v>755</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" t="s">
+        <v>748</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="H134" t="s">
+        <v>749</v>
+      </c>
+      <c r="I134" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7881,8 +7981,12 @@
     <hyperlink ref="D131" r:id="rId257" xr:uid="{8F22692E-6E01-48DE-A01A-AB59BFE13E37}"/>
     <hyperlink ref="G132" r:id="rId258" xr:uid="{81934B16-585E-413C-B274-4DB4157A3C57}"/>
     <hyperlink ref="D132" r:id="rId259" xr:uid="{C924FC94-7A6C-42F3-8C96-BCC3ACD494D1}"/>
+    <hyperlink ref="G133" r:id="rId260" xr:uid="{2D43D7C3-B9F6-4D9C-98B8-2A71F28770CD}"/>
+    <hyperlink ref="D133" r:id="rId261" xr:uid="{2BAF1BEC-F4A7-417A-A3EB-007BD3E1D667}"/>
+    <hyperlink ref="G134" r:id="rId262" xr:uid="{4A6C8EB6-9BAC-4E12-9865-6CABD81273DB}"/>
+    <hyperlink ref="D134" r:id="rId263" xr:uid="{09AE6608-20B1-4118-98FB-25EC7C532118}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId260"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId264"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B8160-F650-482B-82E7-8818DF261EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437D844-F93F-4030-AFFD-87CB17A1771D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="762">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3125,6 +3125,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/unique-binary-search-trees-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. 搜索插入位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-insert-position/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-insert-position/solution/python-3yi-xing-jie-bao-li-fa-er-fen-cha-zhao-by-a/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3394,6 +3414,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3403,7 +3424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -3690,9 +3710,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
@@ -3916,7 +3936,7 @@
       <c r="K6" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>517</v>
       </c>
     </row>
@@ -3977,11 +3997,11 @@
       <c r="I8" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7714,6 +7734,35 @@
       </c>
       <c r="I134" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>757</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C135" t="s">
+        <v>758</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>760</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="H135" t="s">
+        <v>142</v>
+      </c>
+      <c r="I135" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -7985,8 +8034,10 @@
     <hyperlink ref="D133" r:id="rId261" xr:uid="{2BAF1BEC-F4A7-417A-A3EB-007BD3E1D667}"/>
     <hyperlink ref="G134" r:id="rId262" xr:uid="{4A6C8EB6-9BAC-4E12-9865-6CABD81273DB}"/>
     <hyperlink ref="D134" r:id="rId263" xr:uid="{09AE6608-20B1-4118-98FB-25EC7C532118}"/>
+    <hyperlink ref="D135" r:id="rId264" xr:uid="{26707A7F-802E-4F94-A0BD-777D3FB01C93}"/>
+    <hyperlink ref="G135" r:id="rId265" xr:uid="{20B6EB12-CF1A-4246-A22D-4FE2C5398189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId264"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId266"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437D844-F93F-4030-AFFD-87CB17A1771D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF31D43-8F93-4302-8D3F-57AF6D796746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="765">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3145,6 +3145,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/search-insert-position/solution/python-3yi-xing-jie-bao-li-fa-er-fen-cha-zhao-by-a/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/interleaving-string/solution/python-3er-wei-dp-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97. 交错字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/interleaving-string/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3710,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7762,6 +7774,35 @@
         <v>142</v>
       </c>
       <c r="I135" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C136" t="s">
+        <v>763</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s">
+        <v>416</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="H136" t="s">
+        <v>142</v>
+      </c>
+      <c r="I136" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8036,8 +8077,10 @@
     <hyperlink ref="D134" r:id="rId263" xr:uid="{09AE6608-20B1-4118-98FB-25EC7C532118}"/>
     <hyperlink ref="D135" r:id="rId264" xr:uid="{26707A7F-802E-4F94-A0BD-777D3FB01C93}"/>
     <hyperlink ref="G135" r:id="rId265" xr:uid="{20B6EB12-CF1A-4246-A22D-4FE2C5398189}"/>
+    <hyperlink ref="G136" r:id="rId266" xr:uid="{071A3D80-333D-4373-AF5F-BB3AAF054AC4}"/>
+    <hyperlink ref="D136" r:id="rId267" xr:uid="{6C470CE9-FACB-4603-94FF-0239D5583310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId266"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId268"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF31D43-8F93-4302-8D3F-57AF6D796746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481F89CA-6FEC-4E77-94B3-CD839C4CEC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="770">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3157,6 +3157,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/interleaving-string/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312. 戳气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/burst-balloons/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治算法、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/burst-balloons/solution/python-3dong-tai-gui-hua-by-acw_jpch89-6/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3722,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7803,6 +7823,35 @@
         <v>142</v>
       </c>
       <c r="I136" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C137" t="s">
+        <v>765</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" t="s">
+        <v>767</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="H137" t="s">
+        <v>768</v>
+      </c>
+      <c r="I137" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8079,8 +8128,10 @@
     <hyperlink ref="G135" r:id="rId265" xr:uid="{20B6EB12-CF1A-4246-A22D-4FE2C5398189}"/>
     <hyperlink ref="G136" r:id="rId266" xr:uid="{071A3D80-333D-4373-AF5F-BB3AAF054AC4}"/>
     <hyperlink ref="D136" r:id="rId267" xr:uid="{6C470CE9-FACB-4603-94FF-0239D5583310}"/>
+    <hyperlink ref="D137" r:id="rId268" xr:uid="{7A728798-50FB-4366-B99F-1B61768983CF}"/>
+    <hyperlink ref="G137" r:id="rId269" xr:uid="{81809C85-275E-43E3-B2E9-45D81B8775BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId268"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId270"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481F89CA-6FEC-4E77-94B3-CD839C4CEC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD8378-CD38-4451-9893-E5424D5CD43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="780">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3177,6 +3177,46 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/burst-balloons/solution/python-3dong-tai-gui-hua-by-acw_jpch89-6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/water-bottles/solution/python-3mo-ni-shu-xue-yi-xing-jie-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 198 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1518. 换酒问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-nodes-in-the-sub-tree-with-the-same-label/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1519. 子树中标签相同的节点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 11. 旋转数组的最小数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/solution/python-3bao-li-yi-xing-jie-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3742,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7852,6 +7892,87 @@
         <v>768</v>
       </c>
       <c r="I137" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C138" t="s">
+        <v>773</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>771</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="H138" t="s">
+        <v>142</v>
+      </c>
+      <c r="I138" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C139" t="s">
+        <v>775</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>776</v>
+      </c>
+      <c r="I139" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C140" t="s">
+        <v>777</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>81</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="H140" t="s">
+        <v>81</v>
+      </c>
+      <c r="I140" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8130,8 +8251,13 @@
     <hyperlink ref="D136" r:id="rId267" xr:uid="{6C470CE9-FACB-4603-94FF-0239D5583310}"/>
     <hyperlink ref="D137" r:id="rId268" xr:uid="{7A728798-50FB-4366-B99F-1B61768983CF}"/>
     <hyperlink ref="G137" r:id="rId269" xr:uid="{81809C85-275E-43E3-B2E9-45D81B8775BD}"/>
+    <hyperlink ref="D138" r:id="rId270" xr:uid="{B84B894B-A751-4FA5-9323-C73BD7CC7223}"/>
+    <hyperlink ref="G138" r:id="rId271" xr:uid="{B8A5DA07-DF96-4EB7-AFAA-4E4C7C61630B}"/>
+    <hyperlink ref="D139" r:id="rId272" xr:uid="{942AE633-762A-42B6-8DEC-846185EEEE76}"/>
+    <hyperlink ref="D140" r:id="rId273" xr:uid="{95A054AA-5CD5-4667-BCF3-DE45EBA8B020}"/>
+    <hyperlink ref="G140" r:id="rId274" xr:uid="{EA0B473F-61DC-46E5-987B-FC1ADEC2C7C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId270"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD8378-CD38-4451-9893-E5424D5CD43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882DE634-C408-4D4C-82E1-85A06B7BA8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="786">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3217,6 +3217,30 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/solution/python-3bao-li-yi-xing-jie-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-path-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-path-sum/solution/python-3zui-xiao-lu-jing-he-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum-ii-input-array-is-sorted/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167. 两数之和 II - 输入有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum-ii-input-array-is-sorted/solution/python-3sha-zhao-er-fen-cha-zhao-shuang-zhi-zhen-b/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3782,10 +3806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7895,84 +7919,142 @@
         <v>703</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="C138" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F138" t="s">
-        <v>771</v>
+        <v>469</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="H138" t="s">
         <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>772</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B139" s="1">
         <v>44033</v>
       </c>
       <c r="C139" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>20</v>
+        <v>770</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F139" t="s">
-        <v>776</v>
+        <v>771</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="H139" t="s">
+        <v>142</v>
       </c>
       <c r="I139" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C140" t="s">
+        <v>775</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>776</v>
+      </c>
+      <c r="I140" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B141" s="1">
         <v>44034</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>777</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E141" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>81</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H141" t="s">
         <v>81</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I141" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C142" t="s">
+        <v>780</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>393</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H142" t="s">
+        <v>142</v>
+      </c>
+      <c r="I142" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8251,13 +8333,17 @@
     <hyperlink ref="D136" r:id="rId267" xr:uid="{6C470CE9-FACB-4603-94FF-0239D5583310}"/>
     <hyperlink ref="D137" r:id="rId268" xr:uid="{7A728798-50FB-4366-B99F-1B61768983CF}"/>
     <hyperlink ref="G137" r:id="rId269" xr:uid="{81809C85-275E-43E3-B2E9-45D81B8775BD}"/>
-    <hyperlink ref="D138" r:id="rId270" xr:uid="{B84B894B-A751-4FA5-9323-C73BD7CC7223}"/>
-    <hyperlink ref="G138" r:id="rId271" xr:uid="{B8A5DA07-DF96-4EB7-AFAA-4E4C7C61630B}"/>
-    <hyperlink ref="D139" r:id="rId272" xr:uid="{942AE633-762A-42B6-8DEC-846185EEEE76}"/>
-    <hyperlink ref="D140" r:id="rId273" xr:uid="{95A054AA-5CD5-4667-BCF3-DE45EBA8B020}"/>
-    <hyperlink ref="G140" r:id="rId274" xr:uid="{EA0B473F-61DC-46E5-987B-FC1ADEC2C7C0}"/>
+    <hyperlink ref="D139" r:id="rId270" xr:uid="{B84B894B-A751-4FA5-9323-C73BD7CC7223}"/>
+    <hyperlink ref="G139" r:id="rId271" xr:uid="{B8A5DA07-DF96-4EB7-AFAA-4E4C7C61630B}"/>
+    <hyperlink ref="D140" r:id="rId272" xr:uid="{942AE633-762A-42B6-8DEC-846185EEEE76}"/>
+    <hyperlink ref="D141" r:id="rId273" xr:uid="{95A054AA-5CD5-4667-BCF3-DE45EBA8B020}"/>
+    <hyperlink ref="G141" r:id="rId274" xr:uid="{EA0B473F-61DC-46E5-987B-FC1ADEC2C7C0}"/>
+    <hyperlink ref="D142" r:id="rId275" xr:uid="{0917CDD3-E4A6-446F-884E-8EEE2FA5B592}"/>
+    <hyperlink ref="G142" r:id="rId276" xr:uid="{A7AC9D39-496E-439E-A2FA-E0A61AC56C8F}"/>
+    <hyperlink ref="D138" r:id="rId277" xr:uid="{14A8ECA2-DE29-4B6C-9948-61291205C96E}"/>
+    <hyperlink ref="G138" r:id="rId278" xr:uid="{BE77B747-6F49-418D-BABE-FC3B523766B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId279"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882DE634-C408-4D4C-82E1-85A06B7BA8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120E31B-288E-4569-8387-6DA17A5DBB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="790">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3241,6 +3241,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/two-sum-ii-input-array-is-sorted/solution/python-3sha-zhao-er-fen-cha-zhao-shuang-zhi-zhen-b/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025. 除数博弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/divisor-game/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/divisor-game/solution/python-3tui-li-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3806,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8055,6 +8071,35 @@
         <v>142</v>
       </c>
       <c r="I142" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C143" t="s">
+        <v>786</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>788</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H143" t="s">
+        <v>221</v>
+      </c>
+      <c r="I143" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8342,8 +8387,10 @@
     <hyperlink ref="G142" r:id="rId276" xr:uid="{A7AC9D39-496E-439E-A2FA-E0A61AC56C8F}"/>
     <hyperlink ref="D138" r:id="rId277" xr:uid="{14A8ECA2-DE29-4B6C-9948-61291205C96E}"/>
     <hyperlink ref="G138" r:id="rId278" xr:uid="{BE77B747-6F49-418D-BABE-FC3B523766B3}"/>
+    <hyperlink ref="D143" r:id="rId279" xr:uid="{FBAEE6FB-1BCF-49E7-B1EB-B051B6490735}"/>
+    <hyperlink ref="G143" r:id="rId280" xr:uid="{CB517BBA-2174-4BF1-B52B-661EA49D1968}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId279"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId281"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120E31B-288E-4569-8387-6DA17A5DBB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48D5B09-BC81-43E6-93D1-12EE95362348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="794">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3257,6 +3257,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/divisor-game/solution/python-3tui-li-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/is-subsequence/solution/python-3bao-li-fa-by-acw_jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、二分查找、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/is-subsequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>392. 判断子序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3822,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8100,6 +8116,35 @@
         <v>221</v>
       </c>
       <c r="I143" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C144" t="s">
+        <v>793</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>791</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="H144" t="s">
+        <v>791</v>
+      </c>
+      <c r="I144" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8389,8 +8434,10 @@
     <hyperlink ref="G138" r:id="rId278" xr:uid="{BE77B747-6F49-418D-BABE-FC3B523766B3}"/>
     <hyperlink ref="D143" r:id="rId279" xr:uid="{FBAEE6FB-1BCF-49E7-B1EB-B051B6490735}"/>
     <hyperlink ref="G143" r:id="rId280" xr:uid="{CB517BBA-2174-4BF1-B52B-661EA49D1968}"/>
+    <hyperlink ref="G144" r:id="rId281" xr:uid="{A1843A9C-C534-4222-BD19-EF339669A57E}"/>
+    <hyperlink ref="D144" r:id="rId282" xr:uid="{8F532DAE-9D25-4A98-9E32-9856789655C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId281"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId283"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48D5B09-BC81-43E6-93D1-12EE95362348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264D7E3-65FC-49BA-953F-5EA6B712747F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="797">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3273,6 +3273,18 @@
   </si>
   <si>
     <t>392. 判断子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/integer-break/solution/python-3shu-xue-fa-xuan-xue-fa-dong-tai-gui-hua-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343. 整数拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/integer-break/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3838,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8145,6 +8157,35 @@
         <v>791</v>
       </c>
       <c r="I144" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C145" t="s">
+        <v>795</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>788</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="H145" t="s">
+        <v>142</v>
+      </c>
+      <c r="I145" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8436,8 +8477,10 @@
     <hyperlink ref="G143" r:id="rId280" xr:uid="{CB517BBA-2174-4BF1-B52B-661EA49D1968}"/>
     <hyperlink ref="G144" r:id="rId281" xr:uid="{A1843A9C-C534-4222-BD19-EF339669A57E}"/>
     <hyperlink ref="D144" r:id="rId282" xr:uid="{8F532DAE-9D25-4A98-9E32-9856789655C7}"/>
+    <hyperlink ref="G145" r:id="rId283" xr:uid="{C1D5406A-54AC-4181-B2AD-8F2AAB1BF10C}"/>
+    <hyperlink ref="D145" r:id="rId284" xr:uid="{9F070294-5EB1-4085-BD27-87F6EB743569}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId283"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId285"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264D7E3-65FC-49BA-953F-5EA6B712747F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEE808-7E6F-40FA-927E-A7D0D7E12ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="800">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3285,6 +3285,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/integer-break/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/magic-index-lcci/solution/python-3bao-li-fa-by-acw_jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 08.03. 魔术索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/magic-index-lcci/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3850,10 +3862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8186,6 +8198,32 @@
         <v>142</v>
       </c>
       <c r="I145" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C146" t="s">
+        <v>798</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="I146" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8479,8 +8517,10 @@
     <hyperlink ref="D144" r:id="rId282" xr:uid="{8F532DAE-9D25-4A98-9E32-9856789655C7}"/>
     <hyperlink ref="G145" r:id="rId283" xr:uid="{C1D5406A-54AC-4181-B2AD-8F2AAB1BF10C}"/>
     <hyperlink ref="D145" r:id="rId284" xr:uid="{9F070294-5EB1-4085-BD27-87F6EB743569}"/>
+    <hyperlink ref="G146" r:id="rId285" xr:uid="{58BDEBF5-1B48-4BD3-8C68-E98344EEEF7B}"/>
+    <hyperlink ref="D146" r:id="rId286" xr:uid="{A53AA884-3BEC-44D6-A9CA-241036D32B94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId285"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId287"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEE808-7E6F-40FA-927E-A7D0D7E12ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1869D1-B954-448C-8A47-E2580C54C8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="804">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3297,6 +3297,41 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/magic-index-lcci/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114. 二叉树展开为链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flatten-binary-tree-to-linked-list/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flatten-binary-tree-to-linked-list/solution/python-3li-yong-qian-xu-xu-lie-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-08月 每日一题</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3862,10 +3897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8223,8 +8258,40 @@
       <c r="G146" s="2" t="s">
         <v>797</v>
       </c>
+      <c r="H146" t="s">
+        <v>142</v>
+      </c>
       <c r="I146" t="s">
         <v>703</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C147" t="s">
+        <v>800</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F147" t="s">
+        <v>216</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="H147" t="s">
+        <v>142</v>
+      </c>
+      <c r="I147" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -8519,8 +8586,10 @@
     <hyperlink ref="D145" r:id="rId284" xr:uid="{9F070294-5EB1-4085-BD27-87F6EB743569}"/>
     <hyperlink ref="G146" r:id="rId285" xr:uid="{58BDEBF5-1B48-4BD3-8C68-E98344EEEF7B}"/>
     <hyperlink ref="D146" r:id="rId286" xr:uid="{A53AA884-3BEC-44D6-A9CA-241036D32B94}"/>
+    <hyperlink ref="D147" r:id="rId287" xr:uid="{74A7A22C-153C-4892-BDA1-FA203CA2D3EC}"/>
+    <hyperlink ref="G147" r:id="rId288" xr:uid="{79E884F3-5DC7-496F-B0CE-E9EEE046D050}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId287"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId289"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1869D1-B954-448C-8A47-E2580C54C8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCCED32-A377-4D57-8D73-7FF3AA2387EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="807">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3332,6 +3332,18 @@
       </rPr>
       <t xml:space="preserve"> 2020-08月 每日一题</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>415. 字符串相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-strings/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-strings/solution/python-33-xing-jie-map-reduce-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3897,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8291,6 +8303,35 @@
         <v>142</v>
       </c>
       <c r="I147" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C148" t="s">
+        <v>804</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="H148" t="s">
+        <v>142</v>
+      </c>
+      <c r="I148" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8588,8 +8629,10 @@
     <hyperlink ref="D146" r:id="rId286" xr:uid="{A53AA884-3BEC-44D6-A9CA-241036D32B94}"/>
     <hyperlink ref="D147" r:id="rId287" xr:uid="{74A7A22C-153C-4892-BDA1-FA203CA2D3EC}"/>
     <hyperlink ref="G147" r:id="rId288" xr:uid="{79E884F3-5DC7-496F-B0CE-E9EEE046D050}"/>
+    <hyperlink ref="D148" r:id="rId289" xr:uid="{5CEB41B3-7F18-454B-9C87-A11540D811C2}"/>
+    <hyperlink ref="G148" r:id="rId290" xr:uid="{530BA580-0A32-40F6-8E8D-9BF5ED9691C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId289"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId291"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCCED32-A377-4D57-8D73-7FF3AA2387EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CBA20-F500-4C72-9C3F-04A451578A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="810">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3344,6 +3344,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/add-strings/solution/python-33-xing-jie-map-reduce-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/house-robber-iii/solution/python-3liang-chong-dfs-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/house-robber-iii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337. 打家劫舍 III</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3909,10 +3921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8332,6 +8344,35 @@
         <v>142</v>
       </c>
       <c r="I148" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C149" t="s">
+        <v>809</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>216</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="H149" t="s">
+        <v>221</v>
+      </c>
+      <c r="I149" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8631,8 +8672,10 @@
     <hyperlink ref="G147" r:id="rId288" xr:uid="{79E884F3-5DC7-496F-B0CE-E9EEE046D050}"/>
     <hyperlink ref="D148" r:id="rId289" xr:uid="{5CEB41B3-7F18-454B-9C87-A11540D811C2}"/>
     <hyperlink ref="G148" r:id="rId290" xr:uid="{530BA580-0A32-40F6-8E8D-9BF5ED9691C0}"/>
+    <hyperlink ref="G149" r:id="rId291" xr:uid="{49B117D0-9118-40D8-981D-6DAEEEC7B727}"/>
+    <hyperlink ref="D149" r:id="rId292" xr:uid="{E94E0207-3C8D-4F41-8505-61668E41E16E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId291"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId293"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CBA20-F500-4C72-9C3F-04A451578A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF991D9-5899-4BAC-8819-C0A6D4BB8305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="813">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3356,6 +3356,18 @@
   </si>
   <si>
     <t>337. 打家劫舍 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99. 恢复二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/recover-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/recover-binary-search-tree/solution/python-3li-yong-zhong-xu-xu-lie-you-xu-xing-geng-j/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3921,10 +3933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8373,6 +8385,35 @@
         <v>221</v>
       </c>
       <c r="I149" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C150" t="s">
+        <v>810</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" t="s">
+        <v>216</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H150" t="s">
+        <v>142</v>
+      </c>
+      <c r="I150" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8674,8 +8715,10 @@
     <hyperlink ref="G148" r:id="rId290" xr:uid="{530BA580-0A32-40F6-8E8D-9BF5ED9691C0}"/>
     <hyperlink ref="G149" r:id="rId291" xr:uid="{49B117D0-9118-40D8-981D-6DAEEEC7B727}"/>
     <hyperlink ref="D149" r:id="rId292" xr:uid="{E94E0207-3C8D-4F41-8505-61668E41E16E}"/>
+    <hyperlink ref="D150" r:id="rId293" xr:uid="{733C46F9-32B8-4C77-BB1F-40F1CCD6E02C}"/>
+    <hyperlink ref="G150" r:id="rId294" xr:uid="{A9D59E2F-9DA1-4089-A472-7EEE4D65292B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId293"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId295"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF991D9-5899-4BAC-8819-C0A6D4BB8305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C45092-199B-450C-B6C6-1D5E50B6A74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="818">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3368,6 +3368,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/recover-binary-search-tree/solution/python-3li-yong-zhong-xu-xu-lie-you-xu-xing-geng-j/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/restore-ip-addresses/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/restore-ip-addresses/solution/python-3bian-li-dian-hao-wei-zhi-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93. 复原IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3933,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8414,6 +8434,35 @@
         <v>142</v>
       </c>
       <c r="I150" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C151" t="s">
+        <v>817</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>814</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="H151" t="s">
+        <v>815</v>
+      </c>
+      <c r="I151" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8717,8 +8766,10 @@
     <hyperlink ref="D149" r:id="rId292" xr:uid="{E94E0207-3C8D-4F41-8505-61668E41E16E}"/>
     <hyperlink ref="D150" r:id="rId293" xr:uid="{733C46F9-32B8-4C77-BB1F-40F1CCD6E02C}"/>
     <hyperlink ref="G150" r:id="rId294" xr:uid="{A9D59E2F-9DA1-4089-A472-7EEE4D65292B}"/>
+    <hyperlink ref="D151" r:id="rId295" xr:uid="{B7335F38-8BB0-4404-8638-79E998A27C98}"/>
+    <hyperlink ref="G151" r:id="rId296" xr:uid="{0E052081-3990-4B9E-AFCC-BBEC99932A4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId295"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId297"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C45092-199B-450C-B6C6-1D5E50B6A74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A26784-7E77-47AE-9C8A-214F428DC92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="822">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,6 +3388,22 @@
   </si>
   <si>
     <t>93. 复原IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/surrounded-regions/solution/python-3dfs-bing-cha-ji-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130. 被围绕的区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/surrounded-regions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、广度优先搜索、并查集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3953,10 +3969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8463,6 +8479,35 @@
         <v>815</v>
       </c>
       <c r="I151" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C152" t="s">
+        <v>819</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" t="s">
+        <v>821</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H152" t="s">
+        <v>648</v>
+      </c>
+      <c r="I152" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8768,8 +8813,10 @@
     <hyperlink ref="G150" r:id="rId294" xr:uid="{A9D59E2F-9DA1-4089-A472-7EEE4D65292B}"/>
     <hyperlink ref="D151" r:id="rId295" xr:uid="{B7335F38-8BB0-4404-8638-79E998A27C98}"/>
     <hyperlink ref="G151" r:id="rId296" xr:uid="{0E052081-3990-4B9E-AFCC-BBEC99932A4F}"/>
+    <hyperlink ref="G152" r:id="rId297" xr:uid="{9F9F6EC6-3F3C-4FD7-8856-5251AAEF77C6}"/>
+    <hyperlink ref="D152" r:id="rId298" xr:uid="{E59F864D-DB10-4DCD-A200-74C808819745}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId297"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId299"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A26784-7E77-47AE-9C8A-214F428DC92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99558905-7A1E-4757-8FCC-59534130F91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="825">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3404,6 +3404,18 @@
   </si>
   <si>
     <t>深度优先搜索、广度优先搜索、并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>696. 计数二进制子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-binary-substrings/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-binary-substrings/solution/python-3tong-ji-lian-xu-shu-liang-lei-jia-xiang-li/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3969,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8484,30 +8496,59 @@
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C152" t="s">
+        <v>822</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>37</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H152" t="s">
+        <v>142</v>
+      </c>
+      <c r="I152" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B153" s="1">
         <v>44054</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>819</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="E153" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>821</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H153" t="s">
         <v>648</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I153" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8813,10 +8854,12 @@
     <hyperlink ref="G150" r:id="rId294" xr:uid="{A9D59E2F-9DA1-4089-A472-7EEE4D65292B}"/>
     <hyperlink ref="D151" r:id="rId295" xr:uid="{B7335F38-8BB0-4404-8638-79E998A27C98}"/>
     <hyperlink ref="G151" r:id="rId296" xr:uid="{0E052081-3990-4B9E-AFCC-BBEC99932A4F}"/>
-    <hyperlink ref="G152" r:id="rId297" xr:uid="{9F9F6EC6-3F3C-4FD7-8856-5251AAEF77C6}"/>
-    <hyperlink ref="D152" r:id="rId298" xr:uid="{E59F864D-DB10-4DCD-A200-74C808819745}"/>
+    <hyperlink ref="G153" r:id="rId297" xr:uid="{9F9F6EC6-3F3C-4FD7-8856-5251AAEF77C6}"/>
+    <hyperlink ref="D153" r:id="rId298" xr:uid="{E59F864D-DB10-4DCD-A200-74C808819745}"/>
+    <hyperlink ref="D152" r:id="rId299" xr:uid="{D1D9AE6C-C4AC-454F-A93D-273D12714582}"/>
+    <hyperlink ref="G152" r:id="rId300" xr:uid="{4BB3CADB-32E7-4D12-924C-61CAB3944DFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId299"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId301"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99558905-7A1E-4757-8FCC-59534130F91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953FB78-8CCC-455E-B9FB-B3FAA76E993F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="829">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3416,6 +3416,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/count-binary-substrings/solution/python-3tong-ji-lian-xu-shu-liang-lei-jia-xiang-li/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-parentheses/solution/python-3li-yong-lie-biao-he-zi-dian-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-parentheses/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3981,10 +3997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158"/>
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8549,6 +8565,35 @@
         <v>648</v>
       </c>
       <c r="I153" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C154" t="s">
+        <v>828</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>826</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H154" t="s">
+        <v>142</v>
+      </c>
+      <c r="I154" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8858,8 +8903,10 @@
     <hyperlink ref="D153" r:id="rId298" xr:uid="{E59F864D-DB10-4DCD-A200-74C808819745}"/>
     <hyperlink ref="D152" r:id="rId299" xr:uid="{D1D9AE6C-C4AC-454F-A93D-273D12714582}"/>
     <hyperlink ref="G152" r:id="rId300" xr:uid="{4BB3CADB-32E7-4D12-924C-61CAB3944DFF}"/>
+    <hyperlink ref="G154" r:id="rId301" xr:uid="{47F81D24-7598-4687-9F4C-80091883039E}"/>
+    <hyperlink ref="D154" r:id="rId302" xr:uid="{EB5FD6D4-A4BC-4489-BA9C-DBD8D2D30BDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId301"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId303"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953FB78-8CCC-455E-B9FB-B3FAA76E993F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2B5C84-CA04-467A-89EB-81DA29F98FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="833">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3432,6 +3432,22 @@
   </si>
   <si>
     <t>20. 有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-boxes/solution/python-3dong-tai-gui-hua-zi-ding-xiang-xia-xing-sh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>546. 移除盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-boxes/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3997,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8594,6 +8610,35 @@
         <v>142</v>
       </c>
       <c r="I154" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C155" t="s">
+        <v>831</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" t="s">
+        <v>830</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="H155" t="s">
+        <v>142</v>
+      </c>
+      <c r="I155" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8905,8 +8950,10 @@
     <hyperlink ref="G152" r:id="rId300" xr:uid="{4BB3CADB-32E7-4D12-924C-61CAB3944DFF}"/>
     <hyperlink ref="G154" r:id="rId301" xr:uid="{47F81D24-7598-4687-9F4C-80091883039E}"/>
     <hyperlink ref="D154" r:id="rId302" xr:uid="{EB5FD6D4-A4BC-4489-BA9C-DBD8D2D30BDF}"/>
+    <hyperlink ref="G155" r:id="rId303" xr:uid="{09F6F18B-E717-4EAE-99F7-ADF900A21C48}"/>
+    <hyperlink ref="D155" r:id="rId304" xr:uid="{6D840B3C-3D2A-4818-93CF-688966A58BEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId303"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId305"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2B5C84-CA04-467A-89EB-81DA29F98FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B777455A-5359-483E-ADE8-5AE5E143AE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="836">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3448,6 +3448,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/remove-boxes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flood-fill/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/flood-fill/solution/python-3dfs-by-acw_jpch89-8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733. 图像渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4013,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8639,6 +8651,35 @@
         <v>142</v>
       </c>
       <c r="I155" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C156" t="s">
+        <v>835</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s">
+        <v>318</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="H156" t="s">
+        <v>142</v>
+      </c>
+      <c r="I156" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8952,8 +8993,10 @@
     <hyperlink ref="D154" r:id="rId302" xr:uid="{EB5FD6D4-A4BC-4489-BA9C-DBD8D2D30BDF}"/>
     <hyperlink ref="G155" r:id="rId303" xr:uid="{09F6F18B-E717-4EAE-99F7-ADF900A21C48}"/>
     <hyperlink ref="D155" r:id="rId304" xr:uid="{6D840B3C-3D2A-4818-93CF-688966A58BEB}"/>
+    <hyperlink ref="D156" r:id="rId305" xr:uid="{27E55F81-B80A-430F-BAD2-A12ED6D94DD4}"/>
+    <hyperlink ref="G156" r:id="rId306" xr:uid="{4CE49148-3128-48A2-BEB0-8C3D9CA8ED68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId305"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId307"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B777455A-5359-483E-ADE8-5AE5E143AE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BCDCF7-8FCF-4A59-9BD6-6A2B55F9B162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="841">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3460,6 +3460,26 @@
   </si>
   <si>
     <t>733. 图像渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109. 有序链表转换二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/solution/python-3liang-chong-xing-shi-de-dfs-by-acw_jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4025,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6034,7 +6054,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>636</v>
+        <v>836</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
@@ -8680,6 +8700,35 @@
         <v>142</v>
       </c>
       <c r="I156" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C157" t="s">
+        <v>837</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" t="s">
+        <v>839</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="H157" t="s">
+        <v>142</v>
+      </c>
+      <c r="I157" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8995,8 +9044,10 @@
     <hyperlink ref="D155" r:id="rId304" xr:uid="{6D840B3C-3D2A-4818-93CF-688966A58BEB}"/>
     <hyperlink ref="D156" r:id="rId305" xr:uid="{27E55F81-B80A-430F-BAD2-A12ED6D94DD4}"/>
     <hyperlink ref="G156" r:id="rId306" xr:uid="{4CE49148-3128-48A2-BEB0-8C3D9CA8ED68}"/>
+    <hyperlink ref="D157" r:id="rId307" xr:uid="{2E06C157-7DEB-4177-B61A-6BC3B26397FC}"/>
+    <hyperlink ref="G157" r:id="rId308" xr:uid="{5F77174F-E729-4AE3-A63D-47B254386B78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId307"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BCDCF7-8FCF-4A59-9BD6-6A2B55F9B162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E24CB-71D3-43AA-BDA8-345338C9CF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="842">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3480,6 +3480,10 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/solution/python-3liang-chong-xing-shi-de-dfs-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4047,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6083,7 +6087,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>636</v>
+        <v>841</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
@@ -6104,7 +6108,7 @@
         <v>646</v>
       </c>
       <c r="H67" t="s">
-        <v>648</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
         <v>376</v>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E24CB-71D3-43AA-BDA8-345338C9CF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F56E9-7EEC-4B64-85AC-1D7463A5C8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="845">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3484,6 +3484,18 @@
   </si>
   <si>
     <t>oo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/24-game/solution/python-3dfs-by-acw_jpch89-9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/24-game/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>679. 24 点游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4049,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8733,6 +8745,35 @@
         <v>142</v>
       </c>
       <c r="I157" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C158" t="s">
+        <v>844</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" t="s">
+        <v>318</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="H158" t="s">
+        <v>142</v>
+      </c>
+      <c r="I158" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9050,8 +9091,10 @@
     <hyperlink ref="G156" r:id="rId306" xr:uid="{4CE49148-3128-48A2-BEB0-8C3D9CA8ED68}"/>
     <hyperlink ref="D157" r:id="rId307" xr:uid="{2E06C157-7DEB-4177-B61A-6BC3B26397FC}"/>
     <hyperlink ref="G157" r:id="rId308" xr:uid="{5F77174F-E729-4AE3-A63D-47B254386B78}"/>
+    <hyperlink ref="G158" r:id="rId309" xr:uid="{A4FBF82B-9669-47F2-91CB-A7DAF79EC3B6}"/>
+    <hyperlink ref="D158" r:id="rId310" xr:uid="{58A2C483-C36D-4189-BFEF-9091C115D325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId311"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F56E9-7EEC-4B64-85AC-1D7463A5C8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EAFF7E-525C-4B3A-9E1E-A4624A54B52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="848">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3496,6 +3496,18 @@
   </si>
   <si>
     <t>679. 24 点游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201. 数字范围按位与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/bitwise-and-of-numbers-range/solution/python-3mo-ni-fa-chao-shi-gong-gong-qian-zhui-by-a/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/bitwise-and-of-numbers-range/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4061,10 +4073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8774,6 +8786,35 @@
         <v>142</v>
       </c>
       <c r="I158" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C159" t="s">
+        <v>845</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" t="s">
+        <v>59</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="H159" t="s">
+        <v>142</v>
+      </c>
+      <c r="I159" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9093,8 +9134,10 @@
     <hyperlink ref="G157" r:id="rId308" xr:uid="{5F77174F-E729-4AE3-A63D-47B254386B78}"/>
     <hyperlink ref="G158" r:id="rId309" xr:uid="{A4FBF82B-9669-47F2-91CB-A7DAF79EC3B6}"/>
     <hyperlink ref="D158" r:id="rId310" xr:uid="{58A2C483-C36D-4189-BFEF-9091C115D325}"/>
+    <hyperlink ref="G159" r:id="rId311" xr:uid="{AAF1DFBC-1757-4AEE-B135-E1EA2C7574B5}"/>
+    <hyperlink ref="D159" r:id="rId312" xr:uid="{01D4CBAF-0EC7-4BAF-97BD-55DDE3B015E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId311"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId313"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EAFF7E-525C-4B3A-9E1E-A4624A54B52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2671E46-319D-429E-BD9C-5B05F027F514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="852">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3508,6 +3508,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/bitwise-and-of-numbers-range/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/repeated-substring-pattern/solution/python-3mei-ju-shuang-bei-zi-fu-chuan-by-acw_jpch8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/repeated-substring-pattern/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459. 重复的子字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4073,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8815,6 +8831,35 @@
         <v>142</v>
       </c>
       <c r="I159" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C160" t="s">
+        <v>851</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="H160" t="s">
+        <v>849</v>
+      </c>
+      <c r="I160" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9136,8 +9181,10 @@
     <hyperlink ref="D158" r:id="rId310" xr:uid="{58A2C483-C36D-4189-BFEF-9091C115D325}"/>
     <hyperlink ref="G159" r:id="rId311" xr:uid="{AAF1DFBC-1757-4AEE-B135-E1EA2C7574B5}"/>
     <hyperlink ref="D159" r:id="rId312" xr:uid="{01D4CBAF-0EC7-4BAF-97BD-55DDE3B015E1}"/>
+    <hyperlink ref="G160" r:id="rId313" xr:uid="{BD6AC33B-DC44-4770-A14B-E929B28D8761}"/>
+    <hyperlink ref="D160" r:id="rId314" xr:uid="{892B96D5-7B73-4197-9102-DD83B8EFECBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId313"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId315"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2671E46-319D-429E-BD9C-5B05F027F514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD5060F-6B93-4A93-8B82-7A7AE7AAF99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="855">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3524,6 +3524,18 @@
   </si>
   <si>
     <t>459. 重复的子字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/robot-return-to-origin/solution/python-3wei-fang-xiang-ji-shu-by-acw_jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/robot-return-to-origin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>657. 机器人能否返回原点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4089,10 +4101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8860,6 +8872,35 @@
         <v>849</v>
       </c>
       <c r="I160" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C161" t="s">
+        <v>854</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>37</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="H161" t="s">
+        <v>142</v>
+      </c>
+      <c r="I161" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9183,8 +9224,10 @@
     <hyperlink ref="D159" r:id="rId312" xr:uid="{01D4CBAF-0EC7-4BAF-97BD-55DDE3B015E1}"/>
     <hyperlink ref="G160" r:id="rId313" xr:uid="{BD6AC33B-DC44-4770-A14B-E929B28D8761}"/>
     <hyperlink ref="D160" r:id="rId314" xr:uid="{892B96D5-7B73-4197-9102-DD83B8EFECBB}"/>
+    <hyperlink ref="G161" r:id="rId315" xr:uid="{8B03CE21-9A3A-4DBB-BCF4-49AB67F94E45}"/>
+    <hyperlink ref="D161" r:id="rId316" xr:uid="{05A8E022-0385-4359-97A2-18D0AF37DE0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId315"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId317"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD5060F-6B93-4A93-8B82-7A7AE7AAF99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340324C2-9159-464C-A135-6069AE0ABD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="858">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3536,6 +3536,18 @@
   </si>
   <si>
     <t>657. 机器人能否返回原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214. 最短回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-palindrome/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-palindrome/solution/python-3bao-li-jie-fa-ni-xu-xun-zhao-xiang-tong-we/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4101,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8901,6 +8913,35 @@
         <v>142</v>
       </c>
       <c r="I161" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C162" t="s">
+        <v>855</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" t="s">
+        <v>37</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="H162" t="s">
+        <v>849</v>
+      </c>
+      <c r="I162" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9226,8 +9267,10 @@
     <hyperlink ref="D160" r:id="rId314" xr:uid="{892B96D5-7B73-4197-9102-DD83B8EFECBB}"/>
     <hyperlink ref="G161" r:id="rId315" xr:uid="{8B03CE21-9A3A-4DBB-BCF4-49AB67F94E45}"/>
     <hyperlink ref="D161" r:id="rId316" xr:uid="{05A8E022-0385-4359-97A2-18D0AF37DE0B}"/>
+    <hyperlink ref="D162" r:id="rId317" xr:uid="{6FFBE2D4-29CA-4926-8F92-1CAC816F8AE0}"/>
+    <hyperlink ref="G162" r:id="rId318" xr:uid="{E7BA47CE-9E42-4730-9680-643D13813979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId317"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId319"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340324C2-9159-464C-A135-6069AE0ABD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87022426-C22C-4859-8DF6-731A52778EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="861">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3548,6 +3548,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/shortest-palindrome/solution/python-3bao-li-jie-fa-ni-xu-xun-zhao-xiang-tong-we/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/solution/python-3yi-xing-jie-by-jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>557. 反转字符串中的单词 III</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4113,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8942,6 +8954,35 @@
         <v>849</v>
       </c>
       <c r="I162" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C163" t="s">
+        <v>860</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>37</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="H163" t="s">
+        <v>142</v>
+      </c>
+      <c r="I163" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9269,8 +9310,10 @@
     <hyperlink ref="D161" r:id="rId316" xr:uid="{05A8E022-0385-4359-97A2-18D0AF37DE0B}"/>
     <hyperlink ref="D162" r:id="rId317" xr:uid="{6FFBE2D4-29CA-4926-8F92-1CAC816F8AE0}"/>
     <hyperlink ref="G162" r:id="rId318" xr:uid="{E7BA47CE-9E42-4730-9680-643D13813979}"/>
+    <hyperlink ref="G163" r:id="rId319" xr:uid="{9D0F4304-9497-477D-BA99-6E6A2C6955A1}"/>
+    <hyperlink ref="D163" r:id="rId320" xr:uid="{A4FB8412-0C90-4CF8-A666-8251455CE622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId319"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId321"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87022426-C22C-4859-8DF6-731A52778EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BF7BE-CB79-45AE-A78F-9D20DD9EBBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="865">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3560,6 +3560,22 @@
   </si>
   <si>
     <t>557. 反转字符串中的单词 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/keys-and-rooms/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>841. 钥匙和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/keys-and-rooms/solution/python-3bfs-dfsji-qi-you-hua-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4125,10 +4141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8983,6 +8999,35 @@
         <v>142</v>
       </c>
       <c r="I163" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C164" t="s">
+        <v>863</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" t="s">
+        <v>862</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="H164" t="s">
+        <v>142</v>
+      </c>
+      <c r="I164" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9312,8 +9357,10 @@
     <hyperlink ref="G162" r:id="rId318" xr:uid="{E7BA47CE-9E42-4730-9680-643D13813979}"/>
     <hyperlink ref="G163" r:id="rId319" xr:uid="{9D0F4304-9497-477D-BA99-6E6A2C6955A1}"/>
     <hyperlink ref="D163" r:id="rId320" xr:uid="{A4FB8412-0C90-4CF8-A666-8251455CE622}"/>
+    <hyperlink ref="D164" r:id="rId321" xr:uid="{EB9CBBF8-1482-4ABC-8D74-9015B7C45646}"/>
+    <hyperlink ref="G164" r:id="rId322" xr:uid="{0C738514-35CD-462A-AC90-696A1619217F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId321"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId323"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BF7BE-CB79-45AE-A78F-9D20DD9EBBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D716E3-06B7-4075-84A5-A4AB7285FC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="870">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3578,12 +3578,71 @@
     <t>https://leetcode-cn.com/problems/keys-and-rooms/solution/python-3bfs-dfsji-qi-you-hua-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/predict-the-winner/solution/python-3dfsji-qi-you-hua-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极小化极大、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>486. 预测赢家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/predict-the-winner/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3674,6 +3733,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4141,10 +4206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9029,6 +9094,35 @@
       </c>
       <c r="I164" t="s">
         <v>803</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C165" t="s">
+        <v>868</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
+        <v>867</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="H165" t="s">
+        <v>867</v>
+      </c>
+      <c r="I165" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -9359,8 +9453,10 @@
     <hyperlink ref="D163" r:id="rId320" xr:uid="{A4FB8412-0C90-4CF8-A666-8251455CE622}"/>
     <hyperlink ref="D164" r:id="rId321" xr:uid="{EB9CBBF8-1482-4ABC-8D74-9015B7C45646}"/>
     <hyperlink ref="G164" r:id="rId322" xr:uid="{0C738514-35CD-462A-AC90-696A1619217F}"/>
+    <hyperlink ref="G165" r:id="rId323" xr:uid="{1BB40691-505D-4297-A5D9-F8CE730C0BE8}"/>
+    <hyperlink ref="D165" r:id="rId324" xr:uid="{64DFDD9B-001A-4A8B-8379-ACFF8CB19581}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId323"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId325"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D716E3-06B7-4075-84A5-A4AB7285FC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCDE616-265B-4018-B852-CBA730FC6D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4208,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>636</v>
+        <v>841</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCDE616-265B-4018-B852-CBA730FC6D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04264D02-C66A-4B4A-93B1-21BBAF8FC935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="873">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3635,6 +3635,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/predict-the-winner/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutation-sequence/solution/python-3chao-shi-de-dfs-zhao-gui-lu-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutation-sequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60. 第k个排列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4206,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9122,6 +9134,35 @@
         <v>867</v>
       </c>
       <c r="I165" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C166" t="s">
+        <v>872</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" t="s">
+        <v>509</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="H166" t="s">
+        <v>142</v>
+      </c>
+      <c r="I166" t="s">
         <v>866</v>
       </c>
     </row>
@@ -9455,8 +9496,10 @@
     <hyperlink ref="G164" r:id="rId322" xr:uid="{0C738514-35CD-462A-AC90-696A1619217F}"/>
     <hyperlink ref="G165" r:id="rId323" xr:uid="{1BB40691-505D-4297-A5D9-F8CE730C0BE8}"/>
     <hyperlink ref="D165" r:id="rId324" xr:uid="{64DFDD9B-001A-4A8B-8379-ACFF8CB19581}"/>
+    <hyperlink ref="G166" r:id="rId325" xr:uid="{F4990FBA-D3EC-4268-BFAA-03B1BCC57B5C}"/>
+    <hyperlink ref="D166" r:id="rId326" xr:uid="{0030F76A-6745-4EF9-8562-61EE08B65432}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId325"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId327"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04264D02-C66A-4B4A-93B1-21BBAF8FC935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7943BD0-8EA3-4AEC-87C5-B4FFC6149D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4220,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>609</v>
+        <v>841</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7943BD0-8EA3-4AEC-87C5-B4FFC6149D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBA88B-7511-4D62-A993-5BC29A137340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="878">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1611,10 +1611,6 @@
   </si>
   <si>
     <t>√两种递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√类型标记法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3647,6 +3643,30 @@
   </si>
   <si>
     <t>60. 第k个排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√类型区分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/top-k-frequent-elements/solution/python-3counter-pei-he-sorted-huo-zhe-heapqnlarges/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/top-k-frequent-elements/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4218,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4442,10 +4462,10 @@
         <v>49</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>516</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4506,7 +4526,7 @@
         <v>148</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
@@ -4584,7 +4604,7 @@
         <v>77</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4660,7 +4680,7 @@
         <v>77</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5149,7 +5169,7 @@
         <v>161</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -6019,7 +6039,7 @@
         <v>351</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>388</v>
+        <v>872</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -6140,7 +6160,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -6155,10 +6175,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -6169,25 +6189,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -6198,25 +6218,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
+        <v>594</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
+        <v>641</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
@@ -6227,28 +6247,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H66" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I66" t="s">
         <v>375</v>
@@ -6256,25 +6276,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H67" t="s">
         <v>142</v>
@@ -6285,28 +6305,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
+        <v>649</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H68" t="s">
         <v>650</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="H68" t="s">
-        <v>651</v>
       </c>
       <c r="I68" t="s">
         <v>377</v>
@@ -6314,25 +6334,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
@@ -6343,25 +6363,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
@@ -6422,39 +6442,39 @@
         <v>385</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H72" t="s">
         <v>389</v>
-      </c>
-      <c r="H72" t="s">
-        <v>390</v>
       </c>
       <c r="I72" t="s">
         <v>146</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B73" s="1">
         <v>43969</v>
       </c>
       <c r="C73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F73" t="s">
+        <v>392</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="H73" t="s">
         <v>142</v>
@@ -6465,25 +6485,25 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B74" s="1">
         <v>43970</v>
       </c>
       <c r="C74" t="s">
+        <v>396</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H74" t="s">
         <v>142</v>
@@ -6494,54 +6514,54 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75" s="1">
         <v>43970</v>
       </c>
       <c r="C75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
+        <v>402</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75" t="s">
         <v>403</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H75" t="s">
-        <v>142</v>
-      </c>
-      <c r="I75" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
       </c>
       <c r="C76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H76" t="s">
         <v>142</v>
@@ -6552,25 +6572,25 @@
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B77" s="1">
         <v>43971</v>
       </c>
       <c r="C77" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H77" t="s">
         <v>142</v>
@@ -6581,28 +6601,28 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B78" s="1">
         <v>43972</v>
       </c>
       <c r="C78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I78" t="s">
         <v>146</v>
@@ -6610,25 +6630,25 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B79" s="1">
         <v>43973</v>
       </c>
       <c r="C79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H79" t="s">
         <v>142</v>
@@ -6639,25 +6659,25 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" s="1">
         <v>43973</v>
       </c>
       <c r="C80" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H80" t="s">
         <v>142</v>
@@ -6668,48 +6688,48 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B81" s="1">
         <v>43973</v>
       </c>
       <c r="C81" t="s">
+        <v>429</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I81" t="s">
         <v>381</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B82" s="1">
         <v>43974</v>
       </c>
       <c r="C82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>20</v>
@@ -6718,10 +6738,10 @@
         <v>216</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I82" t="s">
         <v>381</v>
@@ -6729,77 +6749,77 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
       </c>
       <c r="C83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I83" t="s">
         <v>381</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
+        <v>448</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H84" t="s">
+        <v>450</v>
+      </c>
+      <c r="I84" t="s">
         <v>449</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H84" t="s">
-        <v>451</v>
-      </c>
-      <c r="I84" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -6808,39 +6828,39 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
+        <v>462</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H86" t="s">
         <v>463</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H86" t="s">
-        <v>464</v>
       </c>
       <c r="I86" t="s">
         <v>146</v>
@@ -6848,28 +6868,28 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
+        <v>466</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
+        <v>468</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H87" t="s">
         <v>469</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H87" t="s">
-        <v>470</v>
       </c>
       <c r="I87" t="s">
         <v>146</v>
@@ -6877,28 +6897,28 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
+        <v>471</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H88" t="s">
         <v>476</v>
-      </c>
-      <c r="H88" t="s">
-        <v>477</v>
       </c>
       <c r="I88" t="s">
         <v>146</v>
@@ -6906,28 +6926,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H89" t="s">
         <v>478</v>
-      </c>
-      <c r="H89" t="s">
-        <v>479</v>
       </c>
       <c r="I89" t="s">
         <v>146</v>
@@ -6935,25 +6955,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>483</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -6962,30 +6982,30 @@
         <v>146</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -6994,1283 +7014,1283 @@
         <v>146</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
+        <v>498</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
         <v>500</v>
-      </c>
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
+        <v>505</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="H94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H95" t="s">
         <v>514</v>
       </c>
-      <c r="H95" t="s">
-        <v>515</v>
-      </c>
       <c r="I95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
+        <v>531</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
+        <v>583</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H98" t="s">
         <v>584</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H98" t="s">
-        <v>585</v>
-      </c>
       <c r="I98" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
+        <v>579</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H99" t="s">
         <v>580</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H99" t="s">
-        <v>581</v>
-      </c>
       <c r="I99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H100" t="s">
         <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
+        <v>537</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
         <v>540</v>
-      </c>
-      <c r="H101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
+        <v>541</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H102" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I102" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H103" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
+        <v>553</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
+        <v>559</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" t="s">
         <v>561</v>
-      </c>
-      <c r="H105" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
+        <v>569</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
+        <v>577</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="H109" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I109" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
+        <v>590</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H110" t="s">
         <v>591</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="H110" t="s">
-        <v>592</v>
-      </c>
       <c r="I110" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
+        <v>616</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
+        <v>619</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
+        <v>625</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
+        <v>631</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
+        <v>633</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
+        <v>636</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
+        <v>638</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" t="s">
         <v>640</v>
       </c>
-      <c r="H116" t="s">
-        <v>641</v>
-      </c>
       <c r="I116" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B117" s="1">
         <v>43998</v>
       </c>
       <c r="C117" t="s">
+        <v>654</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H117" t="s">
         <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B118" s="1">
         <v>43999</v>
       </c>
       <c r="C118" t="s">
+        <v>662</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H118" t="s">
         <v>142</v>
       </c>
       <c r="I118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B119" s="1">
         <v>44001</v>
       </c>
       <c r="C119" t="s">
+        <v>666</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
+        <v>668</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="H119" t="s">
         <v>142</v>
       </c>
       <c r="I119" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B120" s="1">
         <v>44003</v>
       </c>
       <c r="C120" t="s">
+        <v>672</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F120" t="s">
+        <v>674</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="H120" t="s">
         <v>142</v>
       </c>
       <c r="I120" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B121" s="1">
         <v>44005</v>
       </c>
       <c r="C121" t="s">
+        <v>677</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
+        <v>679</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>681</v>
-      </c>
       <c r="H121" t="s">
         <v>142</v>
       </c>
       <c r="I121" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B122" s="1">
         <v>44009</v>
       </c>
       <c r="C122" t="s">
+        <v>682</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F122" t="s">
+        <v>684</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>686</v>
-      </c>
       <c r="H122" t="s">
         <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B123" s="1">
         <v>44010</v>
       </c>
       <c r="C123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
+        <v>689</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H123" t="s">
         <v>690</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H123" t="s">
-        <v>691</v>
-      </c>
       <c r="I123" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B124" s="1">
         <v>44012</v>
       </c>
       <c r="C124" t="s">
+        <v>693</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F124" t="s">
+        <v>695</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>697</v>
-      </c>
       <c r="H124" t="s">
         <v>142</v>
       </c>
       <c r="I124" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B125" s="1">
         <v>44018</v>
       </c>
       <c r="C125" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F125" t="s">
+        <v>700</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
         <v>702</v>
-      </c>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-      <c r="I125" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B126" s="1">
         <v>44020</v>
       </c>
       <c r="C126" t="s">
+        <v>705</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
+        <v>707</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>709</v>
-      </c>
       <c r="H126" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I126" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B127" s="1">
         <v>44021</v>
       </c>
       <c r="C127" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F127" t="s">
+        <v>712</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" t="s">
         <v>714</v>
       </c>
-      <c r="H127" t="s">
-        <v>715</v>
-      </c>
       <c r="I127" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B128" s="1">
         <v>44022</v>
       </c>
       <c r="C128" t="s">
+        <v>716</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F128" t="s">
+        <v>718</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>720</v>
-      </c>
       <c r="H128" t="s">
         <v>142</v>
       </c>
       <c r="I128" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B129" s="1">
         <v>44023</v>
       </c>
       <c r="C129" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H129" t="s">
         <v>721</v>
       </c>
-      <c r="H129" t="s">
-        <v>722</v>
-      </c>
       <c r="I129" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B130" s="1">
         <v>44024</v>
       </c>
       <c r="C130" t="s">
+        <v>727</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F130" t="s">
+        <v>729</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" t="s">
         <v>731</v>
       </c>
-      <c r="H130" t="s">
-        <v>732</v>
-      </c>
       <c r="I130" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B131" s="1">
         <v>44025</v>
       </c>
       <c r="C131" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F131" t="s">
+        <v>733</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="H131" t="s">
         <v>734</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="H131" t="s">
-        <v>735</v>
-      </c>
       <c r="I131" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B132" s="1">
         <v>44026</v>
       </c>
       <c r="C132" t="s">
+        <v>741</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H132" t="s">
         <v>142</v>
       </c>
       <c r="I132" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B133" s="1">
         <v>44027</v>
       </c>
       <c r="C133" t="s">
+        <v>745</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H133" t="s">
         <v>142</v>
       </c>
       <c r="I133" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B134" s="1">
         <v>44027</v>
       </c>
       <c r="C134" t="s">
+        <v>754</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F134" t="s">
+        <v>747</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="H134" t="s">
         <v>748</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="H134" t="s">
-        <v>749</v>
-      </c>
       <c r="I134" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B135" s="1">
         <v>44029</v>
       </c>
       <c r="C135" t="s">
+        <v>757</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
+        <v>759</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>761</v>
-      </c>
       <c r="H135" t="s">
         <v>142</v>
       </c>
       <c r="I135" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8281,25 +8301,25 @@
         <v>44030</v>
       </c>
       <c r="C136" t="s">
+        <v>762</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H136" t="s">
         <v>142</v>
       </c>
       <c r="I136" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8310,25 +8330,25 @@
         <v>44031</v>
       </c>
       <c r="C137" t="s">
+        <v>764</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F137" t="s">
+        <v>766</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="H137" t="s">
         <v>767</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="H137" t="s">
-        <v>768</v>
-      </c>
       <c r="I137" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8339,25 +8359,25 @@
         <v>44032</v>
       </c>
       <c r="C138" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F138" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H138" t="s">
         <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -8368,25 +8388,25 @@
         <v>44033</v>
       </c>
       <c r="C139" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F139" t="s">
+        <v>770</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="H139" t="s">
+        <v>142</v>
+      </c>
+      <c r="I139" t="s">
         <v>771</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="H139" t="s">
-        <v>142</v>
-      </c>
-      <c r="I139" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -8397,19 +8417,19 @@
         <v>44033</v>
       </c>
       <c r="C140" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I140" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8420,10 +8440,10 @@
         <v>44034</v>
       </c>
       <c r="C141" t="s">
+        <v>776</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>15</v>
@@ -8432,13 +8452,13 @@
         <v>81</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H141" t="s">
         <v>81</v>
       </c>
       <c r="I141" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8449,25 +8469,25 @@
         <v>44035</v>
       </c>
       <c r="C142" t="s">
+        <v>779</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H142" t="s">
         <v>142</v>
       </c>
       <c r="I142" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8478,25 +8498,25 @@
         <v>44036</v>
       </c>
       <c r="C143" t="s">
+        <v>785</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F143" t="s">
+        <v>787</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="H143" t="s">
         <v>221</v>
       </c>
       <c r="I143" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8507,25 +8527,25 @@
         <v>44039</v>
       </c>
       <c r="C144" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G144" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H144" t="s">
         <v>790</v>
       </c>
-      <c r="H144" t="s">
-        <v>791</v>
-      </c>
       <c r="I144" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8536,25 +8556,25 @@
         <v>44042</v>
       </c>
       <c r="C145" t="s">
+        <v>794</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H145" t="s">
         <v>142</v>
       </c>
       <c r="I145" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8565,10 +8585,10 @@
         <v>44043</v>
       </c>
       <c r="C146" t="s">
+        <v>797</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>15</v>
@@ -8577,13 +8597,13 @@
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H146" t="s">
         <v>142</v>
       </c>
       <c r="I146" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8594,10 +8614,10 @@
         <v>44045</v>
       </c>
       <c r="C147" t="s">
+        <v>799</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>20</v>
@@ -8606,13 +8626,13 @@
         <v>216</v>
       </c>
       <c r="G147" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="H147" t="s">
+        <v>142</v>
+      </c>
+      <c r="I147" t="s">
         <v>802</v>
-      </c>
-      <c r="H147" t="s">
-        <v>142</v>
-      </c>
-      <c r="I147" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8623,10 +8643,10 @@
         <v>44046</v>
       </c>
       <c r="C148" t="s">
+        <v>803</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>15</v>
@@ -8635,13 +8655,13 @@
         <v>37</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H148" t="s">
         <v>142</v>
       </c>
       <c r="I148" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8652,10 +8672,10 @@
         <v>44048</v>
       </c>
       <c r="C149" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>20</v>
@@ -8664,13 +8684,13 @@
         <v>216</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H149" t="s">
         <v>221</v>
       </c>
       <c r="I149" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8681,10 +8701,10 @@
         <v>44051</v>
       </c>
       <c r="C150" t="s">
+        <v>809</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>22</v>
@@ -8693,13 +8713,13 @@
         <v>216</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H150" t="s">
         <v>142</v>
       </c>
       <c r="I150" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8710,25 +8730,25 @@
         <v>44052</v>
       </c>
       <c r="C151" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F151" t="s">
+        <v>813</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="H151" t="s">
         <v>814</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="H151" t="s">
-        <v>815</v>
-      </c>
       <c r="I151" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8739,10 +8759,10 @@
         <v>44053</v>
       </c>
       <c r="C152" t="s">
+        <v>821</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>15</v>
@@ -8751,13 +8771,13 @@
         <v>37</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H152" t="s">
         <v>142</v>
       </c>
       <c r="I152" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8768,25 +8788,25 @@
         <v>44054</v>
       </c>
       <c r="C153" t="s">
+        <v>818</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H153" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I153" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8797,25 +8817,25 @@
         <v>44057</v>
       </c>
       <c r="C154" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H154" t="s">
         <v>142</v>
       </c>
       <c r="I154" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8826,25 +8846,25 @@
         <v>44058</v>
       </c>
       <c r="C155" t="s">
+        <v>830</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H155" t="s">
         <v>142</v>
       </c>
       <c r="I155" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8855,10 +8875,10 @@
         <v>44059</v>
       </c>
       <c r="C156" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>15</v>
@@ -8867,13 +8887,13 @@
         <v>318</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H156" t="s">
         <v>142</v>
       </c>
       <c r="I156" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8884,25 +8904,25 @@
         <v>44061</v>
       </c>
       <c r="C157" t="s">
+        <v>836</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F157" t="s">
+        <v>838</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="H157" t="s">
         <v>142</v>
       </c>
       <c r="I157" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8913,10 +8933,10 @@
         <v>44065</v>
       </c>
       <c r="C158" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>22</v>
@@ -8925,13 +8945,13 @@
         <v>318</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H158" t="s">
         <v>142</v>
       </c>
       <c r="I158" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8942,10 +8962,10 @@
         <v>44066</v>
       </c>
       <c r="C159" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>20</v>
@@ -8954,13 +8974,13 @@
         <v>59</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H159" t="s">
         <v>142</v>
       </c>
       <c r="I159" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8971,10 +8991,10 @@
         <v>44067</v>
       </c>
       <c r="C160" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>15</v>
@@ -8983,13 +9003,13 @@
         <v>37</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H160" t="s">
         <v>848</v>
       </c>
-      <c r="H160" t="s">
-        <v>849</v>
-      </c>
       <c r="I160" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9000,10 +9020,10 @@
         <v>44071</v>
       </c>
       <c r="C161" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>15</v>
@@ -9012,13 +9032,13 @@
         <v>37</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H161" t="s">
         <v>142</v>
       </c>
       <c r="I161" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9029,10 +9049,10 @@
         <v>44072</v>
       </c>
       <c r="C162" t="s">
+        <v>854</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>22</v>
@@ -9041,13 +9061,13 @@
         <v>37</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H162" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I162" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9058,10 +9078,10 @@
         <v>44073</v>
       </c>
       <c r="C163" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>15</v>
@@ -9070,13 +9090,13 @@
         <v>37</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H163" t="s">
         <v>142</v>
       </c>
       <c r="I163" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9087,25 +9107,25 @@
         <v>44074</v>
       </c>
       <c r="C164" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H164" t="s">
         <v>142</v>
       </c>
       <c r="I164" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9116,25 +9136,25 @@
         <v>44075</v>
       </c>
       <c r="C165" t="s">
+        <v>867</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>868</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>869</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F165" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G165" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="H165" t="s">
+        <v>866</v>
+      </c>
+      <c r="I165" t="s">
         <v>865</v>
-      </c>
-      <c r="H165" t="s">
-        <v>867</v>
-      </c>
-      <c r="I165" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9145,25 +9165,54 @@
         <v>44079</v>
       </c>
       <c r="C166" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H166" t="s">
         <v>142</v>
       </c>
       <c r="I166" t="s">
-        <v>866</v>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C167" t="s">
+        <v>875</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" t="s">
+        <v>876</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="H167" t="s">
+        <v>877</v>
+      </c>
+      <c r="I167" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -9498,8 +9547,10 @@
     <hyperlink ref="D165" r:id="rId324" xr:uid="{64DFDD9B-001A-4A8B-8379-ACFF8CB19581}"/>
     <hyperlink ref="G166" r:id="rId325" xr:uid="{F4990FBA-D3EC-4268-BFAA-03B1BCC57B5C}"/>
     <hyperlink ref="D166" r:id="rId326" xr:uid="{0030F76A-6745-4EF9-8562-61EE08B65432}"/>
+    <hyperlink ref="G167" r:id="rId327" xr:uid="{55ADF5C4-835B-431A-8677-5D23F46D9FC5}"/>
+    <hyperlink ref="D167" r:id="rId328" xr:uid="{3FCF686D-0FDA-47A4-81E8-1C9951990DDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId327"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId329"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBA88B-7511-4D62-A993-5BC29A137340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D8895-D4B7-40CD-A388-72EDEEA152A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="885">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3667,6 +3667,34 @@
   </si>
   <si>
     <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combination-sum-ii/solution/python-3hui-su-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combination-sum-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. 组合总和 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>216. 组合总和 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combination-sum-iii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combination-sum-iii/solution/python-3hui-su-suan-fa-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4238,10 +4266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9212,6 +9240,64 @@
         <v>877</v>
       </c>
       <c r="I167" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C168" t="s">
+        <v>881</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" t="s">
+        <v>879</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="H168" t="s">
+        <v>142</v>
+      </c>
+      <c r="I168" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C169" t="s">
+        <v>882</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" t="s">
+        <v>879</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="H169" t="s">
+        <v>142</v>
+      </c>
+      <c r="I169" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9549,8 +9635,12 @@
     <hyperlink ref="D166" r:id="rId326" xr:uid="{0030F76A-6745-4EF9-8562-61EE08B65432}"/>
     <hyperlink ref="G167" r:id="rId327" xr:uid="{55ADF5C4-835B-431A-8677-5D23F46D9FC5}"/>
     <hyperlink ref="D167" r:id="rId328" xr:uid="{3FCF686D-0FDA-47A4-81E8-1C9951990DDA}"/>
+    <hyperlink ref="G168" r:id="rId329" xr:uid="{0DA9E30D-6B50-4B52-BBFD-6BB1B5623717}"/>
+    <hyperlink ref="D168" r:id="rId330" xr:uid="{F3E52E73-8B14-4E08-8394-9AC426240A70}"/>
+    <hyperlink ref="D169" r:id="rId331" xr:uid="{3522A858-1478-45DC-A191-763BA8CF4A56}"/>
+    <hyperlink ref="G169" r:id="rId332" xr:uid="{DFA84FF7-66A4-47DB-91E0-576704D8B029}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId329"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId333"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D8895-D4B7-40CD-A388-72EDEEA152A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857DD07-05EC-46A7-A83B-11D62AC785B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="888">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3695,6 +3695,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/combination-sum-iii/solution/python-3hui-su-suan-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/average-of-levels-in-binary-tree/solution/pyton-3ceng-ci-bian-li-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/average-of-levels-in-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>637. 二叉树的层平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4266,10 +4278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9298,6 +9310,35 @@
         <v>142</v>
       </c>
       <c r="I169" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C170" t="s">
+        <v>887</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="H170" t="s">
+        <v>142</v>
+      </c>
+      <c r="I170" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9639,8 +9680,10 @@
     <hyperlink ref="D168" r:id="rId330" xr:uid="{F3E52E73-8B14-4E08-8394-9AC426240A70}"/>
     <hyperlink ref="D169" r:id="rId331" xr:uid="{3522A858-1478-45DC-A191-763BA8CF4A56}"/>
     <hyperlink ref="G169" r:id="rId332" xr:uid="{DFA84FF7-66A4-47DB-91E0-576704D8B029}"/>
+    <hyperlink ref="G170" r:id="rId333" xr:uid="{21C60C53-F171-4BF0-AB5C-8BA25C4D560C}"/>
+    <hyperlink ref="D170" r:id="rId334" xr:uid="{8AD5A689-7BC7-4CE6-B66F-6F02B072F2A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId333"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId335"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857DD07-05EC-46A7-A83B-11D62AC785B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11CE05A-60BF-41A8-BDA5-7C6595120619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="891">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3707,6 +3707,18 @@
   </si>
   <si>
     <t>637. 二叉树的层平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-search/solution/python-3hui-su-suan-fa-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-search/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79. 单词搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4278,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9339,6 +9351,35 @@
         <v>142</v>
       </c>
       <c r="I170" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C171" t="s">
+        <v>890</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171" t="s">
+        <v>879</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="H171" t="s">
+        <v>142</v>
+      </c>
+      <c r="I171" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9682,8 +9723,10 @@
     <hyperlink ref="G169" r:id="rId332" xr:uid="{DFA84FF7-66A4-47DB-91E0-576704D8B029}"/>
     <hyperlink ref="G170" r:id="rId333" xr:uid="{21C60C53-F171-4BF0-AB5C-8BA25C4D560C}"/>
     <hyperlink ref="D170" r:id="rId334" xr:uid="{8AD5A689-7BC7-4CE6-B66F-6F02B072F2A2}"/>
+    <hyperlink ref="G171" r:id="rId335" xr:uid="{C7E4ADDE-91D6-44CE-8D9F-4177E88DE851}"/>
+    <hyperlink ref="D171" r:id="rId336" xr:uid="{D3548968-F867-4A32-B9AD-83A0655450D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId335"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId337"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11CE05A-60BF-41A8-BDA5-7C6595120619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46C83F-F4BC-4F06-98A0-3F912C13A62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="895">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3719,6 +3719,22 @@
   </si>
   <si>
     <t>79. 单词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37. 解数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sudoku-solver/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sudoku-solver/solution/python-3hui-su-suan-fa-by-jpch89-3/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4290,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6064,7 +6080,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>353</v>
+        <v>835</v>
       </c>
       <c r="B58" s="1">
         <v>43965</v>
@@ -9380,6 +9396,35 @@
         <v>142</v>
       </c>
       <c r="I171" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C172" t="s">
+        <v>891</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" t="s">
+        <v>892</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="H172" t="s">
+        <v>142</v>
+      </c>
+      <c r="I172" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9725,8 +9770,10 @@
     <hyperlink ref="D170" r:id="rId334" xr:uid="{8AD5A689-7BC7-4CE6-B66F-6F02B072F2A2}"/>
     <hyperlink ref="G171" r:id="rId335" xr:uid="{C7E4ADDE-91D6-44CE-8D9F-4177E88DE851}"/>
     <hyperlink ref="D171" r:id="rId336" xr:uid="{D3548968-F867-4A32-B9AD-83A0655450D0}"/>
+    <hyperlink ref="D172" r:id="rId337" xr:uid="{0063F7BC-02AD-4AD6-972F-11DB0741C68C}"/>
+    <hyperlink ref="G172" r:id="rId338" xr:uid="{03790707-5A75-4A52-BE7B-1CF60ACF15A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId337"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId339"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46C83F-F4BC-4F06-98A0-3F912C13A62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BFB71B-F2AF-4F23-81A2-BEE515F84F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4308,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>635</v>
+        <v>840</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BFB71B-F2AF-4F23-81A2-BEE515F84F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD94B9-BC08-4F6A-9160-9F8976EE3C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="898">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3735,6 +3735,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/sudoku-solver/solution/python-3hui-su-suan-fa-by-jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47. 全排列 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations-ii/solution/python-3hui-su-suan-fa-jian-zhi-you-hua-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4306,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9425,6 +9437,35 @@
         <v>142</v>
       </c>
       <c r="I172" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C173" t="s">
+        <v>895</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" t="s">
+        <v>814</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="H173" t="s">
+        <v>142</v>
+      </c>
+      <c r="I173" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9772,8 +9813,10 @@
     <hyperlink ref="D171" r:id="rId336" xr:uid="{D3548968-F867-4A32-B9AD-83A0655450D0}"/>
     <hyperlink ref="D172" r:id="rId337" xr:uid="{0063F7BC-02AD-4AD6-972F-11DB0741C68C}"/>
     <hyperlink ref="G172" r:id="rId338" xr:uid="{03790707-5A75-4A52-BE7B-1CF60ACF15A8}"/>
+    <hyperlink ref="D173" r:id="rId339" xr:uid="{A0F3722A-6F85-4BA1-8682-D05296D01CE8}"/>
+    <hyperlink ref="G173" r:id="rId340" xr:uid="{91227B87-2CB2-4E11-8BDB-856B1A3A06B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId339"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId341"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD94B9-BC08-4F6A-9160-9F8976EE3C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220347D-CEC3-4DD4-813B-D7D03820B4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="902">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3747,6 +3747,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/permutations-ii/solution/python-3hui-su-suan-fa-jian-zhi-you-hua-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-of-left-leaves/solution/python-javascriptdfs-python-yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广度优先搜索、标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404. 左叶子之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-of-left-leaves/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4318,10 +4334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9466,6 +9482,35 @@
         <v>142</v>
       </c>
       <c r="I173" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C174" t="s">
+        <v>900</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>44</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="H174" t="s">
+        <v>899</v>
+      </c>
+      <c r="I174" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9815,8 +9860,10 @@
     <hyperlink ref="G172" r:id="rId338" xr:uid="{03790707-5A75-4A52-BE7B-1CF60ACF15A8}"/>
     <hyperlink ref="D173" r:id="rId339" xr:uid="{A0F3722A-6F85-4BA1-8682-D05296D01CE8}"/>
     <hyperlink ref="G173" r:id="rId340" xr:uid="{91227B87-2CB2-4E11-8BDB-856B1A3A06B6}"/>
+    <hyperlink ref="G174" r:id="rId341" xr:uid="{CD151DBB-BAE9-4BE6-ADC7-42446AB244DB}"/>
+    <hyperlink ref="D174" r:id="rId342" xr:uid="{E32E5792-5631-4030-908D-4229425AD117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId341"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220347D-CEC3-4DD4-813B-D7D03820B4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A557DC-C2ED-4B61-9B73-28D795907BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="907">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3763,6 +3763,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/sum-of-left-leaves/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subsets/solution/python-3hui-su-suan-fa-by-jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subsets/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78. 子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、数组、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、itertools.combinations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4334,10 +4354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9511,6 +9531,35 @@
         <v>899</v>
       </c>
       <c r="I174" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C175" t="s">
+        <v>904</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>905</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="H175" t="s">
+        <v>906</v>
+      </c>
+      <c r="I175" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9862,8 +9911,10 @@
     <hyperlink ref="G173" r:id="rId340" xr:uid="{91227B87-2CB2-4E11-8BDB-856B1A3A06B6}"/>
     <hyperlink ref="G174" r:id="rId341" xr:uid="{CD151DBB-BAE9-4BE6-ADC7-42446AB244DB}"/>
     <hyperlink ref="D174" r:id="rId342" xr:uid="{E32E5792-5631-4030-908D-4229425AD117}"/>
+    <hyperlink ref="G175" r:id="rId343" xr:uid="{350EBC00-D32F-4209-A7F2-CF0ADE293142}"/>
+    <hyperlink ref="D175" r:id="rId344" xr:uid="{B780927E-9B35-4508-8C8A-C34E77C622E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId345"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A557DC-C2ED-4B61-9B73-28D795907BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856DB020-CCEA-4E4F-B863-353EFC1586F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="910">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3783,6 +3783,18 @@
   </si>
   <si>
     <t>位运算、itertools.combinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-bst-to-greater-tree/solution/python-3-javascriptbao-cun-zhong-xu-xu-lie-fan-xia/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-bst-to-greater-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>538. 把二叉搜索树转换为累加树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4354,10 +4366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9560,6 +9572,32 @@
         <v>906</v>
       </c>
       <c r="I175" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C176" t="s">
+        <v>909</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" t="s">
+        <v>44</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="I176" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9913,8 +9951,10 @@
     <hyperlink ref="D174" r:id="rId342" xr:uid="{E32E5792-5631-4030-908D-4229425AD117}"/>
     <hyperlink ref="G175" r:id="rId343" xr:uid="{350EBC00-D32F-4209-A7F2-CF0ADE293142}"/>
     <hyperlink ref="D175" r:id="rId344" xr:uid="{B780927E-9B35-4508-8C8A-C34E77C622E3}"/>
+    <hyperlink ref="G176" r:id="rId345" xr:uid="{CB4B5DAF-4473-4E4E-9977-AC01E387B29C}"/>
+    <hyperlink ref="D176" r:id="rId346" xr:uid="{F5BE4E06-FBA1-43BE-9721-ABC305EEC61C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId345"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId347"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856DB020-CCEA-4E4F-B863-353EFC1586F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E75C86E-F9C6-49A4-A9F4-000005F88FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="914">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3795,6 +3795,22 @@
   </si>
   <si>
     <t>538. 把二叉搜索树转换为累加树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-cameras/solution/python-3hou-xu-bian-li-tan-xin-ce-lue-san-chong-zh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索、状态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-cameras/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>968. 监控二叉树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4366,10 +4382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9597,7 +9613,39 @@
       <c r="G176" s="2" t="s">
         <v>907</v>
       </c>
+      <c r="H176" t="s">
+        <v>142</v>
+      </c>
       <c r="I176" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C177" t="s">
+        <v>913</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" t="s">
+        <v>911</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="H177" t="s">
+        <v>142</v>
+      </c>
+      <c r="I177" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9953,8 +10001,10 @@
     <hyperlink ref="D175" r:id="rId344" xr:uid="{B780927E-9B35-4508-8C8A-C34E77C622E3}"/>
     <hyperlink ref="G176" r:id="rId345" xr:uid="{CB4B5DAF-4473-4E4E-9977-AC01E387B29C}"/>
     <hyperlink ref="D176" r:id="rId346" xr:uid="{F5BE4E06-FBA1-43BE-9721-ABC305EEC61C}"/>
+    <hyperlink ref="G177" r:id="rId347" xr:uid="{B7C4A5BD-5C50-4CDF-8474-5E686ACF0840}"/>
+    <hyperlink ref="D177" r:id="rId348" xr:uid="{50A0B130-E074-4F72-B610-08B52EAB65BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId347"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId349"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E75C86E-F9C6-49A4-A9F4-000005F88FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0CE23-949F-4A85-89CB-546C4FEDDC8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="917">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3811,6 +3811,18 @@
   </si>
   <si>
     <t>968. 监控二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>617. 合并二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-two-binary-trees/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-two-binary-trees/solution/python-3dfs-bfs-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4382,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9646,6 +9658,35 @@
         <v>142</v>
       </c>
       <c r="I177" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C178" t="s">
+        <v>914</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>44</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="H178" t="s">
+        <v>142</v>
+      </c>
+      <c r="I178" t="s">
         <v>865</v>
       </c>
     </row>
@@ -10003,8 +10044,10 @@
     <hyperlink ref="D176" r:id="rId346" xr:uid="{F5BE4E06-FBA1-43BE-9721-ABC305EEC61C}"/>
     <hyperlink ref="G177" r:id="rId347" xr:uid="{B7C4A5BD-5C50-4CDF-8474-5E686ACF0840}"/>
     <hyperlink ref="D177" r:id="rId348" xr:uid="{50A0B130-E074-4F72-B610-08B52EAB65BD}"/>
+    <hyperlink ref="D178" r:id="rId349" xr:uid="{A62CB915-B0D5-49C1-8908-E18C3BA33D25}"/>
+    <hyperlink ref="G178" r:id="rId350" xr:uid="{72C466BF-B3C7-4D1D-A415-74C12FCF4BEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId349"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId351"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0CE23-949F-4A85-89CB-546C4FEDDC8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398875AA-A60F-465B-AB01-BB293896A9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="923">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3823,6 +3823,30 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/merge-two-binary-trees/solution/python-3dfs-bfs-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-mode-in-binary-search-tree/solution/python-3zhong-xu-xu-lie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-mode-in-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501. 二叉搜索树中的众数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶：不使用额外空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4394,10 +4418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9687,6 +9711,35 @@
         <v>142</v>
       </c>
       <c r="I178" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>920</v>
+      </c>
+      <c r="B179" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C179" t="s">
+        <v>921</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" t="s">
+        <v>918</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="H179" t="s">
+        <v>922</v>
+      </c>
+      <c r="I179" t="s">
         <v>865</v>
       </c>
     </row>
@@ -10046,8 +10099,10 @@
     <hyperlink ref="D177" r:id="rId348" xr:uid="{50A0B130-E074-4F72-B610-08B52EAB65BD}"/>
     <hyperlink ref="D178" r:id="rId349" xr:uid="{A62CB915-B0D5-49C1-8908-E18C3BA33D25}"/>
     <hyperlink ref="G178" r:id="rId350" xr:uid="{72C466BF-B3C7-4D1D-A415-74C12FCF4BEC}"/>
+    <hyperlink ref="G179" r:id="rId351" xr:uid="{7AFF5994-8B1F-49FB-A5F0-45EBA8930BF2}"/>
+    <hyperlink ref="D179" r:id="rId352" xr:uid="{0776D24D-8218-405E-A528-D02D29B03019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId351"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId353"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398875AA-A60F-465B-AB01-BB293896A9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96413931-8505-48CC-B1F8-42F1D19261DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="928">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3847,6 +3847,26 @@
   </si>
   <si>
     <t>进阶：不使用额外空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113. 路径总和 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/path-sum-ii/solution/python-3dfs-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4418,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9740,6 +9760,35 @@
         <v>922</v>
       </c>
       <c r="I179" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>923</v>
+      </c>
+      <c r="B180" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C180" t="s">
+        <v>924</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F180" t="s">
+        <v>926</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H180" t="s">
+        <v>142</v>
+      </c>
+      <c r="I180" t="s">
         <v>865</v>
       </c>
     </row>
@@ -10101,8 +10150,10 @@
     <hyperlink ref="G178" r:id="rId350" xr:uid="{72C466BF-B3C7-4D1D-A415-74C12FCF4BEC}"/>
     <hyperlink ref="G179" r:id="rId351" xr:uid="{7AFF5994-8B1F-49FB-A5F0-45EBA8930BF2}"/>
     <hyperlink ref="D179" r:id="rId352" xr:uid="{0776D24D-8218-405E-A528-D02D29B03019}"/>
+    <hyperlink ref="D180" r:id="rId353" xr:uid="{43F87868-2D25-4C75-89F3-6409B5996910}"/>
+    <hyperlink ref="G180" r:id="rId354" xr:uid="{015A3200-5371-49B9-B668-61276D489494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId353"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId355"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96413931-8505-48CC-B1F8-42F1D19261DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0D767-3EB2-40B7-A6FC-F886BCF676A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="935">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3867,6 +3867,34 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/path-sum-ii/solution/python-3dfs-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-trie-prefix-tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-trie-prefix-tree/solution/python-3zi-dian-shu-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√字典树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4438,10 +4466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F184" sqref="F184"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9676,7 +9704,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -9705,7 +9733,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -9734,7 +9762,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>920</v>
       </c>
@@ -9763,7 +9791,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>923</v>
       </c>
@@ -9790,6 +9818,38 @@
       </c>
       <c r="I180" t="s">
         <v>865</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>928</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C181" t="s">
+        <v>929</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" t="s">
+        <v>932</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="H181" t="s">
+        <v>142</v>
+      </c>
+      <c r="I181" t="s">
+        <v>933</v>
+      </c>
+      <c r="J181" s="15" t="s">
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -10152,8 +10212,10 @@
     <hyperlink ref="D179" r:id="rId352" xr:uid="{0776D24D-8218-405E-A528-D02D29B03019}"/>
     <hyperlink ref="D180" r:id="rId353" xr:uid="{43F87868-2D25-4C75-89F3-6409B5996910}"/>
     <hyperlink ref="G180" r:id="rId354" xr:uid="{015A3200-5371-49B9-B668-61276D489494}"/>
+    <hyperlink ref="D181" r:id="rId355" xr:uid="{D6DFBAF2-315A-4ACA-B060-F7A89D02C27D}"/>
+    <hyperlink ref="G181" r:id="rId356" xr:uid="{874D9F36-F217-45B2-AAE5-62FBA01298AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId355"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId357"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0D767-3EB2-40B7-A6FC-F886BCF676A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB7C37-1474-4D12-AF62-CAD08DBD8C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="934">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1807,10 +1807,6 @@
   </si>
   <si>
     <t>117. 填充每个节点的下一个右侧节点指针 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O(1) 空间复杂度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4468,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4690,10 +4686,10 @@
         <v>49</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4754,7 +4750,7 @@
         <v>148</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
@@ -4832,7 +4828,7 @@
         <v>77</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4908,7 +4904,7 @@
         <v>77</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5397,7 +5393,7 @@
         <v>161</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -6240,7 +6236,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B58" s="1">
         <v>43965</v>
@@ -6267,7 +6263,7 @@
         <v>351</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -6388,7 +6384,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -6403,10 +6399,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -6417,25 +6413,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -6446,25 +6442,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
+        <v>593</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
+        <v>640</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
@@ -6475,28 +6471,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H66" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I66" t="s">
         <v>375</v>
@@ -6504,25 +6500,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H67" t="s">
         <v>142</v>
@@ -6533,28 +6529,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
+        <v>648</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="H68" t="s">
         <v>649</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="H68" t="s">
-        <v>650</v>
       </c>
       <c r="I68" t="s">
         <v>377</v>
@@ -6562,25 +6558,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
@@ -6591,25 +6587,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
@@ -6771,7 +6767,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
@@ -6780,7 +6776,7 @@
         <v>408</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
@@ -6948,7 +6944,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B82" s="1">
         <v>43974</v>
@@ -6966,10 +6962,10 @@
         <v>216</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H82" t="s">
-        <v>437</v>
+        <v>142</v>
       </c>
       <c r="I82" t="s">
         <v>381</v>
@@ -6977,77 +6973,77 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I83" t="s">
         <v>381</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="1">
         <v>43975</v>
       </c>
       <c r="C84" t="s">
+        <v>445</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
+        <v>447</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H84" t="s">
+        <v>449</v>
+      </c>
+      <c r="I84" t="s">
         <v>448</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H84" t="s">
-        <v>450</v>
-      </c>
-      <c r="I84" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B85" s="1">
         <v>43975</v>
       </c>
       <c r="C85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -7056,39 +7052,39 @@
         <v>81</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H85" t="s">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B86" s="1">
         <v>43975</v>
       </c>
       <c r="C86" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F86" t="s">
+        <v>461</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H86" t="s">
         <v>462</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H86" t="s">
-        <v>463</v>
       </c>
       <c r="I86" t="s">
         <v>146</v>
@@ -7096,28 +7092,28 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B87" s="1">
         <v>43977</v>
       </c>
       <c r="C87" t="s">
+        <v>465</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F87" t="s">
+        <v>467</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H87" t="s">
         <v>468</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H87" t="s">
-        <v>469</v>
       </c>
       <c r="I87" t="s">
         <v>146</v>
@@ -7125,28 +7121,28 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
       </c>
       <c r="C88" t="s">
+        <v>470</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H88" t="s">
         <v>475</v>
-      </c>
-      <c r="H88" t="s">
-        <v>476</v>
       </c>
       <c r="I88" t="s">
         <v>146</v>
@@ -7154,28 +7150,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H89" t="s">
         <v>477</v>
-      </c>
-      <c r="H89" t="s">
-        <v>478</v>
       </c>
       <c r="I89" t="s">
         <v>146</v>
@@ -7183,25 +7179,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>482</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -7210,30 +7206,30 @@
         <v>146</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -7242,1283 +7238,1283 @@
         <v>146</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
+        <v>497</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
         <v>499</v>
-      </c>
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
+        <v>504</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>506</v>
-      </c>
       <c r="H94" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I94" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H95" t="s">
         <v>513</v>
       </c>
-      <c r="H95" t="s">
-        <v>514</v>
-      </c>
       <c r="I95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
+        <v>530</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
+        <v>582</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H98" t="s">
         <v>583</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H98" t="s">
-        <v>584</v>
-      </c>
       <c r="I98" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
+        <v>578</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H99" t="s">
         <v>579</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H99" t="s">
-        <v>580</v>
-      </c>
       <c r="I99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H100" t="s">
         <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
+        <v>536</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
         <v>539</v>
-      </c>
-      <c r="H101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
+        <v>540</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H102" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I102" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I103" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
+        <v>552</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
+        <v>558</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" t="s">
         <v>560</v>
-      </c>
-      <c r="H105" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
+        <v>568</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
+        <v>576</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H109" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I109" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
+        <v>589</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H110" t="s">
         <v>590</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H110" t="s">
-        <v>591</v>
-      </c>
       <c r="I110" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
+        <v>615</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
+        <v>618</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
+        <v>624</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
+        <v>630</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
+        <v>632</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
+        <v>635</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
+        <v>637</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" t="s">
         <v>639</v>
       </c>
-      <c r="H116" t="s">
-        <v>640</v>
-      </c>
       <c r="I116" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B117" s="1">
         <v>43998</v>
       </c>
       <c r="C117" t="s">
+        <v>653</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H117" t="s">
         <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B118" s="1">
         <v>43999</v>
       </c>
       <c r="C118" t="s">
+        <v>661</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H118" t="s">
         <v>142</v>
       </c>
       <c r="I118" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B119" s="1">
         <v>44001</v>
       </c>
       <c r="C119" t="s">
+        <v>665</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
+        <v>667</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="H119" t="s">
         <v>142</v>
       </c>
       <c r="I119" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B120" s="1">
         <v>44003</v>
       </c>
       <c r="C120" t="s">
+        <v>671</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F120" t="s">
+        <v>673</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>675</v>
-      </c>
       <c r="H120" t="s">
         <v>142</v>
       </c>
       <c r="I120" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B121" s="1">
         <v>44005</v>
       </c>
       <c r="C121" t="s">
+        <v>676</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
+        <v>678</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="H121" t="s">
         <v>142</v>
       </c>
       <c r="I121" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B122" s="1">
         <v>44009</v>
       </c>
       <c r="C122" t="s">
+        <v>681</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F122" t="s">
+        <v>683</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="H122" t="s">
         <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B123" s="1">
         <v>44010</v>
       </c>
       <c r="C123" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
+        <v>688</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H123" t="s">
         <v>689</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="H123" t="s">
-        <v>690</v>
-      </c>
       <c r="I123" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B124" s="1">
         <v>44012</v>
       </c>
       <c r="C124" t="s">
+        <v>692</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F124" t="s">
+        <v>694</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="H124" t="s">
         <v>142</v>
       </c>
       <c r="I124" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B125" s="1">
         <v>44018</v>
       </c>
       <c r="C125" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F125" t="s">
+        <v>699</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
         <v>701</v>
-      </c>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-      <c r="I125" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B126" s="1">
         <v>44020</v>
       </c>
       <c r="C126" t="s">
+        <v>704</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
+        <v>706</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="H126" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I126" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B127" s="1">
         <v>44021</v>
       </c>
       <c r="C127" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F127" t="s">
+        <v>711</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" t="s">
         <v>713</v>
       </c>
-      <c r="H127" t="s">
-        <v>714</v>
-      </c>
       <c r="I127" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B128" s="1">
         <v>44022</v>
       </c>
       <c r="C128" t="s">
+        <v>715</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F128" t="s">
+        <v>717</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="H128" t="s">
         <v>142</v>
       </c>
       <c r="I128" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B129" s="1">
         <v>44023</v>
       </c>
       <c r="C129" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="H129" t="s">
         <v>720</v>
       </c>
-      <c r="H129" t="s">
-        <v>721</v>
-      </c>
       <c r="I129" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B130" s="1">
         <v>44024</v>
       </c>
       <c r="C130" t="s">
+        <v>726</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F130" t="s">
+        <v>728</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" t="s">
         <v>730</v>
       </c>
-      <c r="H130" t="s">
-        <v>731</v>
-      </c>
       <c r="I130" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B131" s="1">
         <v>44025</v>
       </c>
       <c r="C131" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F131" t="s">
+        <v>732</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H131" t="s">
         <v>733</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="H131" t="s">
-        <v>734</v>
-      </c>
       <c r="I131" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B132" s="1">
         <v>44026</v>
       </c>
       <c r="C132" t="s">
+        <v>740</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H132" t="s">
         <v>142</v>
       </c>
       <c r="I132" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B133" s="1">
         <v>44027</v>
       </c>
       <c r="C133" t="s">
+        <v>744</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H133" t="s">
         <v>142</v>
       </c>
       <c r="I133" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B134" s="1">
         <v>44027</v>
       </c>
       <c r="C134" t="s">
+        <v>753</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F134" t="s">
+        <v>746</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="H134" t="s">
         <v>747</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="H134" t="s">
-        <v>748</v>
-      </c>
       <c r="I134" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B135" s="1">
         <v>44029</v>
       </c>
       <c r="C135" t="s">
+        <v>756</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
+        <v>758</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="H135" t="s">
         <v>142</v>
       </c>
       <c r="I135" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8529,10 +8525,10 @@
         <v>44030</v>
       </c>
       <c r="C136" t="s">
+        <v>761</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>22</v>
@@ -8541,13 +8537,13 @@
         <v>415</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H136" t="s">
         <v>142</v>
       </c>
       <c r="I136" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8558,25 +8554,25 @@
         <v>44031</v>
       </c>
       <c r="C137" t="s">
+        <v>763</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F137" t="s">
+        <v>765</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="H137" t="s">
         <v>766</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="H137" t="s">
-        <v>767</v>
-      </c>
       <c r="I137" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8587,25 +8583,25 @@
         <v>44032</v>
       </c>
       <c r="C138" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F138" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H138" t="s">
         <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -8616,25 +8612,25 @@
         <v>44033</v>
       </c>
       <c r="C139" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F139" t="s">
+        <v>769</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="H139" t="s">
+        <v>142</v>
+      </c>
+      <c r="I139" t="s">
         <v>770</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="H139" t="s">
-        <v>142</v>
-      </c>
-      <c r="I139" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -8645,19 +8641,19 @@
         <v>44033</v>
       </c>
       <c r="C140" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I140" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8668,10 +8664,10 @@
         <v>44034</v>
       </c>
       <c r="C141" t="s">
+        <v>775</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>15</v>
@@ -8680,13 +8676,13 @@
         <v>81</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H141" t="s">
         <v>81</v>
       </c>
       <c r="I141" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8697,10 +8693,10 @@
         <v>44035</v>
       </c>
       <c r="C142" t="s">
+        <v>778</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>20</v>
@@ -8709,13 +8705,13 @@
         <v>392</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H142" t="s">
         <v>142</v>
       </c>
       <c r="I142" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8726,25 +8722,25 @@
         <v>44036</v>
       </c>
       <c r="C143" t="s">
+        <v>784</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F143" t="s">
+        <v>786</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="H143" t="s">
         <v>221</v>
       </c>
       <c r="I143" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8755,25 +8751,25 @@
         <v>44039</v>
       </c>
       <c r="C144" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G144" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H144" t="s">
         <v>789</v>
       </c>
-      <c r="H144" t="s">
-        <v>790</v>
-      </c>
       <c r="I144" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8784,25 +8780,25 @@
         <v>44042</v>
       </c>
       <c r="C145" t="s">
+        <v>793</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H145" t="s">
         <v>142</v>
       </c>
       <c r="I145" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8813,10 +8809,10 @@
         <v>44043</v>
       </c>
       <c r="C146" t="s">
+        <v>796</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>15</v>
@@ -8825,13 +8821,13 @@
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H146" t="s">
         <v>142</v>
       </c>
       <c r="I146" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8842,10 +8838,10 @@
         <v>44045</v>
       </c>
       <c r="C147" t="s">
+        <v>798</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>20</v>
@@ -8854,13 +8850,13 @@
         <v>216</v>
       </c>
       <c r="G147" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H147" t="s">
+        <v>142</v>
+      </c>
+      <c r="I147" t="s">
         <v>801</v>
-      </c>
-      <c r="H147" t="s">
-        <v>142</v>
-      </c>
-      <c r="I147" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8871,10 +8867,10 @@
         <v>44046</v>
       </c>
       <c r="C148" t="s">
+        <v>802</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>15</v>
@@ -8883,13 +8879,13 @@
         <v>37</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H148" t="s">
         <v>142</v>
       </c>
       <c r="I148" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8900,10 +8896,10 @@
         <v>44048</v>
       </c>
       <c r="C149" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>20</v>
@@ -8912,13 +8908,13 @@
         <v>216</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H149" t="s">
         <v>221</v>
       </c>
       <c r="I149" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8929,10 +8925,10 @@
         <v>44051</v>
       </c>
       <c r="C150" t="s">
+        <v>808</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>22</v>
@@ -8941,13 +8937,13 @@
         <v>216</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H150" t="s">
         <v>142</v>
       </c>
       <c r="I150" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8958,25 +8954,25 @@
         <v>44052</v>
       </c>
       <c r="C151" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F151" t="s">
+        <v>812</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="H151" t="s">
         <v>813</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="H151" t="s">
-        <v>814</v>
-      </c>
       <c r="I151" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -8987,10 +8983,10 @@
         <v>44053</v>
       </c>
       <c r="C152" t="s">
+        <v>820</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>15</v>
@@ -8999,13 +8995,13 @@
         <v>37</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H152" t="s">
         <v>142</v>
       </c>
       <c r="I152" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9016,25 +9012,25 @@
         <v>44054</v>
       </c>
       <c r="C153" t="s">
+        <v>817</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H153" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I153" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9045,25 +9041,25 @@
         <v>44057</v>
       </c>
       <c r="C154" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H154" t="s">
         <v>142</v>
       </c>
       <c r="I154" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9074,25 +9070,25 @@
         <v>44058</v>
       </c>
       <c r="C155" t="s">
+        <v>829</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H155" t="s">
         <v>142</v>
       </c>
       <c r="I155" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9103,10 +9099,10 @@
         <v>44059</v>
       </c>
       <c r="C156" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>15</v>
@@ -9115,13 +9111,13 @@
         <v>318</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H156" t="s">
         <v>142</v>
       </c>
       <c r="I156" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9132,25 +9128,25 @@
         <v>44061</v>
       </c>
       <c r="C157" t="s">
+        <v>835</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F157" t="s">
+        <v>837</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="H157" t="s">
         <v>142</v>
       </c>
       <c r="I157" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9161,10 +9157,10 @@
         <v>44065</v>
       </c>
       <c r="C158" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>22</v>
@@ -9173,13 +9169,13 @@
         <v>318</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H158" t="s">
         <v>142</v>
       </c>
       <c r="I158" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9190,10 +9186,10 @@
         <v>44066</v>
       </c>
       <c r="C159" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>20</v>
@@ -9202,13 +9198,13 @@
         <v>59</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H159" t="s">
         <v>142</v>
       </c>
       <c r="I159" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9219,10 +9215,10 @@
         <v>44067</v>
       </c>
       <c r="C160" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>15</v>
@@ -9231,13 +9227,13 @@
         <v>37</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="H160" t="s">
         <v>847</v>
       </c>
-      <c r="H160" t="s">
-        <v>848</v>
-      </c>
       <c r="I160" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9248,10 +9244,10 @@
         <v>44071</v>
       </c>
       <c r="C161" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>15</v>
@@ -9260,13 +9256,13 @@
         <v>37</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H161" t="s">
         <v>142</v>
       </c>
       <c r="I161" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9277,10 +9273,10 @@
         <v>44072</v>
       </c>
       <c r="C162" t="s">
+        <v>853</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>22</v>
@@ -9289,13 +9285,13 @@
         <v>37</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H162" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I162" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9306,10 +9302,10 @@
         <v>44073</v>
       </c>
       <c r="C163" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>15</v>
@@ -9318,13 +9314,13 @@
         <v>37</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H163" t="s">
         <v>142</v>
       </c>
       <c r="I163" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9335,25 +9331,25 @@
         <v>44074</v>
       </c>
       <c r="C164" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H164" t="s">
         <v>142</v>
       </c>
       <c r="I164" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9364,25 +9360,25 @@
         <v>44075</v>
       </c>
       <c r="C165" t="s">
+        <v>866</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F165" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G165" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="H165" t="s">
+        <v>865</v>
+      </c>
+      <c r="I165" t="s">
         <v>864</v>
-      </c>
-      <c r="H165" t="s">
-        <v>866</v>
-      </c>
-      <c r="I165" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9393,25 +9389,25 @@
         <v>44079</v>
       </c>
       <c r="C166" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H166" t="s">
         <v>142</v>
       </c>
       <c r="I166" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9422,25 +9418,25 @@
         <v>44081</v>
       </c>
       <c r="C167" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F167" t="s">
+        <v>875</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="H167" t="s">
         <v>876</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="H167" t="s">
-        <v>877</v>
-      </c>
       <c r="I167" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9451,25 +9447,25 @@
         <v>44084</v>
       </c>
       <c r="C168" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F168" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H168" t="s">
         <v>142</v>
       </c>
       <c r="I168" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9480,25 +9476,25 @@
         <v>44085</v>
       </c>
       <c r="C169" t="s">
+        <v>881</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F169" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H169" t="s">
         <v>142</v>
       </c>
       <c r="I169" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9509,10 +9505,10 @@
         <v>44086</v>
       </c>
       <c r="C170" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>15</v>
@@ -9521,13 +9517,13 @@
         <v>44</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H170" t="s">
         <v>142</v>
       </c>
       <c r="I170" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9538,25 +9534,25 @@
         <v>44087</v>
       </c>
       <c r="C171" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F171" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H171" t="s">
         <v>142</v>
       </c>
       <c r="I171" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9567,25 +9563,25 @@
         <v>44089</v>
       </c>
       <c r="C172" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E172" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H172" t="s">
         <v>142</v>
       </c>
       <c r="I172" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9596,25 +9592,25 @@
         <v>44092</v>
       </c>
       <c r="C173" t="s">
+        <v>894</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="E173" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H173" t="s">
         <v>142</v>
       </c>
       <c r="I173" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9625,10 +9621,10 @@
         <v>44093</v>
       </c>
       <c r="C174" t="s">
+        <v>899</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>15</v>
@@ -9637,13 +9633,13 @@
         <v>44</v>
       </c>
       <c r="G174" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="H174" t="s">
         <v>898</v>
       </c>
-      <c r="H174" t="s">
-        <v>899</v>
-      </c>
       <c r="I174" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9654,25 +9650,25 @@
         <v>44094</v>
       </c>
       <c r="C175" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E175" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F175" t="s">
+        <v>904</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="H175" t="s">
         <v>905</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="H175" t="s">
-        <v>906</v>
-      </c>
       <c r="I175" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9683,10 +9679,10 @@
         <v>44095</v>
       </c>
       <c r="C176" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>15</v>
@@ -9695,13 +9691,13 @@
         <v>44</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H176" t="s">
         <v>142</v>
       </c>
       <c r="I176" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -9712,25 +9708,25 @@
         <v>44096</v>
       </c>
       <c r="C177" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H177" t="s">
         <v>142</v>
       </c>
       <c r="I177" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -9741,10 +9737,10 @@
         <v>44097</v>
       </c>
       <c r="C178" t="s">
+        <v>913</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>15</v>
@@ -9753,103 +9749,103 @@
         <v>44</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H178" t="s">
         <v>142</v>
       </c>
       <c r="I178" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B179" s="1">
         <v>44098</v>
       </c>
       <c r="C179" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F179" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H179" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I179" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B180" s="1">
         <v>44100</v>
       </c>
       <c r="C180" t="s">
+        <v>923</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="E180" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F180" t="s">
+        <v>925</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="G180" s="2" t="s">
-        <v>927</v>
-      </c>
       <c r="H180" t="s">
         <v>142</v>
       </c>
       <c r="I180" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B181" s="1">
         <v>44101</v>
       </c>
       <c r="C181" t="s">
+        <v>928</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F181" t="s">
+        <v>931</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H181" t="s">
+        <v>142</v>
+      </c>
+      <c r="I181" t="s">
         <v>932</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="H181" t="s">
-        <v>142</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="J181" s="15" t="s">
         <v>933</v>
-      </c>
-      <c r="J181" s="15" t="s">
-        <v>934</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB7C37-1474-4D12-AF62-CAD08DBD8C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E8F54-DF13-4B56-B449-505B01C47321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="940">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3891,6 +3891,30 @@
   </si>
   <si>
     <t>√字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/insert-into-a-binary-search-tree/solution/python-3dfs-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/insert-into-a-binary-search-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701. 二叉搜索树中的插入操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4462,10 +4486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9846,6 +9870,35 @@
       </c>
       <c r="J181" s="15" t="s">
         <v>933</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>938</v>
+      </c>
+      <c r="B182" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C182" t="s">
+        <v>937</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" t="s">
+        <v>935</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H182" t="s">
+        <v>939</v>
+      </c>
+      <c r="I182" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -10210,8 +10263,10 @@
     <hyperlink ref="G180" r:id="rId354" xr:uid="{015A3200-5371-49B9-B668-61276D489494}"/>
     <hyperlink ref="D181" r:id="rId355" xr:uid="{D6DFBAF2-315A-4ACA-B060-F7A89D02C27D}"/>
     <hyperlink ref="G181" r:id="rId356" xr:uid="{874D9F36-F217-45B2-AAE5-62FBA01298AD}"/>
+    <hyperlink ref="G182" r:id="rId357" xr:uid="{376FEF47-B524-44AD-989B-AD92EB57AD27}"/>
+    <hyperlink ref="D182" r:id="rId358" xr:uid="{CE14F9F0-3FC1-46B7-BB75-DD635622D638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId357"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId359"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E8F54-DF13-4B56-B449-505B01C47321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714C85E8-0E1E-4D68-9FC8-00FF393DD0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="946">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3915,6 +3915,49 @@
   </si>
   <si>
     <t>迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-colors/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、数组、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. 颜色分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-10月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-colors/solution/python-3pai-xu-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4486,10 +4529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9899,6 +9942,35 @@
       </c>
       <c r="I182" t="s">
         <v>864</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C183" t="s">
+        <v>942</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183" t="s">
+        <v>941</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="H183" t="s">
+        <v>943</v>
+      </c>
+      <c r="I183" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -10265,8 +10337,10 @@
     <hyperlink ref="G181" r:id="rId356" xr:uid="{874D9F36-F217-45B2-AAE5-62FBA01298AD}"/>
     <hyperlink ref="G182" r:id="rId357" xr:uid="{376FEF47-B524-44AD-989B-AD92EB57AD27}"/>
     <hyperlink ref="D182" r:id="rId358" xr:uid="{CE14F9F0-3FC1-46B7-BB75-DD635622D638}"/>
+    <hyperlink ref="D183" r:id="rId359" xr:uid="{CD4DE931-884F-45A7-A489-20BDCE736821}"/>
+    <hyperlink ref="G183" r:id="rId360" xr:uid="{A5A41147-A1B6-402F-AF7A-160D7073845A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId359"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId361"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714C85E8-0E1E-4D68-9FC8-00FF393DD0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEDB7C4-DA5E-4B3C-88A5-0730F25F378D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="950">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3958,6 +3958,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/sort-colors/solution/python-3pai-xu-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/linked-list-cycle/submissions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141. 环形链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/linked-list-cycle/solution/python-3kuai-man-zhi-zhen-xiu-gai-lian-biao-shu-ju/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4529,10 +4545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9970,6 +9986,35 @@
         <v>943</v>
       </c>
       <c r="I183" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C184" t="s">
+        <v>947</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>948</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="H184" t="s">
+        <v>142</v>
+      </c>
+      <c r="I184" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10339,8 +10384,10 @@
     <hyperlink ref="D182" r:id="rId358" xr:uid="{CE14F9F0-3FC1-46B7-BB75-DD635622D638}"/>
     <hyperlink ref="D183" r:id="rId359" xr:uid="{CD4DE931-884F-45A7-A489-20BDCE736821}"/>
     <hyperlink ref="G183" r:id="rId360" xr:uid="{A5A41147-A1B6-402F-AF7A-160D7073845A}"/>
+    <hyperlink ref="D184" r:id="rId361" xr:uid="{765685C9-FB39-49F2-9FBC-E7343F59DCB1}"/>
+    <hyperlink ref="G184" r:id="rId362" xr:uid="{1E75BF76-9458-4FFB-AADA-B2260D684200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId361"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId363"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEDB7C4-DA5E-4B3C-88A5-0730F25F378D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868A41C-5F8D-452D-9F64-A09B989434FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="953">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3974,6 +3974,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/linked-list-cycle/solution/python-3kuai-man-zhi-zhen-xiu-gai-lian-biao-shu-ju/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/linked-list-cycle-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/linked-list-cycle-ii/solution/python-3ji-he-fa-jian-yao-jie-shi-zhi-zhen-fa-by-j/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4545,16 +4557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
@@ -10015,6 +10027,35 @@
         <v>142</v>
       </c>
       <c r="I184" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C185" t="s">
+        <v>950</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" t="s">
+        <v>948</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H185" t="s">
+        <v>142</v>
+      </c>
+      <c r="I185" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10386,8 +10427,10 @@
     <hyperlink ref="G183" r:id="rId360" xr:uid="{A5A41147-A1B6-402F-AF7A-160D7073845A}"/>
     <hyperlink ref="D184" r:id="rId361" xr:uid="{765685C9-FB39-49F2-9FBC-E7343F59DCB1}"/>
     <hyperlink ref="G184" r:id="rId362" xr:uid="{1E75BF76-9458-4FFB-AADA-B2260D684200}"/>
+    <hyperlink ref="D185" r:id="rId363" xr:uid="{06244990-13D1-4410-8B31-2C05B9436F53}"/>
+    <hyperlink ref="G185" r:id="rId364" xr:uid="{47C4F1C9-A0EC-4AE4-821B-5F91AC852305}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId363"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId365"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868A41C-5F8D-452D-9F64-A09B989434FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87562307-6D70-4DFF-BEBC-6097495E92B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="959">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3986,6 +3986,30 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/linked-list-cycle-ii/solution/python-3ji-he-fa-jian-yao-jie-shi-zhi-zhen-fa-by-j/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530. 二叉搜索树的最小绝对差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-absolute-difference-in-bst/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-absolute-difference-in-bst/solution/python-3zhong-xu-xu-lie-o1-kong-jian-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/swap-nodes-in-pairs/solution/python-3jie-zhu-lie-biao-bao-cun-jie-dian-yi-ci-bi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/swap-nodes-in-pairs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4557,10 +4581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10056,6 +10080,64 @@
         <v>142</v>
       </c>
       <c r="I185" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C186" t="s">
+        <v>953</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>44</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="H186" t="s">
+        <v>142</v>
+      </c>
+      <c r="I186" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C187" t="s">
+        <v>958</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" t="s">
+        <v>45</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="H187" t="s">
+        <v>142</v>
+      </c>
+      <c r="I187" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10429,8 +10511,12 @@
     <hyperlink ref="G184" r:id="rId362" xr:uid="{1E75BF76-9458-4FFB-AADA-B2260D684200}"/>
     <hyperlink ref="D185" r:id="rId363" xr:uid="{06244990-13D1-4410-8B31-2C05B9436F53}"/>
     <hyperlink ref="G185" r:id="rId364" xr:uid="{47C4F1C9-A0EC-4AE4-821B-5F91AC852305}"/>
+    <hyperlink ref="D186" r:id="rId365" xr:uid="{909DA603-9261-478D-AE5A-576A2C336110}"/>
+    <hyperlink ref="G186" r:id="rId366" xr:uid="{4E63A822-BAEB-4ED1-AAD6-4B31D8F51C02}"/>
+    <hyperlink ref="G187" r:id="rId367" xr:uid="{76EED8AA-BF64-4C50-99FA-29774AF97705}"/>
+    <hyperlink ref="D187" r:id="rId368" xr:uid="{1055BF09-5C19-4608-941A-1F63E5F98C68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId365"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId369"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87562307-6D70-4DFF-BEBC-6097495E92B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89092DFA-2A89-463A-B9AE-5836D5ED9A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="962">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4010,6 +4010,18 @@
   </si>
   <si>
     <t>24. 两两交换链表中的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-common-characters/solution/python-3yi-xing-jie-by-jpch89-4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-common-characters/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002. 查找常用字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4581,10 +4593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10138,6 +10150,35 @@
         <v>142</v>
       </c>
       <c r="I187" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C188" t="s">
+        <v>961</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="H188" t="s">
+        <v>142</v>
+      </c>
+      <c r="I188" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10515,8 +10556,10 @@
     <hyperlink ref="G186" r:id="rId366" xr:uid="{4E63A822-BAEB-4ED1-AAD6-4B31D8F51C02}"/>
     <hyperlink ref="G187" r:id="rId367" xr:uid="{76EED8AA-BF64-4C50-99FA-29774AF97705}"/>
     <hyperlink ref="D187" r:id="rId368" xr:uid="{1055BF09-5C19-4608-941A-1F63E5F98C68}"/>
+    <hyperlink ref="G188" r:id="rId369" xr:uid="{3B6A797B-1D15-4695-90D9-069E617D5F28}"/>
+    <hyperlink ref="D188" r:id="rId370" xr:uid="{DCD2174E-FF79-449B-AD34-5983003DE4B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId369"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId371"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89092DFA-2A89-463A-B9AE-5836D5ED9A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9F7DC-AAE5-4FED-BE8D-0135EF450A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="963">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4022,6 +4022,10 @@
   </si>
   <si>
     <t>1002. 查找常用字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/solution/python-3si-chong-xie-fa-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4593,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10179,6 +10183,35 @@
         <v>142</v>
       </c>
       <c r="I188" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C189" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" t="s">
+        <v>216</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="H189" t="s">
+        <v>142</v>
+      </c>
+      <c r="I189" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10558,8 +10591,10 @@
     <hyperlink ref="D187" r:id="rId368" xr:uid="{1055BF09-5C19-4608-941A-1F63E5F98C68}"/>
     <hyperlink ref="G188" r:id="rId369" xr:uid="{3B6A797B-1D15-4695-90D9-069E617D5F28}"/>
     <hyperlink ref="D188" r:id="rId370" xr:uid="{DCD2174E-FF79-449B-AD34-5983003DE4B1}"/>
+    <hyperlink ref="D189" r:id="rId371" xr:uid="{6142C8F1-420A-4E4A-B374-487151E6245D}"/>
+    <hyperlink ref="G189" r:id="rId372" xr:uid="{EB5C4655-45AD-4CA3-B064-5781453217DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId371"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId373"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9F7DC-AAE5-4FED-BE8D-0135EF450A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CFAE31-5B89-4F25-A51A-27C8C334E848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="966">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4026,6 +4026,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/solution/python-3si-chong-xie-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>977. 有序数组的平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/squares-of-a-sorted-array/solution/python-3bao-li-yi-xing-jie-shuang-zhi-zhen-by-jpch/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/squares-of-a-sorted-array/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4597,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10212,6 +10224,35 @@
         <v>142</v>
       </c>
       <c r="I189" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C190" t="s">
+        <v>963</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
+        <v>75</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="H190" t="s">
+        <v>142</v>
+      </c>
+      <c r="I190" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10593,8 +10634,10 @@
     <hyperlink ref="D188" r:id="rId370" xr:uid="{DCD2174E-FF79-449B-AD34-5983003DE4B1}"/>
     <hyperlink ref="D189" r:id="rId371" xr:uid="{6142C8F1-420A-4E4A-B374-487151E6245D}"/>
     <hyperlink ref="G189" r:id="rId372" xr:uid="{EB5C4655-45AD-4CA3-B064-5781453217DF}"/>
+    <hyperlink ref="G190" r:id="rId373" xr:uid="{EC4FB4F3-34CD-4488-A7C7-1DE187F57EE3}"/>
+    <hyperlink ref="D190" r:id="rId374" xr:uid="{0B69E921-0104-4714-B6BA-65CA684FC51B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId373"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId375"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CFAE31-5B89-4F25-A51A-27C8C334E848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F284C2-F811-46C7-83F7-0B2A40CC2EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="969">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4038,6 +4038,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/squares-of-a-sorted-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52. N皇后 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-queens-ii/solution/python-3ji-yu-ji-he-pan-zhong-de-hui-su-suan-fa-by/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-queens-ii/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4609,10 +4621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10253,6 +10265,35 @@
         <v>142</v>
       </c>
       <c r="I190" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44121</v>
+      </c>
+      <c r="C191" t="s">
+        <v>966</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" t="s">
+        <v>813</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="H191" t="s">
+        <v>142</v>
+      </c>
+      <c r="I191" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10636,8 +10677,10 @@
     <hyperlink ref="G189" r:id="rId372" xr:uid="{EB5C4655-45AD-4CA3-B064-5781453217DF}"/>
     <hyperlink ref="G190" r:id="rId373" xr:uid="{EC4FB4F3-34CD-4488-A7C7-1DE187F57EE3}"/>
     <hyperlink ref="D190" r:id="rId374" xr:uid="{0B69E921-0104-4714-B6BA-65CA684FC51B}"/>
+    <hyperlink ref="G191" r:id="rId375" xr:uid="{4E67E5B9-495A-42EA-98D7-175F01939208}"/>
+    <hyperlink ref="D191" r:id="rId376" xr:uid="{94A4B818-A356-4C15-95B7-B9977EA1B603}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId375"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId377"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F284C2-F811-46C7-83F7-0B2A40CC2EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C90DF4-DDA2-4644-A3E7-5933F591D8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="972">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4050,6 +4050,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/n-queens-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第N个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/solution/python-3jie-zhu-lie-biao-shuang-zhi-zhen-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4621,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10294,6 +10306,35 @@
         <v>142</v>
       </c>
       <c r="I191" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44122</v>
+      </c>
+      <c r="C192" t="s">
+        <v>969</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" t="s">
+        <v>948</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="H192" t="s">
+        <v>142</v>
+      </c>
+      <c r="I192" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10679,8 +10720,10 @@
     <hyperlink ref="D190" r:id="rId374" xr:uid="{0B69E921-0104-4714-B6BA-65CA684FC51B}"/>
     <hyperlink ref="G191" r:id="rId375" xr:uid="{4E67E5B9-495A-42EA-98D7-175F01939208}"/>
     <hyperlink ref="D191" r:id="rId376" xr:uid="{94A4B818-A356-4C15-95B7-B9977EA1B603}"/>
+    <hyperlink ref="D192" r:id="rId377" xr:uid="{D04FC3D4-A865-49C7-A1EB-F96EAF686A9A}"/>
+    <hyperlink ref="G192" r:id="rId378" xr:uid="{6C481A21-3E18-4995-B484-096B9820E778}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId377"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId379"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C90DF4-DDA2-4644-A3E7-5933F591D8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA4839-B82B-4F43-9B94-5E451258BB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="976">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4062,6 +4062,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/solution/python-3jie-zhu-lie-biao-shuang-zhi-zhen-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>844. 比较含退格的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/backspace-string-compare/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/backspace-string-compare/solution/python-3lie-biao-mo-ni-zhan-shuang-zhi-zhen-ni-xu-/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4633,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10335,6 +10351,35 @@
         <v>142</v>
       </c>
       <c r="I192" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44123</v>
+      </c>
+      <c r="C193" t="s">
+        <v>972</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" t="s">
+        <v>974</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="H193" t="s">
+        <v>142</v>
+      </c>
+      <c r="I193" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10722,8 +10767,10 @@
     <hyperlink ref="D191" r:id="rId376" xr:uid="{94A4B818-A356-4C15-95B7-B9977EA1B603}"/>
     <hyperlink ref="D192" r:id="rId377" xr:uid="{D04FC3D4-A865-49C7-A1EB-F96EAF686A9A}"/>
     <hyperlink ref="G192" r:id="rId378" xr:uid="{6C481A21-3E18-4995-B484-096B9820E778}"/>
+    <hyperlink ref="D193" r:id="rId379" xr:uid="{CFBF1BDC-112F-4C92-BBBD-2BCAB0D5BD6A}"/>
+    <hyperlink ref="G193" r:id="rId380" xr:uid="{D96C0D23-51C9-4CFD-8BC7-E04A61FE5469}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId379"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId381"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA4839-B82B-4F43-9B94-5E451258BB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49A7A8-5057-457D-A8DB-F6D1D6F7E7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="979">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4078,6 +4078,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/backspace-string-compare/solution/python-3lie-biao-mo-ni-zhan-shuang-zhi-zhen-ni-xu-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143. 重排链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reorder-list/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reorder-list/solution/python-3duo-chong-jie-fa-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4649,7 +4661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
       <selection activeCell="G196" sqref="G196"/>
@@ -10380,6 +10392,35 @@
         <v>142</v>
       </c>
       <c r="I193" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44124</v>
+      </c>
+      <c r="C194" t="s">
+        <v>976</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194" t="s">
+        <v>45</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H194" t="s">
+        <v>142</v>
+      </c>
+      <c r="I194" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10769,8 +10810,10 @@
     <hyperlink ref="G192" r:id="rId378" xr:uid="{6C481A21-3E18-4995-B484-096B9820E778}"/>
     <hyperlink ref="D193" r:id="rId379" xr:uid="{CFBF1BDC-112F-4C92-BBBD-2BCAB0D5BD6A}"/>
     <hyperlink ref="G193" r:id="rId380" xr:uid="{D96C0D23-51C9-4CFD-8BC7-E04A61FE5469}"/>
+    <hyperlink ref="D194" r:id="rId381" xr:uid="{63E8A973-4CE6-442C-A8F2-54E3DE41C2F8}"/>
+    <hyperlink ref="G194" r:id="rId382" xr:uid="{514D1DAF-BCC7-471F-878C-C9A2C9B31590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId381"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId383"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49A7A8-5057-457D-A8DB-F6D1D6F7E7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E6B54-ABA7-46F6-B914-9927F2E0A723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="982">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4090,6 +4090,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/reorder-list/solution/python-3duo-chong-jie-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/long-pressed-name/solution/python-3tong-shi-bian-li-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/long-pressed-name/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>925. 长按键入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4661,10 +4673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10421,6 +10433,35 @@
         <v>142</v>
       </c>
       <c r="I194" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44125</v>
+      </c>
+      <c r="C195" t="s">
+        <v>981</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s">
+        <v>152</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="H195" t="s">
+        <v>142</v>
+      </c>
+      <c r="I195" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10812,8 +10853,10 @@
     <hyperlink ref="G193" r:id="rId380" xr:uid="{D96C0D23-51C9-4CFD-8BC7-E04A61FE5469}"/>
     <hyperlink ref="D194" r:id="rId381" xr:uid="{63E8A973-4CE6-442C-A8F2-54E3DE41C2F8}"/>
     <hyperlink ref="G194" r:id="rId382" xr:uid="{514D1DAF-BCC7-471F-878C-C9A2C9B31590}"/>
+    <hyperlink ref="G195" r:id="rId383" xr:uid="{BBB4D5A1-7EA6-4277-8E8C-B1B974C2B3F8}"/>
+    <hyperlink ref="D195" r:id="rId384" xr:uid="{0237E0F5-1CFA-47B5-99AF-FF889BAEE220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId383"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId385"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E6B54-ABA7-46F6-B914-9927F2E0A723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09364855-AE63-44C8-88BB-26B694D18898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="986">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4102,6 +4102,22 @@
   </si>
   <si>
     <t>925. 长按键入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>763. 划分字母区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/partition-labels/solution/python-3shuang-zhi-zhen-he-tan-xin-suan-fa-by-jpch/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/partition-labels/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4673,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10462,6 +10478,35 @@
         <v>142</v>
       </c>
       <c r="I195" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C196" t="s">
+        <v>982</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" t="s">
+        <v>984</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="H196" t="s">
+        <v>142</v>
+      </c>
+      <c r="I196" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10855,8 +10900,10 @@
     <hyperlink ref="G194" r:id="rId382" xr:uid="{514D1DAF-BCC7-471F-878C-C9A2C9B31590}"/>
     <hyperlink ref="G195" r:id="rId383" xr:uid="{BBB4D5A1-7EA6-4277-8E8C-B1B974C2B3F8}"/>
     <hyperlink ref="D195" r:id="rId384" xr:uid="{0237E0F5-1CFA-47B5-99AF-FF889BAEE220}"/>
+    <hyperlink ref="G196" r:id="rId385" xr:uid="{0079AB6F-31AE-498E-BDC9-E646244DE745}"/>
+    <hyperlink ref="D196" r:id="rId386" xr:uid="{58E1693C-23AB-4D1C-84B9-CC833CBC9D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId385"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId387"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09364855-AE63-44C8-88BB-26B694D18898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648374EA-A755-477C-8D29-DDA1EF163EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="989">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4118,6 +4118,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/partition-labels/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>234. 回文链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-linked-list/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/palindrome-linked-list/solution/python-3liang-chong-jie-fa-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4689,10 +4701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10507,6 +10519,35 @@
         <v>142</v>
       </c>
       <c r="I196" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C197" t="s">
+        <v>986</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" t="s">
+        <v>948</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="H197" t="s">
+        <v>142</v>
+      </c>
+      <c r="I197" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10902,8 +10943,10 @@
     <hyperlink ref="D195" r:id="rId384" xr:uid="{0237E0F5-1CFA-47B5-99AF-FF889BAEE220}"/>
     <hyperlink ref="G196" r:id="rId385" xr:uid="{0079AB6F-31AE-498E-BDC9-E646244DE745}"/>
     <hyperlink ref="D196" r:id="rId386" xr:uid="{58E1693C-23AB-4D1C-84B9-CC833CBC9D2F}"/>
+    <hyperlink ref="D197" r:id="rId387" xr:uid="{FDA1B1CF-E7BB-48C1-8D7F-B3B37924E0CA}"/>
+    <hyperlink ref="G197" r:id="rId388" xr:uid="{C4561648-E08F-471E-BFAA-BD302ADD381A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId387"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId389"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648374EA-A755-477C-8D29-DDA1EF163EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA7B91-3C0D-4AA2-B95A-99914CF495CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="992">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4130,6 +4130,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/palindrome-linked-list/solution/python-3liang-chong-jie-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024. 视频拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/video-stitching/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/video-stitching/solution/python-3dong-tai-gui-hua-by-jpch89-3/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4701,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10548,6 +10560,40 @@
         <v>142</v>
       </c>
       <c r="I197" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C198" t="s">
+        <v>989</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198" t="s">
+        <v>221</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H198" t="s">
+        <v>142</v>
+      </c>
+      <c r="I198" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I199" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10945,8 +10991,10 @@
     <hyperlink ref="D196" r:id="rId386" xr:uid="{58E1693C-23AB-4D1C-84B9-CC833CBC9D2F}"/>
     <hyperlink ref="D197" r:id="rId387" xr:uid="{FDA1B1CF-E7BB-48C1-8D7F-B3B37924E0CA}"/>
     <hyperlink ref="G197" r:id="rId388" xr:uid="{C4561648-E08F-471E-BFAA-BD302ADD381A}"/>
+    <hyperlink ref="D198" r:id="rId389" xr:uid="{222AA3C2-8F51-4745-BD65-D5F15D6BC7DA}"/>
+    <hyperlink ref="G198" r:id="rId390" xr:uid="{50B42DBF-A7A3-4C73-B449-93F50D05BCA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId389"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId391"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA7B91-3C0D-4AA2-B95A-99914CF495CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D00C4A-3782-4E87-B19F-A78581993E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="995">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4142,6 +4142,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/video-stitching/solution/python-3dong-tai-gui-hua-by-jpch89-3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/how-many-numbers-are-smaller-than-the-current-number/solution/python-3bao-li-pai-xu-zi-dian-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/how-many-numbers-are-smaller-than-the-current-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1365. 有多少小于当前数字的数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4716,7 +4728,7 @@
   <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10593,6 +10605,30 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C199" t="s">
+        <v>994</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" t="s">
+        <v>42</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H199" t="s">
+        <v>142</v>
+      </c>
       <c r="I199" t="s">
         <v>944</v>
       </c>
@@ -10993,8 +11029,10 @@
     <hyperlink ref="G197" r:id="rId388" xr:uid="{C4561648-E08F-471E-BFAA-BD302ADD381A}"/>
     <hyperlink ref="D198" r:id="rId389" xr:uid="{222AA3C2-8F51-4745-BD65-D5F15D6BC7DA}"/>
     <hyperlink ref="G198" r:id="rId390" xr:uid="{50B42DBF-A7A3-4C73-B449-93F50D05BCA6}"/>
+    <hyperlink ref="G199" r:id="rId391" xr:uid="{BCF57CEF-E284-4647-BC1D-003459FB7DFB}"/>
+    <hyperlink ref="D199" r:id="rId392" xr:uid="{3CF2D989-63C0-4F1F-AEB4-CC5CC4B6CEDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId391"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId393"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D00C4A-3782-4E87-B19F-A78581993E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801F4F0A-6598-442E-805E-4CA50CB90473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="998">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4154,6 +4154,18 @@
   </si>
   <si>
     <t>1365. 有多少小于当前数字的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-number-of-occurrences/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207. 独一无二的出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-number-of-occurrences/solution/python-3counter-he-ji-he-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4725,10 +4737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10630,6 +10642,35 @@
         <v>142</v>
       </c>
       <c r="I199" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44122</v>
+      </c>
+      <c r="C200" t="s">
+        <v>996</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" t="s">
+        <v>359</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="H200" t="s">
+        <v>142</v>
+      </c>
+      <c r="I200" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11031,8 +11072,10 @@
     <hyperlink ref="G198" r:id="rId390" xr:uid="{50B42DBF-A7A3-4C73-B449-93F50D05BCA6}"/>
     <hyperlink ref="G199" r:id="rId391" xr:uid="{BCF57CEF-E284-4647-BC1D-003459FB7DFB}"/>
     <hyperlink ref="D199" r:id="rId392" xr:uid="{3CF2D989-63C0-4F1F-AEB4-CC5CC4B6CEDB}"/>
+    <hyperlink ref="G200" r:id="rId393" xr:uid="{1938FE25-86DF-4E9A-9B10-FE039259E526}"/>
+    <hyperlink ref="D200" r:id="rId394" xr:uid="{C9C25CFC-CDEA-4A9E-8DFC-0B7DFFC4387A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId393"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId395"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801F4F0A-6598-442E-805E-4CA50CB90473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0215BB32-197D-4E9F-BBB6-FA579F8E8A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1001">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4166,6 +4166,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/unique-number-of-occurrences/solution/python-3counter-he-ji-he-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-root-to-leaf-numbers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129. 求根到叶子节点数字之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sum-root-to-leaf-numbers/solution/python-3hui-su-by-jpch89-2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4737,10 +4749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10650,7 +10662,7 @@
         <v>8</v>
       </c>
       <c r="B200" s="1">
-        <v>44122</v>
+        <v>44132</v>
       </c>
       <c r="C200" t="s">
         <v>996</v>
@@ -10671,6 +10683,35 @@
         <v>142</v>
       </c>
       <c r="I200" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C201" t="s">
+        <v>999</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201" t="s">
+        <v>216</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H201" t="s">
+        <v>142</v>
+      </c>
+      <c r="I201" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11074,8 +11115,10 @@
     <hyperlink ref="D199" r:id="rId392" xr:uid="{3CF2D989-63C0-4F1F-AEB4-CC5CC4B6CEDB}"/>
     <hyperlink ref="G200" r:id="rId393" xr:uid="{1938FE25-86DF-4E9A-9B10-FE039259E526}"/>
     <hyperlink ref="D200" r:id="rId394" xr:uid="{C9C25CFC-CDEA-4A9E-8DFC-0B7DFFC4387A}"/>
+    <hyperlink ref="D201" r:id="rId395" xr:uid="{DADC45FD-7005-4083-B751-16D79AD12200}"/>
+    <hyperlink ref="G201" r:id="rId396" xr:uid="{42396D6C-72A4-41A0-9DD6-066C1FFE9E62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId395"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId397"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0215BB32-197D-4E9F-BBB6-FA579F8E8A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372AE9D5-B366-466A-B327-A38F089F264B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1004">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4178,6 +4178,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/sum-root-to-leaf-numbers/solution/python-3hui-su-by-jpch89-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/island-perimeter/solution/python-3bian-li-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/island-perimeter/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>463. 岛屿的周长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4749,10 +4761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10712,6 +10724,35 @@
         <v>142</v>
       </c>
       <c r="I201" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>359</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H202" t="s">
+        <v>142</v>
+      </c>
+      <c r="I202" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11117,8 +11158,10 @@
     <hyperlink ref="D200" r:id="rId394" xr:uid="{C9C25CFC-CDEA-4A9E-8DFC-0B7DFFC4387A}"/>
     <hyperlink ref="D201" r:id="rId395" xr:uid="{DADC45FD-7005-4083-B751-16D79AD12200}"/>
     <hyperlink ref="G201" r:id="rId396" xr:uid="{42396D6C-72A4-41A0-9DD6-066C1FFE9E62}"/>
+    <hyperlink ref="G202" r:id="rId397" xr:uid="{16056D32-E0C4-4E6C-A137-236765904541}"/>
+    <hyperlink ref="D202" r:id="rId398" xr:uid="{398F0CCC-518E-4DFE-8F81-AF008ECE78D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId397"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId399"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372AE9D5-B366-466A-B327-A38F089F264B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A1D2F-9532-4888-BA86-B8661C4E2FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1008">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4190,6 +4190,41 @@
   </si>
   <si>
     <t>463. 岛屿的周长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>349. 两个数组的交集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-arrays/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-11月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-arrays/solution/python-3yi-xing-jie-by-jpch89-5/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4761,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10754,6 +10789,35 @@
       </c>
       <c r="I202" t="s">
         <v>944</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" t="s">
+        <v>732</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H203" t="s">
+        <v>142</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -11160,8 +11224,10 @@
     <hyperlink ref="G201" r:id="rId396" xr:uid="{42396D6C-72A4-41A0-9DD6-066C1FFE9E62}"/>
     <hyperlink ref="G202" r:id="rId397" xr:uid="{16056D32-E0C4-4E6C-A137-236765904541}"/>
     <hyperlink ref="D202" r:id="rId398" xr:uid="{398F0CCC-518E-4DFE-8F81-AF008ECE78D3}"/>
+    <hyperlink ref="D203" r:id="rId399" xr:uid="{3417A7C0-9E41-422D-8658-7D8FDCBC727D}"/>
+    <hyperlink ref="G203" r:id="rId400" xr:uid="{5C19C567-E23D-475A-B201-99261747E979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId399"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId401"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A1D2F-9532-4888-BA86-B8661C4E2FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59BDEF7-070B-4412-BE11-B6DA89F73DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1012">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4225,6 +4225,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/intersection-of-two-arrays/solution/python-3yi-xing-jie-by-jpch89-5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>941. 有效的山脉数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-mountain-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-mountain-array/solution/python-3bian-li-shuang-zhi-zhen-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4796,7 +4812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
       <selection activeCell="G206" sqref="G206"/>
@@ -10817,6 +10833,35 @@
         <v>142</v>
       </c>
       <c r="I203" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I204" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11226,8 +11271,10 @@
     <hyperlink ref="D202" r:id="rId398" xr:uid="{398F0CCC-518E-4DFE-8F81-AF008ECE78D3}"/>
     <hyperlink ref="D203" r:id="rId399" xr:uid="{3417A7C0-9E41-422D-8658-7D8FDCBC727D}"/>
     <hyperlink ref="G203" r:id="rId400" xr:uid="{5C19C567-E23D-475A-B201-99261747E979}"/>
+    <hyperlink ref="D204" r:id="rId401" xr:uid="{271F78EE-A92B-451C-A45E-28E16F4D520A}"/>
+    <hyperlink ref="G204" r:id="rId402" xr:uid="{6B0AB380-2569-426F-BD2D-DAF87C350693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId401"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId403"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59BDEF7-070B-4412-BE11-B6DA89F73DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54011A3-66B3-4E6E-9AE7-182F8F6FE2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1016">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4241,6 +4241,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/valid-mountain-array/solution/python-3bian-li-shuang-zhi-zhen-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1356. 根据数字二进制下 1 的数目排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-integers-by-the-number-of-1-bits/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-integers-by-the-number-of-1-bits/solution/python-3yi-xing-jie-by-jpch89-6/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4812,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10862,6 +10878,35 @@
         <v>1010</v>
       </c>
       <c r="I204" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H205" t="s">
+        <v>142</v>
+      </c>
+      <c r="I205" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11273,8 +11318,10 @@
     <hyperlink ref="G203" r:id="rId400" xr:uid="{5C19C567-E23D-475A-B201-99261747E979}"/>
     <hyperlink ref="D204" r:id="rId401" xr:uid="{271F78EE-A92B-451C-A45E-28E16F4D520A}"/>
     <hyperlink ref="G204" r:id="rId402" xr:uid="{6B0AB380-2569-426F-BD2D-DAF87C350693}"/>
+    <hyperlink ref="D205" r:id="rId403" xr:uid="{CACA826D-A20E-40EB-BE62-772F3C5E61D1}"/>
+    <hyperlink ref="G205" r:id="rId404" xr:uid="{3F7AC531-0026-4108-8AD6-89B6CDD62FDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId403"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId405"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54011A3-66B3-4E6E-9AE7-182F8F6FE2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10FC54-CF73-4545-A510-C99B3AB8CAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1020">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4257,6 +4257,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/sort-integers-by-the-number-of-1-bits/solution/python-3yi-xing-jie-by-jpch89-6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>973. 最接近原点的 K 个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、排序、分治算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/k-closest-points-to-origin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没法，保存不了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4828,10 +4844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+      <selection activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10907,6 +10923,35 @@
         <v>142</v>
       </c>
       <c r="I205" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H206" t="s">
+        <v>142</v>
+      </c>
+      <c r="I206" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11320,8 +11365,9 @@
     <hyperlink ref="G204" r:id="rId402" xr:uid="{6B0AB380-2569-426F-BD2D-DAF87C350693}"/>
     <hyperlink ref="D205" r:id="rId403" xr:uid="{CACA826D-A20E-40EB-BE62-772F3C5E61D1}"/>
     <hyperlink ref="G205" r:id="rId404" xr:uid="{3F7AC531-0026-4108-8AD6-89B6CDD62FDB}"/>
+    <hyperlink ref="D206" r:id="rId405" xr:uid="{44B2C558-1305-48F7-BEFE-EC910BD3D64D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId405"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId406"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10FC54-CF73-4545-A510-C99B3AB8CAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D606F45-D0FA-4348-BF10-970D1B1C713C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1022">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4272,7 +4272,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂时没法，保存不了</t>
+    <t>https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/solution/python-3er-fen-bisect-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-12月 每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/k-closest-points-to-origin/solution/python-3bu-zou-xin-de-yi-xing-jie-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4844,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G208" sqref="G208"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10945,14 +10972,43 @@
       <c r="F206" t="s">
         <v>1017</v>
       </c>
-      <c r="G206" t="s">
-        <v>1019</v>
+      <c r="G206" s="2" t="s">
+        <v>1021</v>
       </c>
       <c r="H206" t="s">
         <v>142</v>
       </c>
       <c r="I206" t="s">
         <v>1006</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C207" t="s">
+        <v>93</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207" t="s">
+        <v>38</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H207" t="s">
+        <v>142</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -11366,8 +11422,11 @@
     <hyperlink ref="D205" r:id="rId403" xr:uid="{CACA826D-A20E-40EB-BE62-772F3C5E61D1}"/>
     <hyperlink ref="G205" r:id="rId404" xr:uid="{3F7AC531-0026-4108-8AD6-89B6CDD62FDB}"/>
     <hyperlink ref="D206" r:id="rId405" xr:uid="{44B2C558-1305-48F7-BEFE-EC910BD3D64D}"/>
+    <hyperlink ref="G207" r:id="rId406" xr:uid="{B9E2E45E-B73E-43EB-A9A8-0A080885AC3D}"/>
+    <hyperlink ref="D207" r:id="rId407" xr:uid="{2FD188AF-7E21-459F-B120-D5F0236317BC}"/>
+    <hyperlink ref="G206" r:id="rId408" xr:uid="{95933AAD-E8C0-4A87-BC14-2DE295F8474F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId406"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId409"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D606F45-D0FA-4348-BF10-970D1B1C713C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A3393-C08E-4612-A090-C5A93435DB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1026">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4300,6 +4300,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/k-closest-points-to-origin/solution/python-3bu-zou-xin-de-yi-xing-jie-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232. 用栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-queue-using-stacks/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-queue-using-stacks/solution/python-3bi-yao-shi-dao-teng-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4871,10 +4887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H214" sqref="H214"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11009,6 +11025,35 @@
       </c>
       <c r="I207" t="s">
         <v>1020</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>300</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H208" t="s">
+        <v>142</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -11425,8 +11470,10 @@
     <hyperlink ref="G207" r:id="rId406" xr:uid="{B9E2E45E-B73E-43EB-A9A8-0A080885AC3D}"/>
     <hyperlink ref="D207" r:id="rId407" xr:uid="{2FD188AF-7E21-459F-B120-D5F0236317BC}"/>
     <hyperlink ref="G206" r:id="rId408" xr:uid="{95933AAD-E8C0-4A87-BC14-2DE295F8474F}"/>
+    <hyperlink ref="D208" r:id="rId409" xr:uid="{11C9BF6C-A25B-4951-8561-A1F8FFE3C823}"/>
+    <hyperlink ref="G208" r:id="rId410" xr:uid="{124BC68A-36FE-4113-9C69-9357637F3C88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId409"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId411"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A3393-C08E-4612-A090-C5A93435DB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D824259C-A413-498B-8C81-DA0D23E4F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1031">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4316,6 +4316,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/implement-queue-using-stacks/solution/python-3bi-yao-shi-dao-teng-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-linked-list/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百题斩040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1M0H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-linked-list/solution/python-3die-dai-di-gui-ji-qi-ta-by-jpch89/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4887,10 +4907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5367,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>78</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -11054,6 +11074,35 @@
       </c>
       <c r="I208" t="s">
         <v>1024</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H209" t="s">
+        <v>142</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -11472,8 +11521,10 @@
     <hyperlink ref="G206" r:id="rId408" xr:uid="{95933AAD-E8C0-4A87-BC14-2DE295F8474F}"/>
     <hyperlink ref="D208" r:id="rId409" xr:uid="{11C9BF6C-A25B-4951-8561-A1F8FFE3C823}"/>
     <hyperlink ref="G208" r:id="rId410" xr:uid="{124BC68A-36FE-4113-9C69-9357637F3C88}"/>
+    <hyperlink ref="D209" r:id="rId411" xr:uid="{3BF950FA-3A3B-44FD-A88C-7750918790A0}"/>
+    <hyperlink ref="G209" r:id="rId412" xr:uid="{69B39663-F58C-4059-ABFF-B5031948E0C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId411"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId413"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D824259C-A413-498B-8C81-DA0D23E4F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD169D-357D-48E6-A7A6-681772FE99F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1034">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4336,6 +4336,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/reverse-linked-list/solution/python-3die-dai-di-gui-ji-qi-ta-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-primes/solution/python-3ai-shi-shai-fa-by-jpch89/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-primes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204. 计数质数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4907,10 +4919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11103,6 +11115,35 @@
       </c>
       <c r="I209" t="s">
         <v>1028</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44168</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210" t="s">
+        <v>102</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H210" t="s">
+        <v>142</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -11523,8 +11564,10 @@
     <hyperlink ref="G208" r:id="rId410" xr:uid="{124BC68A-36FE-4113-9C69-9357637F3C88}"/>
     <hyperlink ref="D209" r:id="rId411" xr:uid="{3BF950FA-3A3B-44FD-A88C-7750918790A0}"/>
     <hyperlink ref="G209" r:id="rId412" xr:uid="{69B39663-F58C-4059-ABFF-B5031948E0C3}"/>
+    <hyperlink ref="G210" r:id="rId413" xr:uid="{BD851286-EDAA-47D5-B4A7-BFB8D952BAC3}"/>
+    <hyperlink ref="D210" r:id="rId414" xr:uid="{C9C4C3C8-29CC-4236-830B-1CBBF8642311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId413"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId415"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD169D-357D-48E6-A7A6-681772FE99F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EADF4D-48DF-40D3-AF0B-BE2C3A1084A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1038">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4348,6 +4348,22 @@
   </si>
   <si>
     <t>204. 计数质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621. 任务调度器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/task-scheduler/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、队列、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/task-scheduler/solution/python-3yi-xing-jie-by-jpch89-e0an/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4919,10 +4935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+      <selection activeCell="J215" sqref="J215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11143,6 +11159,35 @@
         <v>142</v>
       </c>
       <c r="I210" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44170</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H211" t="s">
+        <v>142</v>
+      </c>
+      <c r="I211" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11566,8 +11611,10 @@
     <hyperlink ref="G209" r:id="rId412" xr:uid="{69B39663-F58C-4059-ABFF-B5031948E0C3}"/>
     <hyperlink ref="G210" r:id="rId413" xr:uid="{BD851286-EDAA-47D5-B4A7-BFB8D952BAC3}"/>
     <hyperlink ref="D210" r:id="rId414" xr:uid="{C9C4C3C8-29CC-4236-830B-1CBBF8642311}"/>
+    <hyperlink ref="D211" r:id="rId415" xr:uid="{BE99CF10-84ED-4F27-8230-1DD7F2D434BB}"/>
+    <hyperlink ref="G211" r:id="rId416" xr:uid="{ED22989D-1CAE-4C3B-AFE6-F71A1967AE1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId415"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId417"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EADF4D-48DF-40D3-AF0B-BE2C3A1084A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B8AA1-F063-4AA2-9FB5-3A114D346C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1041">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4364,6 +4364,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/task-scheduler/solution/python-3yi-xing-jie-by-jpch89-e0an/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/pascals-triangle/solution/python-3die-dai-fa-yi-xing-jie-by-jpch89-q8p1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/pascals-triangle/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118. 杨辉三角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4935,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J215" sqref="J215"/>
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11188,6 +11200,35 @@
         <v>142</v>
       </c>
       <c r="I211" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44171</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H212" t="s">
+        <v>142</v>
+      </c>
+      <c r="I212" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11613,8 +11654,10 @@
     <hyperlink ref="D210" r:id="rId414" xr:uid="{C9C4C3C8-29CC-4236-830B-1CBBF8642311}"/>
     <hyperlink ref="D211" r:id="rId415" xr:uid="{BE99CF10-84ED-4F27-8230-1DD7F2D434BB}"/>
     <hyperlink ref="G211" r:id="rId416" xr:uid="{ED22989D-1CAE-4C3B-AFE6-F71A1967AE1F}"/>
+    <hyperlink ref="G212" r:id="rId417" xr:uid="{EE2D2577-0544-48BB-A9BA-E2D199A9F490}"/>
+    <hyperlink ref="D212" r:id="rId418" xr:uid="{F84905AF-BE0E-4164-8A1F-4EB4A860CF97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId417"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId419"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B8AA1-F063-4AA2-9FB5-3A114D346C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A55103-658E-4212-A08F-4D0D35DA1A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1044">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4376,6 +4376,18 @@
   </si>
   <si>
     <t>118. 杨辉三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>861. 翻转矩阵后的得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/score-after-flipping-matrix/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/score-after-flipping-matrix/solution/python-3tan-xin-by-jpch89-2ttx/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4947,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11229,6 +11241,35 @@
         <v>142</v>
       </c>
       <c r="I212" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44172</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>769</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H213" t="s">
+        <v>142</v>
+      </c>
+      <c r="I213" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11656,8 +11697,10 @@
     <hyperlink ref="G211" r:id="rId416" xr:uid="{ED22989D-1CAE-4C3B-AFE6-F71A1967AE1F}"/>
     <hyperlink ref="G212" r:id="rId417" xr:uid="{EE2D2577-0544-48BB-A9BA-E2D199A9F490}"/>
     <hyperlink ref="D212" r:id="rId418" xr:uid="{F84905AF-BE0E-4164-8A1F-4EB4A860CF97}"/>
+    <hyperlink ref="D213" r:id="rId419" xr:uid="{B83CB168-EF0F-4A01-86FD-9882208C7A6E}"/>
+    <hyperlink ref="G213" r:id="rId420" xr:uid="{16D622D1-F857-4D54-BAAC-0AD82DA2D34D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId419"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId421"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A55103-658E-4212-A08F-4D0D35DA1A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3677962-6635-443E-AE68-26183FB531F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="1048">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4388,6 +4388,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/score-after-flipping-matrix/solution/python-3tan-xin-by-jpch89-2ttx/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/split-array-into-fibonacci-sequence/solution/python-3dai-fan-hui-zhi-de-hui-su-jian-z-i9ol/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>842. 将数组拆分成斐波那契序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/split-array-into-fibonacci-sequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、字符串、回溯算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4959,10 +4975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G217" sqref="G217"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11270,6 +11286,35 @@
         <v>142</v>
       </c>
       <c r="I213" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44173</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H214" t="s">
+        <v>142</v>
+      </c>
+      <c r="I214" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11699,8 +11744,10 @@
     <hyperlink ref="D212" r:id="rId418" xr:uid="{F84905AF-BE0E-4164-8A1F-4EB4A860CF97}"/>
     <hyperlink ref="D213" r:id="rId419" xr:uid="{B83CB168-EF0F-4A01-86FD-9882208C7A6E}"/>
     <hyperlink ref="G213" r:id="rId420" xr:uid="{16D622D1-F857-4D54-BAAC-0AD82DA2D34D}"/>
+    <hyperlink ref="G214" r:id="rId421" xr:uid="{056C412E-5002-43A3-A83A-ACEA1D8675E4}"/>
+    <hyperlink ref="D214" r:id="rId422" xr:uid="{6CD3BE7F-761F-4877-891F-D2431C8826A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId421"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId423"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3677962-6635-443E-AE68-26183FB531F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B6198-532C-429F-80B3-12FAE5D74467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1051">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4404,6 +4404,18 @@
   </si>
   <si>
     <t>贪心算法、字符串、回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-paths/solution/pythondong-tai-gui-hua-shu-xue-yi-xing-j-lpdi/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4975,10 +4987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="H215" sqref="H215"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11315,6 +11327,35 @@
         <v>142</v>
       </c>
       <c r="I214" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44174</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F215" t="s">
+        <v>392</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H215" t="s">
+        <v>142</v>
+      </c>
+      <c r="I215" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11746,8 +11787,10 @@
     <hyperlink ref="G213" r:id="rId420" xr:uid="{16D622D1-F857-4D54-BAAC-0AD82DA2D34D}"/>
     <hyperlink ref="G214" r:id="rId421" xr:uid="{056C412E-5002-43A3-A83A-ACEA1D8675E4}"/>
     <hyperlink ref="D214" r:id="rId422" xr:uid="{6CD3BE7F-761F-4877-891F-D2431C8826A4}"/>
+    <hyperlink ref="D215" r:id="rId423" xr:uid="{B2AA20F3-8E0E-4080-9A45-E37BF7B48833}"/>
+    <hyperlink ref="G215" r:id="rId424" xr:uid="{3BB879B5-6D7F-483A-AA4D-DE5E8156269E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId423"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId425"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B6198-532C-429F-80B3-12FAE5D74467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B04F96-988E-429B-9C97-73723D2D5B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="算法" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1055">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4416,6 +4416,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/unique-paths/solution/pythondong-tai-gui-hua-shu-xue-yi-xing-j-lpdi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175. 组合两个表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combine-two-tables/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库、SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combine-two-tables/solution/zuo-wai-lian-jie-by-jpch89-5dv0/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4987,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11356,6 +11372,35 @@
         <v>142</v>
       </c>
       <c r="I215" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44174</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H216" t="s">
+        <v>142</v>
+      </c>
+      <c r="I216" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11789,8 +11834,10 @@
     <hyperlink ref="D214" r:id="rId422" xr:uid="{6CD3BE7F-761F-4877-891F-D2431C8826A4}"/>
     <hyperlink ref="D215" r:id="rId423" xr:uid="{B2AA20F3-8E0E-4080-9A45-E37BF7B48833}"/>
     <hyperlink ref="G215" r:id="rId424" xr:uid="{3BB879B5-6D7F-483A-AA4D-DE5E8156269E}"/>
+    <hyperlink ref="D216" r:id="rId425" xr:uid="{4726FFBA-73BB-4DFD-9AF1-75B69D2D7591}"/>
+    <hyperlink ref="G216" r:id="rId426" xr:uid="{5972F213-CAB0-4DD3-8AF3-018FCF6047A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId425"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId427"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B04F96-988E-429B-9C97-73723D2D5B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE98F87-FE7A-4E75-B48C-7B2D54346DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1058">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4432,6 +4432,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/combine-two-tables/solution/zuo-wai-lian-jie-by-jpch89-5dv0/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lemonade-change/solution/python-3zi-dian-mo-ni-zhao-ling-guo-chen-s6yf/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860. 柠檬水找零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lemonade-change/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5003,10 +5015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G219" sqref="G219"/>
+      <selection activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11401,6 +11413,35 @@
         <v>142</v>
       </c>
       <c r="I216" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44175</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>769</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H217" t="s">
+        <v>142</v>
+      </c>
+      <c r="I217" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11836,8 +11877,10 @@
     <hyperlink ref="G215" r:id="rId424" xr:uid="{3BB879B5-6D7F-483A-AA4D-DE5E8156269E}"/>
     <hyperlink ref="D216" r:id="rId425" xr:uid="{4726FFBA-73BB-4DFD-9AF1-75B69D2D7591}"/>
     <hyperlink ref="G216" r:id="rId426" xr:uid="{5972F213-CAB0-4DD3-8AF3-018FCF6047A7}"/>
+    <hyperlink ref="G217" r:id="rId427" xr:uid="{2FB4D636-3D3E-4D2B-9F3E-CB0FC2CB9876}"/>
+    <hyperlink ref="D217" r:id="rId428" xr:uid="{9158DA17-C940-4804-8515-AA645376BB27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId427"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId429"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE98F87-FE7A-4E75-B48C-7B2D54346DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75203AAE-D46E-43B6-ADA4-75568EA298A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1062">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4444,6 +4444,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/lemonade-change/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176. 第二高的薪水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/second-highest-salary/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/second-highest-salary/solution/python-3limit-fen-ye-cha-xun-zi-cha-xun-bjvjl/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5015,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11387,7 +11403,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -11413,7 +11429,7 @@
         <v>142</v>
       </c>
       <c r="I216" t="s">
-        <v>1020</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11443,6 +11459,35 @@
       </c>
       <c r="I217" t="s">
         <v>1020</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44175</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H218" t="s">
+        <v>142</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -11879,8 +11924,10 @@
     <hyperlink ref="G216" r:id="rId426" xr:uid="{5972F213-CAB0-4DD3-8AF3-018FCF6047A7}"/>
     <hyperlink ref="G217" r:id="rId427" xr:uid="{2FB4D636-3D3E-4D2B-9F3E-CB0FC2CB9876}"/>
     <hyperlink ref="D217" r:id="rId428" xr:uid="{9158DA17-C940-4804-8515-AA645376BB27}"/>
+    <hyperlink ref="D218" r:id="rId429" xr:uid="{E6E90612-A967-4536-882E-419690849C9D}"/>
+    <hyperlink ref="G218" r:id="rId430" xr:uid="{950BC293-F115-40E5-B4D1-2CDCE49CC373}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId429"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId431"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75203AAE-D46E-43B6-ADA4-75568EA298A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524EDE3F-C4EE-4BED-A146-5C51B267EA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1065">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4460,6 +4460,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/second-highest-salary/solution/python-3limit-fen-ye-cha-xun-zi-cha-xun-bjvjl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/dota2-senate/solution/python-3tan-xin-mo-ni-by-jpch89-dwv0/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>649. Dota2 参议院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/dota2-senate/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5031,10 +5043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11488,6 +11500,35 @@
       </c>
       <c r="I218" t="s">
         <v>1060</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44176</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F219" t="s">
+        <v>769</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H219" t="s">
+        <v>142</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -11926,8 +11967,10 @@
     <hyperlink ref="D217" r:id="rId428" xr:uid="{9158DA17-C940-4804-8515-AA645376BB27}"/>
     <hyperlink ref="D218" r:id="rId429" xr:uid="{E6E90612-A967-4536-882E-419690849C9D}"/>
     <hyperlink ref="G218" r:id="rId430" xr:uid="{950BC293-F115-40E5-B4D1-2CDCE49CC373}"/>
+    <hyperlink ref="G219" r:id="rId431" xr:uid="{3668C4F4-80CD-43CA-A296-ABD02C26C46C}"/>
+    <hyperlink ref="D219" r:id="rId432" xr:uid="{0E2B03B9-FD00-4EEF-AB92-A3A8C86845DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId431"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId433"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524EDE3F-C4EE-4BED-A146-5C51B267EA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A76D9-C382-48E7-9E0C-9103944D5524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1070">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4472,6 +4472,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/dota2-senate/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1248. 统计优美子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-number-of-nice-subarrays/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 春招冲刺攻略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-number-of-nice-subarrays/solution/python-3qian-zhui-he-by-jpch89-h0jn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5043,10 +5063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11530,6 +11550,38 @@
       <c r="I219" t="s">
         <v>1020</v>
       </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44273</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H220" t="s">
+        <v>142</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B221" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11969,8 +12021,10 @@
     <hyperlink ref="G218" r:id="rId430" xr:uid="{950BC293-F115-40E5-B4D1-2CDCE49CC373}"/>
     <hyperlink ref="G219" r:id="rId431" xr:uid="{3668C4F4-80CD-43CA-A296-ABD02C26C46C}"/>
     <hyperlink ref="D219" r:id="rId432" xr:uid="{0E2B03B9-FD00-4EEF-AB92-A3A8C86845DE}"/>
+    <hyperlink ref="D220" r:id="rId433" xr:uid="{DB6D5205-DC8B-4284-973C-A08D85CC5A5F}"/>
+    <hyperlink ref="G220" r:id="rId434" xr:uid="{39EDF817-0C84-452E-A457-59D95B63E8CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId433"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId435"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A76D9-C382-48E7-9E0C-9103944D5524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CFA11-5019-43BF-B6E1-11472B9B91AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1073">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4492,6 +4492,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/count-number-of-nice-subarrays/solution/python-3qian-zhui-he-by-jpch89-h0jn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/3sum/solution/python-3pai-xu-zhi-zhen-by-jpch89-sdje/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/3sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5065,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11581,7 +11593,33 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B221" s="1"/>
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F221" t="s">
+        <v>75</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H221" t="s">
+        <v>142</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1068</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12023,8 +12061,10 @@
     <hyperlink ref="D219" r:id="rId432" xr:uid="{0E2B03B9-FD00-4EEF-AB92-A3A8C86845DE}"/>
     <hyperlink ref="D220" r:id="rId433" xr:uid="{DB6D5205-DC8B-4284-973C-A08D85CC5A5F}"/>
     <hyperlink ref="G220" r:id="rId434" xr:uid="{39EDF817-0C84-452E-A457-59D95B63E8CD}"/>
+    <hyperlink ref="G221" r:id="rId435" xr:uid="{3E9D56D3-BB63-4C7B-8838-08F8EFF69E82}"/>
+    <hyperlink ref="D221" r:id="rId436" xr:uid="{4FB13BA7-0F3F-4132-A52D-94226BA4B4DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId435"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId437"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CFA11-5019-43BF-B6E1-11472B9B91AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EBC21-E99E-4DC5-9078-F61E22A000A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1074">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1954,10 +1954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/subarray-sums-divisible-by-k/solution/python-3liang-xing-jie-qian-zhui-he-yu-shu-xing-zh/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2282,10 +2278,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/product-of-array-except-self/solution/python-3san-xing-jie-o1-kong-jian-fu-za-du-by-acw_/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4504,6 +4496,18 @@
   </si>
   <si>
     <t>15. 三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146. LRU 缓存机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lru-cache/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lru-cache/solution/python-3ordereddict-by-jpch89-t9gm/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5075,10 +5079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5299,10 +5303,10 @@
         <v>49</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5363,7 +5367,7 @@
         <v>148</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
@@ -5441,7 +5445,7 @@
         <v>77</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5517,7 +5521,7 @@
         <v>77</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5555,7 +5559,7 @@
         <v>77</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6849,7 +6853,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B58" s="1">
         <v>43965</v>
@@ -6876,7 +6880,7 @@
         <v>351</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -6997,7 +7001,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B63" s="1">
         <v>43989</v>
@@ -7012,10 +7016,10 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H63" t="s">
         <v>142</v>
@@ -7026,25 +7030,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B64" s="1">
         <v>43989</v>
       </c>
       <c r="C64" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H64" t="s">
         <v>142</v>
@@ -7055,25 +7059,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B65" s="1">
         <v>43993</v>
       </c>
       <c r="C65" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H65" t="s">
         <v>142</v>
@@ -7084,28 +7088,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B66" s="1">
         <v>43993</v>
       </c>
       <c r="C66" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
+        <v>638</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H66" t="s">
         <v>640</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H66" t="s">
-        <v>642</v>
       </c>
       <c r="I66" t="s">
         <v>375</v>
@@ -7113,25 +7117,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B67" s="1">
         <v>43993</v>
       </c>
       <c r="C67" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H67" t="s">
         <v>142</v>
@@ -7142,28 +7146,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B68" s="1">
         <v>43993</v>
       </c>
       <c r="C68" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="H68" t="s">
         <v>647</v>
-      </c>
-      <c r="H68" t="s">
-        <v>649</v>
       </c>
       <c r="I68" t="s">
         <v>377</v>
@@ -7171,25 +7175,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B69" s="1">
         <v>43993</v>
       </c>
       <c r="C69" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
+        <v>646</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="H69" t="s">
         <v>142</v>
@@ -7200,25 +7204,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B70" s="1">
         <v>43993</v>
       </c>
       <c r="C70" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H70" t="s">
         <v>142</v>
@@ -7380,7 +7384,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B76" s="1">
         <v>43970</v>
@@ -7389,7 +7393,7 @@
         <v>408</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
@@ -7586,7 +7590,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B83" s="1">
         <v>43974</v>
@@ -7734,7 +7738,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>473</v>
+        <v>667</v>
       </c>
       <c r="B88" s="1">
         <v>43978</v>
@@ -7752,10 +7756,10 @@
         <v>472</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H88" t="s">
         <v>474</v>
-      </c>
-      <c r="H88" t="s">
-        <v>475</v>
       </c>
       <c r="I88" t="s">
         <v>146</v>
@@ -7763,28 +7767,28 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B89" s="1">
         <v>43979</v>
       </c>
       <c r="C89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H89" t="s">
         <v>476</v>
-      </c>
-      <c r="H89" t="s">
-        <v>477</v>
       </c>
       <c r="I89" t="s">
         <v>146</v>
@@ -7792,25 +7796,25 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B90" s="1">
         <v>43980</v>
       </c>
       <c r="C90" t="s">
+        <v>481</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H90" t="s">
         <v>142</v>
@@ -7819,30 +7823,30 @@
         <v>146</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B91" s="1">
         <v>43982</v>
       </c>
       <c r="C91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -7851,1283 +7855,1283 @@
         <v>146</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B92" s="1">
         <v>43982</v>
       </c>
       <c r="C92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
+        <v>496</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" t="s">
         <v>498</v>
-      </c>
-      <c r="H92" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B93" s="1">
         <v>43982</v>
       </c>
       <c r="C93" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I93" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B94" s="1">
         <v>43982</v>
       </c>
       <c r="C94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F94" t="s">
+        <v>503</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="H94" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I94" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B95" s="1">
         <v>43982</v>
       </c>
       <c r="C95" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H95" t="s">
         <v>512</v>
       </c>
-      <c r="H95" t="s">
-        <v>513</v>
-      </c>
       <c r="I95" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B96" s="1">
         <v>43983</v>
       </c>
       <c r="C96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H96" t="s">
         <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B97" s="1">
         <v>43983</v>
       </c>
       <c r="C97" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
+        <v>529</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="H97" t="s">
         <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B98" s="1">
         <v>43983</v>
       </c>
       <c r="C98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H98" t="s">
         <v>581</v>
       </c>
-      <c r="H98" t="s">
-        <v>583</v>
-      </c>
       <c r="I98" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B99" s="1">
         <v>43983</v>
       </c>
       <c r="C99" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
+        <v>576</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="H99" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B100" s="1">
         <v>43983</v>
       </c>
       <c r="C100" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H100" t="s">
         <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B101" s="1">
         <v>43984</v>
       </c>
       <c r="C101" t="s">
+        <v>535</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
         <v>538</v>
-      </c>
-      <c r="H101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B102" s="1">
         <v>43984</v>
       </c>
       <c r="C102" t="s">
+        <v>539</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I102" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B103" s="1">
         <v>43984</v>
       </c>
       <c r="C103" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H103" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I103" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>551</v>
+        <v>667</v>
       </c>
       <c r="B104" s="1">
         <v>43986</v>
       </c>
       <c r="C104" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H104" t="s">
         <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B105" s="1">
         <v>43986</v>
       </c>
       <c r="C105" t="s">
+        <v>553</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F105" t="s">
+        <v>556</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" t="s">
         <v>558</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H105" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B106" s="1">
         <v>43986</v>
       </c>
       <c r="C106" t="s">
+        <v>559</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
+        <v>560</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="H106" t="s">
         <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B107" s="1">
         <v>43987</v>
       </c>
       <c r="C107" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H107" t="s">
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B108" s="1">
         <v>43987</v>
       </c>
       <c r="C108" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B109" s="1">
         <v>43987</v>
       </c>
       <c r="C109" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H109" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I109" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B110" s="1">
         <v>43988</v>
       </c>
       <c r="C110" t="s">
+        <v>584</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H110" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I110" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B111" s="1">
         <v>43990</v>
       </c>
       <c r="C111" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H111" t="s">
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B112" s="1">
         <v>43991</v>
       </c>
       <c r="C112" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H112" t="s">
         <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B113" s="1">
         <v>43991</v>
       </c>
       <c r="C113" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H113" t="s">
         <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B114" s="1">
         <v>43991</v>
       </c>
       <c r="C114" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H114" t="s">
         <v>142</v>
       </c>
       <c r="I114" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B115" s="1">
         <v>43991</v>
       </c>
       <c r="C115" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H115" t="s">
         <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B116" s="1">
         <v>43993</v>
       </c>
       <c r="C116" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F116" t="s">
+        <v>635</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="H116" t="s">
         <v>637</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="H116" t="s">
-        <v>639</v>
-      </c>
       <c r="I116" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B117" s="1">
         <v>43998</v>
       </c>
       <c r="C117" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
+        <v>654</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="H117" t="s">
         <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B118" s="1">
         <v>43999</v>
       </c>
       <c r="C118" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H118" t="s">
         <v>142</v>
       </c>
       <c r="I118" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B119" s="1">
         <v>44001</v>
       </c>
       <c r="C119" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H119" t="s">
         <v>142</v>
       </c>
       <c r="I119" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B120" s="1">
         <v>44003</v>
       </c>
       <c r="C120" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H120" t="s">
         <v>142</v>
       </c>
       <c r="I120" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B121" s="1">
         <v>44005</v>
       </c>
       <c r="C121" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H121" t="s">
         <v>142</v>
       </c>
       <c r="I121" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B122" s="1">
         <v>44009</v>
       </c>
       <c r="C122" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H122" t="s">
         <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B123" s="1">
         <v>44010</v>
       </c>
       <c r="C123" t="s">
+        <v>683</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
+        <v>686</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="H123" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I123" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B124" s="1">
         <v>44012</v>
       </c>
       <c r="C124" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H124" t="s">
         <v>142</v>
       </c>
       <c r="I124" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B125" s="1">
         <v>44018</v>
       </c>
       <c r="C125" t="s">
+        <v>694</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F125" t="s">
+        <v>697</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
         <v>699</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-      <c r="I125" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B126" s="1">
         <v>44020</v>
       </c>
       <c r="C126" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H126" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I126" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B127" s="1">
         <v>44021</v>
       </c>
       <c r="C127" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F127" t="s">
+        <v>709</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="H127" t="s">
         <v>711</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="H127" t="s">
-        <v>713</v>
-      </c>
       <c r="I127" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B128" s="1">
         <v>44022</v>
       </c>
       <c r="C128" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H128" t="s">
         <v>142</v>
       </c>
       <c r="I128" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B129" s="1">
         <v>44023</v>
       </c>
       <c r="C129" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H129" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I129" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B130" s="1">
         <v>44024</v>
       </c>
       <c r="C130" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F130" t="s">
+        <v>726</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="H130" t="s">
         <v>728</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="H130" t="s">
-        <v>730</v>
-      </c>
       <c r="I130" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B131" s="1">
         <v>44025</v>
       </c>
       <c r="C131" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G131" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="H131" t="s">
         <v>731</v>
       </c>
-      <c r="H131" t="s">
-        <v>733</v>
-      </c>
       <c r="I131" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B132" s="1">
         <v>44026</v>
       </c>
       <c r="C132" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H132" t="s">
         <v>142</v>
       </c>
       <c r="I132" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B133" s="1">
         <v>44027</v>
       </c>
       <c r="C133" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H133" t="s">
         <v>142</v>
       </c>
       <c r="I133" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B134" s="1">
         <v>44027</v>
       </c>
       <c r="C134" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H134" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I134" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B135" s="1">
         <v>44029</v>
       </c>
       <c r="C135" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H135" t="s">
         <v>142</v>
       </c>
       <c r="I135" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9138,10 +9142,10 @@
         <v>44030</v>
       </c>
       <c r="C136" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>22</v>
@@ -9150,13 +9154,13 @@
         <v>415</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H136" t="s">
         <v>142</v>
       </c>
       <c r="I136" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9167,25 +9171,25 @@
         <v>44031</v>
       </c>
       <c r="C137" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F137" t="s">
+        <v>763</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>767</v>
-      </c>
       <c r="H137" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I137" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9196,10 +9200,10 @@
         <v>44032</v>
       </c>
       <c r="C138" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>15</v>
@@ -9208,13 +9212,13 @@
         <v>467</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H138" t="s">
         <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -9225,25 +9229,25 @@
         <v>44033</v>
       </c>
       <c r="C139" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F139" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G139" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="H139" t="s">
+        <v>142</v>
+      </c>
+      <c r="I139" t="s">
         <v>768</v>
-      </c>
-      <c r="H139" t="s">
-        <v>142</v>
-      </c>
-      <c r="I139" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -9254,19 +9258,19 @@
         <v>44033</v>
       </c>
       <c r="C140" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I140" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9277,10 +9281,10 @@
         <v>44034</v>
       </c>
       <c r="C141" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>15</v>
@@ -9289,13 +9293,13 @@
         <v>81</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H141" t="s">
         <v>81</v>
       </c>
       <c r="I141" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9306,10 +9310,10 @@
         <v>44035</v>
       </c>
       <c r="C142" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>20</v>
@@ -9318,13 +9322,13 @@
         <v>392</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H142" t="s">
         <v>142</v>
       </c>
       <c r="I142" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9335,25 +9339,25 @@
         <v>44036</v>
       </c>
       <c r="C143" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H143" t="s">
         <v>221</v>
       </c>
       <c r="I143" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9364,25 +9368,25 @@
         <v>44039</v>
       </c>
       <c r="C144" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H144" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I144" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9393,25 +9397,25 @@
         <v>44042</v>
       </c>
       <c r="C145" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H145" t="s">
         <v>142</v>
       </c>
       <c r="I145" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9422,10 +9426,10 @@
         <v>44043</v>
       </c>
       <c r="C146" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>15</v>
@@ -9434,13 +9438,13 @@
         <v>38</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H146" t="s">
         <v>142</v>
       </c>
       <c r="I146" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9451,10 +9455,10 @@
         <v>44045</v>
       </c>
       <c r="C147" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>20</v>
@@ -9463,13 +9467,13 @@
         <v>216</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H147" t="s">
         <v>142</v>
       </c>
       <c r="I147" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9480,10 +9484,10 @@
         <v>44046</v>
       </c>
       <c r="C148" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>15</v>
@@ -9492,13 +9496,13 @@
         <v>37</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H148" t="s">
         <v>142</v>
       </c>
       <c r="I148" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9509,10 +9513,10 @@
         <v>44048</v>
       </c>
       <c r="C149" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>20</v>
@@ -9521,13 +9525,13 @@
         <v>216</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H149" t="s">
         <v>221</v>
       </c>
       <c r="I149" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9538,10 +9542,10 @@
         <v>44051</v>
       </c>
       <c r="C150" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>22</v>
@@ -9550,13 +9554,13 @@
         <v>216</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H150" t="s">
         <v>142</v>
       </c>
       <c r="I150" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9567,25 +9571,25 @@
         <v>44052</v>
       </c>
       <c r="C151" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F151" t="s">
+        <v>810</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="H151" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I151" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9596,10 +9600,10 @@
         <v>44053</v>
       </c>
       <c r="C152" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>15</v>
@@ -9608,13 +9612,13 @@
         <v>37</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H152" t="s">
         <v>142</v>
       </c>
       <c r="I152" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9625,25 +9629,25 @@
         <v>44054</v>
       </c>
       <c r="C153" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H153" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I153" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9654,25 +9658,25 @@
         <v>44057</v>
       </c>
       <c r="C154" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H154" t="s">
         <v>142</v>
       </c>
       <c r="I154" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9683,25 +9687,25 @@
         <v>44058</v>
       </c>
       <c r="C155" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H155" t="s">
         <v>142</v>
       </c>
       <c r="I155" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9712,10 +9716,10 @@
         <v>44059</v>
       </c>
       <c r="C156" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>15</v>
@@ -9724,13 +9728,13 @@
         <v>318</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H156" t="s">
         <v>142</v>
       </c>
       <c r="I156" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9741,25 +9745,25 @@
         <v>44061</v>
       </c>
       <c r="C157" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H157" t="s">
         <v>142</v>
       </c>
       <c r="I157" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9770,10 +9774,10 @@
         <v>44065</v>
       </c>
       <c r="C158" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>22</v>
@@ -9782,13 +9786,13 @@
         <v>318</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H158" t="s">
         <v>142</v>
       </c>
       <c r="I158" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9799,10 +9803,10 @@
         <v>44066</v>
       </c>
       <c r="C159" t="s">
+        <v>841</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>20</v>
@@ -9811,13 +9815,13 @@
         <v>59</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H159" t="s">
         <v>142</v>
       </c>
       <c r="I159" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9828,10 +9832,10 @@
         <v>44067</v>
       </c>
       <c r="C160" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>15</v>
@@ -9840,13 +9844,13 @@
         <v>37</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H160" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I160" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9857,10 +9861,10 @@
         <v>44071</v>
       </c>
       <c r="C161" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>15</v>
@@ -9869,13 +9873,13 @@
         <v>37</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H161" t="s">
         <v>142</v>
       </c>
       <c r="I161" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9886,10 +9890,10 @@
         <v>44072</v>
       </c>
       <c r="C162" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>22</v>
@@ -9898,13 +9902,13 @@
         <v>37</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H162" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I162" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9915,10 +9919,10 @@
         <v>44073</v>
       </c>
       <c r="C163" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>15</v>
@@ -9927,13 +9931,13 @@
         <v>37</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H163" t="s">
         <v>142</v>
       </c>
       <c r="I163" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9944,25 +9948,25 @@
         <v>44074</v>
       </c>
       <c r="C164" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F164" t="s">
+        <v>858</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="G164" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="H164" t="s">
         <v>142</v>
       </c>
       <c r="I164" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9973,25 +9977,25 @@
         <v>44075</v>
       </c>
       <c r="C165" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F165" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G165" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="H165" t="s">
         <v>863</v>
       </c>
-      <c r="H165" t="s">
-        <v>865</v>
-      </c>
       <c r="I165" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10002,25 +10006,25 @@
         <v>44079</v>
       </c>
       <c r="C166" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H166" t="s">
         <v>142</v>
       </c>
       <c r="I166" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10031,25 +10035,25 @@
         <v>44081</v>
       </c>
       <c r="C167" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F167" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H167" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I167" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10060,25 +10064,25 @@
         <v>44084</v>
       </c>
       <c r="C168" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F168" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H168" t="s">
         <v>142</v>
       </c>
       <c r="I168" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10089,25 +10093,25 @@
         <v>44085</v>
       </c>
       <c r="C169" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F169" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H169" t="s">
         <v>142</v>
       </c>
       <c r="I169" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10118,10 +10122,10 @@
         <v>44086</v>
       </c>
       <c r="C170" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>15</v>
@@ -10130,13 +10134,13 @@
         <v>44</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H170" t="s">
         <v>142</v>
       </c>
       <c r="I170" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10147,25 +10151,25 @@
         <v>44087</v>
       </c>
       <c r="C171" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F171" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H171" t="s">
         <v>142</v>
       </c>
       <c r="I171" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10176,25 +10180,25 @@
         <v>44089</v>
       </c>
       <c r="C172" t="s">
+        <v>888</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="E172" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F172" t="s">
+        <v>889</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>893</v>
-      </c>
       <c r="H172" t="s">
         <v>142</v>
       </c>
       <c r="I172" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10205,25 +10209,25 @@
         <v>44092</v>
       </c>
       <c r="C173" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E173" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H173" t="s">
         <v>142</v>
       </c>
       <c r="I173" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10234,10 +10238,10 @@
         <v>44093</v>
       </c>
       <c r="C174" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>15</v>
@@ -10246,13 +10250,13 @@
         <v>44</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H174" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I174" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10263,25 +10267,25 @@
         <v>44094</v>
       </c>
       <c r="C175" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E175" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F175" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H175" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I175" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10292,10 +10296,10 @@
         <v>44095</v>
       </c>
       <c r="C176" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>15</v>
@@ -10304,13 +10308,13 @@
         <v>44</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H176" t="s">
         <v>142</v>
       </c>
       <c r="I176" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10321,25 +10325,25 @@
         <v>44096</v>
       </c>
       <c r="C177" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H177" t="s">
         <v>142</v>
       </c>
       <c r="I177" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10350,10 +10354,10 @@
         <v>44097</v>
       </c>
       <c r="C178" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>15</v>
@@ -10362,132 +10366,132 @@
         <v>44</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H178" t="s">
         <v>142</v>
       </c>
       <c r="I178" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B179" s="1">
         <v>44098</v>
       </c>
       <c r="C179" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F179" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H179" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I179" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B180" s="1">
         <v>44100</v>
       </c>
       <c r="C180" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E180" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F180" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H180" t="s">
         <v>142</v>
       </c>
       <c r="I180" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B181" s="1">
         <v>44101</v>
       </c>
       <c r="C181" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F181" t="s">
+        <v>929</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="H181" t="s">
+        <v>142</v>
+      </c>
+      <c r="I181" t="s">
+        <v>930</v>
+      </c>
+      <c r="J181" s="15" t="s">
         <v>931</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="H181" t="s">
-        <v>142</v>
-      </c>
-      <c r="I181" t="s">
-        <v>932</v>
-      </c>
-      <c r="J181" s="15" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B182" s="1">
         <v>44104</v>
       </c>
       <c r="C182" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E182" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F182" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H182" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I182" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10498,25 +10502,25 @@
         <v>44111</v>
       </c>
       <c r="C183" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E183" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F183" t="s">
+        <v>939</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H183" t="s">
         <v>941</v>
       </c>
-      <c r="G183" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="H183" t="s">
-        <v>943</v>
-      </c>
       <c r="I183" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10527,25 +10531,25 @@
         <v>44113</v>
       </c>
       <c r="C184" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E184" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H184" t="s">
         <v>142</v>
       </c>
       <c r="I184" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10556,25 +10560,25 @@
         <v>44114</v>
       </c>
       <c r="C185" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E185" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H185" t="s">
         <v>142</v>
       </c>
       <c r="I185" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10585,10 +10589,10 @@
         <v>44116</v>
       </c>
       <c r="C186" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E186" s="11" t="s">
         <v>15</v>
@@ -10597,13 +10601,13 @@
         <v>44</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H186" t="s">
         <v>142</v>
       </c>
       <c r="I186" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10614,10 +10618,10 @@
         <v>44117</v>
       </c>
       <c r="C187" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E187" s="13" t="s">
         <v>20</v>
@@ -10626,13 +10630,13 @@
         <v>45</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H187" t="s">
         <v>142</v>
       </c>
       <c r="I187" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10643,10 +10647,10 @@
         <v>44118</v>
       </c>
       <c r="C188" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>15</v>
@@ -10655,13 +10659,13 @@
         <v>42</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H188" t="s">
         <v>142</v>
       </c>
       <c r="I188" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10684,13 +10688,13 @@
         <v>216</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H189" t="s">
         <v>142</v>
       </c>
       <c r="I189" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10701,10 +10705,10 @@
         <v>44120</v>
       </c>
       <c r="C190" t="s">
+        <v>961</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>965</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>15</v>
@@ -10713,13 +10717,13 @@
         <v>75</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H190" t="s">
         <v>142</v>
       </c>
       <c r="I190" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10730,25 +10734,25 @@
         <v>44121</v>
       </c>
       <c r="C191" t="s">
+        <v>964</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="E191" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F191" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H191" t="s">
         <v>142</v>
       </c>
       <c r="I191" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -10759,25 +10763,25 @@
         <v>44122</v>
       </c>
       <c r="C192" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E192" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F192" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H192" t="s">
         <v>142</v>
       </c>
       <c r="I192" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10788,25 +10792,25 @@
         <v>44123</v>
       </c>
       <c r="C193" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F193" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H193" t="s">
         <v>142</v>
       </c>
       <c r="I193" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10817,10 +10821,10 @@
         <v>44124</v>
       </c>
       <c r="C194" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E194" s="13" t="s">
         <v>20</v>
@@ -10829,13 +10833,13 @@
         <v>45</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H194" t="s">
         <v>142</v>
       </c>
       <c r="I194" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10846,10 +10850,10 @@
         <v>44125</v>
       </c>
       <c r="C195" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E195" s="11" t="s">
         <v>15</v>
@@ -10858,13 +10862,13 @@
         <v>152</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H195" t="s">
         <v>142</v>
       </c>
       <c r="I195" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10875,25 +10879,25 @@
         <v>44126</v>
       </c>
       <c r="C196" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E196" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H196" t="s">
         <v>142</v>
       </c>
       <c r="I196" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10904,25 +10908,25 @@
         <v>44127</v>
       </c>
       <c r="C197" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F197" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H197" t="s">
         <v>142</v>
       </c>
       <c r="I197" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10933,10 +10937,10 @@
         <v>44128</v>
       </c>
       <c r="C198" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E198" s="13" t="s">
         <v>20</v>
@@ -10945,13 +10949,13 @@
         <v>221</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H198" t="s">
         <v>142</v>
       </c>
       <c r="I198" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10962,10 +10966,10 @@
         <v>44130</v>
       </c>
       <c r="C199" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>15</v>
@@ -10974,13 +10978,13 @@
         <v>42</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H199" t="s">
         <v>142</v>
       </c>
       <c r="I199" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -10991,10 +10995,10 @@
         <v>44132</v>
       </c>
       <c r="C200" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>15</v>
@@ -11003,13 +11007,13 @@
         <v>359</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H200" t="s">
         <v>142</v>
       </c>
       <c r="I200" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11020,10 +11024,10 @@
         <v>44133</v>
       </c>
       <c r="C201" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E201" s="13" t="s">
         <v>20</v>
@@ -11032,13 +11036,13 @@
         <v>216</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H201" t="s">
         <v>142</v>
       </c>
       <c r="I201" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11049,10 +11053,10 @@
         <v>44134</v>
       </c>
       <c r="C202" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E202" s="11" t="s">
         <v>15</v>
@@ -11061,13 +11065,13 @@
         <v>359</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H202" t="s">
         <v>142</v>
       </c>
       <c r="I202" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11078,25 +11082,25 @@
         <v>44137</v>
       </c>
       <c r="C203" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F203" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H203" t="s">
         <v>142</v>
       </c>
       <c r="I203" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11107,10 +11111,10 @@
         <v>44138</v>
       </c>
       <c r="C204" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E204" s="11" t="s">
         <v>15</v>
@@ -11119,13 +11123,13 @@
         <v>43</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H204" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I204" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11136,25 +11140,25 @@
         <v>44141</v>
       </c>
       <c r="C205" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E205" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F205" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H205" t="s">
         <v>142</v>
       </c>
       <c r="I205" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11165,25 +11169,25 @@
         <v>44144</v>
       </c>
       <c r="C206" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="E206" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F206" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H206" t="s">
         <v>142</v>
       </c>
       <c r="I206" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11206,13 +11210,13 @@
         <v>38</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H207" t="s">
         <v>142</v>
       </c>
       <c r="I207" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -11223,10 +11227,10 @@
         <v>44166</v>
       </c>
       <c r="C208" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>15</v>
@@ -11235,13 +11239,13 @@
         <v>300</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H208" t="s">
         <v>142</v>
       </c>
       <c r="I208" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -11252,10 +11256,10 @@
         <v>44166</v>
       </c>
       <c r="C209" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>15</v>
@@ -11264,13 +11268,13 @@
         <v>45</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H209" t="s">
         <v>142</v>
       </c>
       <c r="I209" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11281,10 +11285,10 @@
         <v>44168</v>
       </c>
       <c r="C210" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E210" s="11" t="s">
         <v>15</v>
@@ -11293,13 +11297,13 @@
         <v>102</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H210" t="s">
         <v>142</v>
       </c>
       <c r="I210" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11310,25 +11314,25 @@
         <v>44170</v>
       </c>
       <c r="C211" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E211" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F211" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H211" t="s">
         <v>142</v>
       </c>
       <c r="I211" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11339,10 +11343,10 @@
         <v>44171</v>
       </c>
       <c r="C212" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>15</v>
@@ -11351,13 +11355,13 @@
         <v>43</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H212" t="s">
         <v>142</v>
       </c>
       <c r="I212" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11368,25 +11372,25 @@
         <v>44172</v>
       </c>
       <c r="C213" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E213" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F213" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H213" t="s">
         <v>142</v>
       </c>
       <c r="I213" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11397,25 +11401,25 @@
         <v>44173</v>
       </c>
       <c r="C214" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E214" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F214" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H214" t="s">
         <v>142</v>
       </c>
       <c r="I214" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11426,10 +11430,10 @@
         <v>44174</v>
       </c>
       <c r="C215" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E215" s="13" t="s">
         <v>20</v>
@@ -11438,13 +11442,13 @@
         <v>392</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H215" t="s">
         <v>142</v>
       </c>
       <c r="I215" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -11455,25 +11459,25 @@
         <v>44174</v>
       </c>
       <c r="C216" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E216" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F216" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H216" t="s">
         <v>142</v>
       </c>
       <c r="I216" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11484,25 +11488,25 @@
         <v>44175</v>
       </c>
       <c r="C217" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E217" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F217" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H217" t="s">
         <v>142</v>
       </c>
       <c r="I217" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -11513,25 +11517,25 @@
         <v>44175</v>
       </c>
       <c r="C218" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E218" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H218" t="s">
         <v>142</v>
       </c>
       <c r="I218" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -11542,25 +11546,25 @@
         <v>44176</v>
       </c>
       <c r="C219" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E219" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F219" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H219" t="s">
         <v>142</v>
       </c>
       <c r="I219" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -11571,25 +11575,25 @@
         <v>44273</v>
       </c>
       <c r="C220" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E220" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F220" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="G220" s="2" t="s">
-        <v>1069</v>
-      </c>
       <c r="H220" t="s">
         <v>142</v>
       </c>
       <c r="I220" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -11600,10 +11604,10 @@
         <v>44276</v>
       </c>
       <c r="C221" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E221" s="13" t="s">
         <v>20</v>
@@ -11612,13 +11616,42 @@
         <v>75</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H221" t="s">
         <v>142</v>
       </c>
       <c r="I221" t="s">
-        <v>1068</v>
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F222" t="s">
+        <v>626</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H222" t="s">
+        <v>142</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -12063,8 +12096,10 @@
     <hyperlink ref="G220" r:id="rId434" xr:uid="{39EDF817-0C84-452E-A457-59D95B63E8CD}"/>
     <hyperlink ref="G221" r:id="rId435" xr:uid="{3E9D56D3-BB63-4C7B-8838-08F8EFF69E82}"/>
     <hyperlink ref="D221" r:id="rId436" xr:uid="{4FB13BA7-0F3F-4132-A52D-94226BA4B4DE}"/>
+    <hyperlink ref="D222" r:id="rId437" xr:uid="{F03B095E-1727-4D61-BF83-202AE5FB1697}"/>
+    <hyperlink ref="G222" r:id="rId438" xr:uid="{0A89BDAC-F0E0-47D2-A7C4-67CA1358EEA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId437"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId439"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EBC21-E99E-4DC5-9078-F61E22A000A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A49FC-EB73-445A-9669-65DAD0E900B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1081">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4508,6 +4508,34 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/lru-cache/solution/python-3ordereddict-by-jpch89-t9gm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300. 最长递增子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-increasing-subsequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>354. 俄罗斯套娃信封问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/russian-doll-envelopes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为 OD 机试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/russian-doll-envelopes/solution/python-3dong-tai-gui-hua-by-jpch89-8qan/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-increasing-subsequence/solution/python-3dong-tai-gui-hua-by-jpch89-xbq2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5079,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11652,6 +11680,61 @@
       </c>
       <c r="I222" t="s">
         <v>1066</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223" t="s">
+        <v>726</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H223" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E224" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" t="s">
+        <v>726</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -12098,8 +12181,12 @@
     <hyperlink ref="D221" r:id="rId436" xr:uid="{4FB13BA7-0F3F-4132-A52D-94226BA4B4DE}"/>
     <hyperlink ref="D222" r:id="rId437" xr:uid="{F03B095E-1727-4D61-BF83-202AE5FB1697}"/>
     <hyperlink ref="G222" r:id="rId438" xr:uid="{0A89BDAC-F0E0-47D2-A7C4-67CA1358EEA6}"/>
+    <hyperlink ref="D223" r:id="rId439" xr:uid="{BB8F7ED9-744A-4B8D-AC36-346C12BD293F}"/>
+    <hyperlink ref="D224" r:id="rId440" xr:uid="{EA06E1A3-7AF6-4A74-A55C-BA7C3FA177B9}"/>
+    <hyperlink ref="G224" r:id="rId441" xr:uid="{3F15A7BF-E39F-4E6C-B8D8-CE9CED32A59E}"/>
+    <hyperlink ref="G223" r:id="rId442" xr:uid="{17CE2110-F0BB-485E-84D0-21B1C7A71515}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId439"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId443"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A49FC-EB73-445A-9669-65DAD0E900B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A4A4E3-B860-4C11-BEFD-5DAF30EFA467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1090">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4538,12 +4538,140 @@
     <t>https://leetcode-cn.com/problems/longest-increasing-subsequence/solution/python-3dong-tai-gui-hua-by-jpch89-xbq2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>91. 解码方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-ways/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2021-04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-ways/solution/python-3dong-tai-gui-hua-by-jpch89-snui/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/employee-importance/solution/python-3bfs-dfs-by-jpch89-mq8p/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2021-05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索、广度优先搜索、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/employee-importance/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>690. 员工的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4640,6 +4768,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5107,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11735,6 +11869,64 @@
       </c>
       <c r="I224" t="s">
         <v>1078</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44307</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F225" t="s">
+        <v>415</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H225" t="s">
+        <v>142</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H226" t="s">
+        <v>142</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -12185,8 +12377,12 @@
     <hyperlink ref="D224" r:id="rId440" xr:uid="{EA06E1A3-7AF6-4A74-A55C-BA7C3FA177B9}"/>
     <hyperlink ref="G224" r:id="rId441" xr:uid="{3F15A7BF-E39F-4E6C-B8D8-CE9CED32A59E}"/>
     <hyperlink ref="G223" r:id="rId442" xr:uid="{17CE2110-F0BB-485E-84D0-21B1C7A71515}"/>
+    <hyperlink ref="D225" r:id="rId443" xr:uid="{06F90E46-C84B-4E24-9F89-E116D58274F3}"/>
+    <hyperlink ref="G225" r:id="rId444" xr:uid="{6F68C5E1-60D1-467E-B711-EC31CF2D5B44}"/>
+    <hyperlink ref="G226" r:id="rId445" xr:uid="{1536FAA9-9D44-4945-9E04-011EB022F307}"/>
+    <hyperlink ref="D226" r:id="rId446" xr:uid="{A02706BE-2D51-411F-A41A-2BD4CBEA02B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId443"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A4A4E3-B860-4C11-BEFD-5DAF30EFA467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B918A-5EAC-4149-90F7-77B53F831E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1096">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4664,6 +4664,30 @@
   </si>
   <si>
     <t>690. 员工的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/brick-wall/solution/python3ha-xi-biao-qian-zhui-he-by-jpch89-9fcp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/brick-wall/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>554. 砖墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/delete-and-earn/solution/python-3javascriptdong-tai-gui-hua-by-jp-xkek/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/delete-and-earn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>740. 删除并获得点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5241,10 +5265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="H226" sqref="H226"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11926,6 +11950,64 @@
         <v>142</v>
       </c>
       <c r="I226" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44318</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F227" t="s">
+        <v>359</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H227" t="s">
+        <v>142</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44321</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" t="s">
+        <v>221</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H228" t="s">
+        <v>142</v>
+      </c>
+      <c r="I228" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12381,8 +12463,12 @@
     <hyperlink ref="G225" r:id="rId444" xr:uid="{6F68C5E1-60D1-467E-B711-EC31CF2D5B44}"/>
     <hyperlink ref="G226" r:id="rId445" xr:uid="{1536FAA9-9D44-4945-9E04-011EB022F307}"/>
     <hyperlink ref="D226" r:id="rId446" xr:uid="{A02706BE-2D51-411F-A41A-2BD4CBEA02B8}"/>
+    <hyperlink ref="G227" r:id="rId447" xr:uid="{6EA35C62-9F82-4255-9C71-2849BD073C0F}"/>
+    <hyperlink ref="D227" r:id="rId448" xr:uid="{A1EC3850-02BA-4247-94CD-FEA1EB11ECCD}"/>
+    <hyperlink ref="G228" r:id="rId449" xr:uid="{744D6CA0-B6D3-4F9F-9090-1AA58933A2DA}"/>
+    <hyperlink ref="D228" r:id="rId450" xr:uid="{7A658317-34E9-42A2-ACA0-ABF0BA67955D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId451"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B918A-5EAC-4149-90F7-77B53F831E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF59BC-5C75-4E9D-9643-2AFA583A4C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1103">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4688,6 +4688,34 @@
   </si>
   <si>
     <t>740. 删除并获得点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1720. 解码异或后的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-xored-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-xored-array/solution/python-3javascriptdie-dai-by-jpch89-h5p3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/xor-operation-in-an-array/solution/python3javascripthua-jian-by-jpch89-e2ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/xor-operation-in-an-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1486. 数组异或操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5265,10 +5293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12008,6 +12036,64 @@
         <v>142</v>
       </c>
       <c r="I228" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44322</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" t="s">
+        <v>59</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H229" t="s">
+        <v>142</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44323</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H230" t="s">
+        <v>142</v>
+      </c>
+      <c r="I230" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12467,8 +12553,12 @@
     <hyperlink ref="D227" r:id="rId448" xr:uid="{A1EC3850-02BA-4247-94CD-FEA1EB11ECCD}"/>
     <hyperlink ref="G228" r:id="rId449" xr:uid="{744D6CA0-B6D3-4F9F-9090-1AA58933A2DA}"/>
     <hyperlink ref="D228" r:id="rId450" xr:uid="{7A658317-34E9-42A2-ACA0-ABF0BA67955D}"/>
+    <hyperlink ref="D229" r:id="rId451" xr:uid="{6AFF902D-B2F7-46FA-8C6F-D3863508B1D7}"/>
+    <hyperlink ref="G229" r:id="rId452" xr:uid="{D1086E35-8A38-41E0-AC2C-89F21839FA86}"/>
+    <hyperlink ref="G230" r:id="rId453" xr:uid="{760376FA-85B4-4E8C-90AC-56240DCD07DD}"/>
+    <hyperlink ref="D230" r:id="rId454" xr:uid="{14400757-4A1D-4AFA-A642-D5D8096CA126}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId451"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId455"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF59BC-5C75-4E9D-9643-2AFA583A4C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBA6E6-56A4-4843-887E-176E90EB8354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1106">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4716,6 +4716,18 @@
   </si>
   <si>
     <t>1486. 数组异或操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-number-of-days-to-make-m-bouquets/solution/python-3er-fen-cha-zhao-you-qu-zhao-xia-euntj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-number-of-days-to-make-m-bouquets/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1482. 制作 m 束花所需的最少天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5293,10 +5305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12094,6 +12106,35 @@
         <v>142</v>
       </c>
       <c r="I230" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44325</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" t="s">
+        <v>38</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H231" t="s">
+        <v>142</v>
+      </c>
+      <c r="I231" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12557,8 +12598,10 @@
     <hyperlink ref="G229" r:id="rId452" xr:uid="{D1086E35-8A38-41E0-AC2C-89F21839FA86}"/>
     <hyperlink ref="G230" r:id="rId453" xr:uid="{760376FA-85B4-4E8C-90AC-56240DCD07DD}"/>
     <hyperlink ref="D230" r:id="rId454" xr:uid="{14400757-4A1D-4AFA-A642-D5D8096CA126}"/>
+    <hyperlink ref="G231" r:id="rId455" xr:uid="{254A155C-9790-4905-898E-1417372080FF}"/>
+    <hyperlink ref="D231" r:id="rId456" xr:uid="{DC85C605-F4C4-41ED-BB04-3E9EC9838238}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId455"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId457"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBA6E6-56A4-4843-887E-176E90EB8354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8671F4-884D-418E-9A84-8DB00BD5E3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1109">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4728,6 +4728,18 @@
   </si>
   <si>
     <t>1482. 制作 m 束花所需的最少天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/leaf-similar-trees/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872. 叶子相似的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/leaf-similar-trees/solution/python3dfs-by-jpch89-y8aa/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5305,10 +5317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12135,6 +12147,35 @@
         <v>142</v>
       </c>
       <c r="I231" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44326</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" t="s">
+        <v>216</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H232" t="s">
+        <v>142</v>
+      </c>
+      <c r="I232" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12600,8 +12641,10 @@
     <hyperlink ref="D230" r:id="rId454" xr:uid="{14400757-4A1D-4AFA-A642-D5D8096CA126}"/>
     <hyperlink ref="G231" r:id="rId455" xr:uid="{254A155C-9790-4905-898E-1417372080FF}"/>
     <hyperlink ref="D231" r:id="rId456" xr:uid="{DC85C605-F4C4-41ED-BB04-3E9EC9838238}"/>
+    <hyperlink ref="D232" r:id="rId457" xr:uid="{23929BB1-C1D7-4B5A-8B1A-3E4BC40107A2}"/>
+    <hyperlink ref="G232" r:id="rId458" xr:uid="{2A29F4E7-9310-43D0-B07F-96B7F0B69BDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId457"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId459"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8671F4-884D-418E-9A84-8DB00BD5E3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDBCED-FC79-4989-97BE-CBA49082F26F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1112">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4740,6 +4740,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/leaf-similar-trees/solution/python3dfs-by-jpch89-y8aa/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1734. 解码异或后的排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-xored-permutation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-xored-permutation/solution/python3zhao-gui-lu-yi-huo-xing-zhi-by-jp-sfz4/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5317,10 +5329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="H234" sqref="H234"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12176,6 +12188,35 @@
         <v>142</v>
       </c>
       <c r="I232" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44327</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F233" t="s">
+        <v>59</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H233" t="s">
+        <v>142</v>
+      </c>
+      <c r="I233" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12643,8 +12684,10 @@
     <hyperlink ref="D231" r:id="rId456" xr:uid="{DC85C605-F4C4-41ED-BB04-3E9EC9838238}"/>
     <hyperlink ref="D232" r:id="rId457" xr:uid="{23929BB1-C1D7-4B5A-8B1A-3E4BC40107A2}"/>
     <hyperlink ref="G232" r:id="rId458" xr:uid="{2A29F4E7-9310-43D0-B07F-96B7F0B69BDA}"/>
+    <hyperlink ref="D233" r:id="rId459" xr:uid="{E4B2553A-FC93-4A1F-B939-37B8B94FC2FB}"/>
+    <hyperlink ref="G233" r:id="rId460" xr:uid="{7C4ACE6C-76DD-449D-9C79-CA70E2AFD3A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId459"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId461"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDBCED-FC79-4989-97BE-CBA49082F26F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D30EFEB-79F9-436F-BF2D-8A68E536380D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1115">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4752,6 +4752,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/decode-xored-permutation/solution/python3zhao-gui-lu-yi-huo-xing-zhi-by-jp-sfz4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps/solution/python3dfs-by-jpch89-aokh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1269. 停在原地的方案数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5329,10 +5341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12217,6 +12229,35 @@
         <v>142</v>
       </c>
       <c r="I233" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E234" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" t="s">
+        <v>221</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H234" t="s">
+        <v>221</v>
+      </c>
+      <c r="I234" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12686,8 +12727,10 @@
     <hyperlink ref="G232" r:id="rId458" xr:uid="{2A29F4E7-9310-43D0-B07F-96B7F0B69BDA}"/>
     <hyperlink ref="D233" r:id="rId459" xr:uid="{E4B2553A-FC93-4A1F-B939-37B8B94FC2FB}"/>
     <hyperlink ref="G233" r:id="rId460" xr:uid="{7C4ACE6C-76DD-449D-9C79-CA70E2AFD3A8}"/>
+    <hyperlink ref="G234" r:id="rId461" xr:uid="{2BD89FF7-00EB-457C-B1CD-0E6C72418C92}"/>
+    <hyperlink ref="D234" r:id="rId462" xr:uid="{F9D90B41-421A-4A37-838A-A9586E3D6176}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId461"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId463"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\learn\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D30EFEB-79F9-436F-BF2D-8A68E536380D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072AE351-96BB-439C-B5C2-82CE501669F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1120">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4764,6 +4764,72 @@
   </si>
   <si>
     <t>1269. 停在原地的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451. 根据字符出现频率排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-characters-by-frequency/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、字符串、桶排序、计数、排序、堆（优先队列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2021-07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每日一题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-characters-by-frequency/solution/python3yi-xing-jie-by-jpch89-x98b/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5341,30 +5407,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G240" sqref="G240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="30.25" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5396,7 +5462,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5431,7 +5497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5466,7 +5532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5501,7 +5567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -5536,7 +5602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5571,7 +5637,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5600,7 +5666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -5634,7 +5700,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -5672,7 +5738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -5710,7 +5776,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -5748,7 +5814,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -5786,7 +5852,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -5824,7 +5890,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -5862,7 +5928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -5892,7 +5958,7 @@
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -5921,7 +5987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -5950,7 +6016,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -5979,7 +6045,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -6008,7 +6074,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -6037,7 +6103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -6066,7 +6132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -6095,7 +6161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -6124,7 +6190,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -6153,7 +6219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -6182,7 +6248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -6211,7 +6277,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -6243,7 +6309,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6275,7 +6341,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -6304,7 +6370,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -6333,7 +6399,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -6362,7 +6428,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>163</v>
       </c>
@@ -6388,7 +6454,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>164</v>
       </c>
@@ -6411,7 +6477,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>171</v>
       </c>
@@ -6440,7 +6506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>301</v>
       </c>
@@ -6469,7 +6535,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>301</v>
       </c>
@@ -6498,7 +6564,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>301</v>
       </c>
@@ -6527,7 +6593,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>319</v>
       </c>
@@ -6556,7 +6622,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>319</v>
       </c>
@@ -6585,7 +6651,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -6614,7 +6680,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -6643,7 +6709,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>330</v>
       </c>
@@ -6672,7 +6738,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -6701,7 +6767,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>195</v>
       </c>
@@ -6730,7 +6796,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6759,7 +6825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -6788,7 +6854,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -6820,7 +6886,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>247</v>
       </c>
@@ -6852,7 +6918,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -6881,7 +6947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -6913,7 +6979,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>285</v>
       </c>
@@ -6942,7 +7008,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>284</v>
       </c>
@@ -6971,7 +7037,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>284</v>
       </c>
@@ -7000,7 +7066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>284</v>
       </c>
@@ -7032,7 +7098,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>285</v>
       </c>
@@ -7055,7 +7121,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>301</v>
       </c>
@@ -7084,7 +7150,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>349</v>
       </c>
@@ -7113,7 +7179,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>832</v>
       </c>
@@ -7145,7 +7211,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>353</v>
       </c>
@@ -7174,7 +7240,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>344</v>
       </c>
@@ -7203,7 +7269,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>362</v>
       </c>
@@ -7232,7 +7298,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -7261,7 +7327,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>605</v>
       </c>
@@ -7290,7 +7356,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>837</v>
       </c>
@@ -7319,7 +7385,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>632</v>
       </c>
@@ -7348,7 +7414,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>832</v>
       </c>
@@ -7377,7 +7443,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>837</v>
       </c>
@@ -7406,7 +7472,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>837</v>
       </c>
@@ -7435,7 +7501,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>632</v>
       </c>
@@ -7464,7 +7530,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>837</v>
       </c>
@@ -7493,7 +7559,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -7525,7 +7591,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>383</v>
       </c>
@@ -7557,7 +7623,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>395</v>
       </c>
@@ -7586,7 +7652,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>399</v>
       </c>
@@ -7615,7 +7681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>404</v>
       </c>
@@ -7644,7 +7710,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>667</v>
       </c>
@@ -7673,7 +7739,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -7702,7 +7768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>418</v>
       </c>
@@ -7731,7 +7797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>422</v>
       </c>
@@ -7760,7 +7826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>422</v>
       </c>
@@ -7789,7 +7855,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>422</v>
       </c>
@@ -7821,7 +7887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>438</v>
       </c>
@@ -7850,7 +7916,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>653</v>
       </c>
@@ -7882,7 +7948,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>451</v>
       </c>
@@ -7911,7 +7977,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>454</v>
       </c>
@@ -7940,7 +8006,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>458</v>
       </c>
@@ -7969,7 +8035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>464</v>
       </c>
@@ -7998,7 +8064,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>667</v>
       </c>
@@ -8027,7 +8093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>480</v>
       </c>
@@ -8056,7 +8122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -8088,7 +8154,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>487</v>
       </c>
@@ -8120,7 +8186,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>493</v>
       </c>
@@ -8149,7 +8215,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>493</v>
       </c>
@@ -8178,7 +8244,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>494</v>
       </c>
@@ -8207,7 +8273,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>494</v>
       </c>
@@ -8236,7 +8302,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>516</v>
       </c>
@@ -8265,7 +8331,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>516</v>
       </c>
@@ -8294,7 +8360,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>516</v>
       </c>
@@ -8323,7 +8389,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>517</v>
       </c>
@@ -8352,7 +8418,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>534</v>
       </c>
@@ -8381,7 +8447,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>534</v>
       </c>
@@ -8410,7 +8476,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>542</v>
       </c>
@@ -8439,7 +8505,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>542</v>
       </c>
@@ -8468,7 +8534,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>667</v>
       </c>
@@ -8497,7 +8563,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>554</v>
       </c>
@@ -8526,7 +8592,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>554</v>
       </c>
@@ -8555,7 +8621,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>565</v>
       </c>
@@ -8584,7 +8650,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>565</v>
       </c>
@@ -8613,7 +8679,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>667</v>
       </c>
@@ -8642,7 +8708,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>585</v>
       </c>
@@ -8671,7 +8737,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>612</v>
       </c>
@@ -8700,7 +8766,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>618</v>
       </c>
@@ -8729,7 +8795,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>618</v>
       </c>
@@ -8758,7 +8824,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>618</v>
       </c>
@@ -8787,7 +8853,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>619</v>
       </c>
@@ -8816,7 +8882,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>632</v>
       </c>
@@ -8845,7 +8911,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>655</v>
       </c>
@@ -8874,7 +8940,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>658</v>
       </c>
@@ -8903,7 +8969,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>662</v>
       </c>
@@ -8932,7 +8998,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>668</v>
       </c>
@@ -8961,7 +9027,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>673</v>
       </c>
@@ -8990,7 +9056,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>678</v>
       </c>
@@ -9019,7 +9085,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>684</v>
       </c>
@@ -9048,7 +9114,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>689</v>
       </c>
@@ -9077,7 +9143,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>695</v>
       </c>
@@ -9106,7 +9172,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>701</v>
       </c>
@@ -9135,7 +9201,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>706</v>
       </c>
@@ -9164,7 +9230,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>712</v>
       </c>
@@ -9193,7 +9259,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>722</v>
       </c>
@@ -9222,7 +9288,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>723</v>
       </c>
@@ -9251,7 +9317,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>734</v>
       </c>
@@ -9280,7 +9346,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>737</v>
       </c>
@@ -9309,7 +9375,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>740</v>
       </c>
@@ -9338,7 +9404,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>740</v>
       </c>
@@ -9367,7 +9433,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>753</v>
       </c>
@@ -9396,7 +9462,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -9425,7 +9491,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -9454,7 +9520,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -9483,7 +9549,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +9578,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -9535,7 +9601,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -9564,7 +9630,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -9593,7 +9659,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -9622,7 +9688,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -9651,7 +9717,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -9680,7 +9746,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -9709,7 +9775,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -9738,7 +9804,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -9767,7 +9833,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9862,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -9825,7 +9891,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -9854,7 +9920,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -9883,7 +9949,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -9912,7 +9978,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -9941,7 +10007,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -9970,7 +10036,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -9999,7 +10065,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -10028,7 +10094,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -10057,7 +10123,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -10086,7 +10152,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -10115,7 +10181,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -10144,7 +10210,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -10173,7 +10239,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -10202,7 +10268,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -10231,7 +10297,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -10260,7 +10326,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -10289,7 +10355,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -10318,7 +10384,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -10347,7 +10413,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -10376,7 +10442,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -10405,7 +10471,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -10434,7 +10500,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -10463,7 +10529,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -10492,7 +10558,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -10521,7 +10587,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -10550,7 +10616,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -10579,7 +10645,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -10608,7 +10674,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -10637,7 +10703,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>917</v>
       </c>
@@ -10666,7 +10732,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>920</v>
       </c>
@@ -10695,7 +10761,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>925</v>
       </c>
@@ -10727,7 +10793,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>936</v>
       </c>
@@ -10756,7 +10822,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -10785,7 +10851,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -10814,7 +10880,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -10843,7 +10909,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -10872,7 +10938,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -10901,7 +10967,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -10930,7 +10996,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -10959,7 +11025,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -10988,7 +11054,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -11017,7 +11083,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -11046,7 +11112,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -11075,7 +11141,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -11104,7 +11170,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -11133,7 +11199,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -11162,7 +11228,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -11191,7 +11257,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -11220,7 +11286,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -11249,7 +11315,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -11278,7 +11344,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -11307,7 +11373,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -11336,7 +11402,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -11365,7 +11431,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -11394,7 +11460,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -11423,7 +11489,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -11452,7 +11518,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -11481,7 +11547,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -11510,7 +11576,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -11539,7 +11605,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -11568,7 +11634,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -11597,7 +11663,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -11626,7 +11692,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -11655,7 +11721,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -11684,7 +11750,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -11713,7 +11779,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -11742,7 +11808,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -11771,7 +11837,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -11800,7 +11866,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -11829,7 +11895,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -11858,7 +11924,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -11887,7 +11953,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -11916,7 +11982,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -11942,7 +12008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -11971,7 +12037,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -12000,7 +12066,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -12029,7 +12095,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -12058,7 +12124,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -12087,7 +12153,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -12116,7 +12182,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -12145,7 +12211,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -12174,7 +12240,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -12203,7 +12269,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -12232,7 +12298,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -12259,6 +12325,35 @@
       </c>
       <c r="I234" t="s">
         <v>1086</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44380</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H235" t="s">
+        <v>142</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -12729,8 +12824,10 @@
     <hyperlink ref="G233" r:id="rId460" xr:uid="{7C4ACE6C-76DD-449D-9C79-CA70E2AFD3A8}"/>
     <hyperlink ref="G234" r:id="rId461" xr:uid="{2BD89FF7-00EB-457C-B1CD-0E6C72418C92}"/>
     <hyperlink ref="D234" r:id="rId462" xr:uid="{F9D90B41-421A-4A37-838A-A9586E3D6176}"/>
+    <hyperlink ref="D235" r:id="rId463" xr:uid="{95F77C84-6BE3-4EF4-869C-4EE4D90B7B71}"/>
+    <hyperlink ref="G235" r:id="rId464" xr:uid="{42BAF5FD-E0A4-4B98-8032-64759BDF5CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId463"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId465"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\learn\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072AE351-96BB-439C-B5C2-82CE501669F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465931F-7E59-4B75-8AE3-B39C2CF472D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1124">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4830,6 +4830,22 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/sort-characters-by-frequency/solution/python3yi-xing-jie-by-jpch89-x98b/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-majority-element-lcci/solution/python3javaha-xi-biao-tou-piao-suan-fa-b-t6to/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-majority-element-lcci/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 17.10. 主要元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5407,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G240" sqref="G240"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12353,6 +12369,35 @@
         <v>142</v>
       </c>
       <c r="I235" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44386</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H236" t="s">
+        <v>142</v>
+      </c>
+      <c r="I236" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -12826,8 +12871,10 @@
     <hyperlink ref="D234" r:id="rId462" xr:uid="{F9D90B41-421A-4A37-838A-A9586E3D6176}"/>
     <hyperlink ref="D235" r:id="rId463" xr:uid="{95F77C84-6BE3-4EF4-869C-4EE4D90B7B71}"/>
     <hyperlink ref="G235" r:id="rId464" xr:uid="{42BAF5FD-E0A4-4B98-8032-64759BDF5CF7}"/>
+    <hyperlink ref="G236" r:id="rId465" xr:uid="{5EE60BBD-8154-4B62-9DAC-FA943B659141}"/>
+    <hyperlink ref="D236" r:id="rId466" xr:uid="{DE8A2D9B-5EA2-4A02-B7B9-2117D185A7E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId465"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId467"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\learn\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465931F-7E59-4B75-8AE3-B39C2CF472D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F070B-E76A-49CC-A974-3BD9DA15E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1128">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4846,6 +4846,22 @@
   </si>
   <si>
     <t>面试题 17.10. 主要元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimize-maximum-pair-sum-in-array/solution/shuang-zhi-zhen-yi-ci-bian-li-by-jpch89-ydv9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、数组、双指针、排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimize-maximum-pair-sum-in-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1877. 数组中最大数对和的最小值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5423,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12398,6 +12414,35 @@
         <v>142</v>
       </c>
       <c r="I236" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44397</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H237" t="s">
+        <v>142</v>
+      </c>
+      <c r="I237" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -12873,8 +12918,10 @@
     <hyperlink ref="G235" r:id="rId464" xr:uid="{42BAF5FD-E0A4-4B98-8032-64759BDF5CF7}"/>
     <hyperlink ref="G236" r:id="rId465" xr:uid="{5EE60BBD-8154-4B62-9DAC-FA943B659141}"/>
     <hyperlink ref="D236" r:id="rId466" xr:uid="{DE8A2D9B-5EA2-4A02-B7B9-2117D185A7E6}"/>
+    <hyperlink ref="G237" r:id="rId467" xr:uid="{D8F8E790-D7B0-41E2-AF3D-D3FE775FE44A}"/>
+    <hyperlink ref="D237" r:id="rId468" xr:uid="{8F3259A7-4A2A-46AB-BFEE-3EB89AA7A6A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId467"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId469"/>
 </worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\learn\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F070B-E76A-49CC-A974-3BD9DA15E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3143A7C9-2E0E-4D29-B964-7D4A38A22F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1132">
   <si>
     <t>做题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4862,6 +4862,22 @@
   </si>
   <si>
     <t>1877. 数组中最大数对和的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>863. 二叉树中所有距离为 K 的结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、深度优先遍历、广度优先遍历、二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/solution/python3javalin-jie-biao-bfsdfs-ji-lu-yi-t0otq/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5439,10 +5455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+      <selection activeCell="F241" sqref="F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12443,6 +12459,35 @@
         <v>142</v>
       </c>
       <c r="I237" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44405</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H238" t="s">
+        <v>142</v>
+      </c>
+      <c r="I238" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -12920,8 +12965,10 @@
     <hyperlink ref="D236" r:id="rId466" xr:uid="{DE8A2D9B-5EA2-4A02-B7B9-2117D185A7E6}"/>
     <hyperlink ref="G237" r:id="rId467" xr:uid="{D8F8E790-D7B0-41E2-AF3D-D3FE775FE44A}"/>
     <hyperlink ref="D237" r:id="rId468" xr:uid="{8F3259A7-4A2A-46AB-BFEE-3EB89AA7A6A2}"/>
+    <hyperlink ref="D238" r:id="rId469" xr:uid="{200A0821-14DC-4814-AF78-EE384D2B2215}"/>
+    <hyperlink ref="G238" r:id="rId470" xr:uid="{5250C08B-C81C-450A-A370-DAB3C94A9624}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId469"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId471"/>
 </worksheet>
 </file>